--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.297920240925homecagefamilarmice2024-12-07095919trace/processed_No.297920240925homecagefamilarmice2024-12-07095919trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.297920240925homecagefamilarmice2024-12-07095919trace/processed_No.297920240925homecagefamilarmice2024-12-07095919trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:X60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1736</v>
+        <v>299</v>
       </c>
       <c r="B2" t="n">
-        <v>1765</v>
+        <v>323</v>
       </c>
       <c r="C2" t="n">
-        <v>1841</v>
+        <v>393</v>
       </c>
       <c r="D2" t="n">
-        <v>3.062499578097158</v>
+        <v>1.832311805502594</v>
       </c>
       <c r="E2" t="n">
-        <v>2.397165422787689</v>
+        <v>1.197605794480856</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6653341553094693</v>
+        <v>-0.6347060110217374</v>
       </c>
       <c r="G2" t="n">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H2" t="n">
-        <v>30.66805403806234</v>
+        <v>84.83242700716306</v>
       </c>
       <c r="I2" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J2" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K2" t="n">
-        <v>229.1007328641475</v>
+        <v>99.49730143806833</v>
       </c>
       <c r="L2" t="n">
-        <v>13.90477759640965</v>
+        <v>4.51779281864634</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,24 +606,24 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.8774896768563235</v>
+        <v>0.7558440652506063</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3815789473684211</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2005225834791491</v>
+        <v>0.4482826809653839</v>
       </c>
       <c r="S2" t="n">
-        <v>0.957100129230893</v>
+        <v>0.3512069716220254</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1100</v>
+        <v>2455</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1841</v>
+        <v>562</v>
       </c>
       <c r="B3" t="n">
-        <v>1873</v>
+        <v>613</v>
       </c>
       <c r="C3" t="n">
-        <v>1998</v>
+        <v>700</v>
       </c>
       <c r="D3" t="n">
-        <v>2.660269883537548</v>
+        <v>2.96861928687132</v>
       </c>
       <c r="E3" t="n">
-        <v>1.994935728228079</v>
+        <v>2.333913275849583</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6653341553094693</v>
+        <v>-0.6347060110217374</v>
       </c>
       <c r="G3" t="n">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="H3" t="n">
-        <v>58.14271079664809</v>
+        <v>114.4270184382366</v>
       </c>
       <c r="I3" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="J3" t="n">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="K3" t="n">
-        <v>291.3119846208781</v>
+        <v>242.0972264064332</v>
       </c>
       <c r="L3" t="n">
-        <v>12.07851956668667</v>
+        <v>7.319500346636436</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,24 +692,24 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.8323447089112598</v>
+        <v>0.707755057137839</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.256</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1819912806773113</v>
+        <v>0.2269124146372294</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4835291609873174</v>
+        <v>0.9146966601829445</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>1101</v>
+        <v>2456</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>798</v>
+        <v>700</v>
       </c>
       <c r="B4" t="n">
-        <v>870</v>
+        <v>727</v>
       </c>
       <c r="C4" t="n">
-        <v>1037</v>
+        <v>777</v>
       </c>
       <c r="D4" t="n">
-        <v>2.892578281753443</v>
+        <v>1.99483728670078</v>
       </c>
       <c r="E4" t="n">
-        <v>2.128347322705181</v>
+        <v>1.360131275679043</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.7642309590482619</v>
+        <v>-0.6347060110217374</v>
       </c>
       <c r="G4" t="n">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="H4" t="n">
-        <v>82.54940357593966</v>
+        <v>28.79296832203158</v>
       </c>
       <c r="I4" t="n">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="J4" t="n">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>427.3081799604141</v>
+        <v>85.82575756485433</v>
       </c>
       <c r="L4" t="n">
-        <v>10.71655137638699</v>
+        <v>4.918519621584121</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.8592693071918013</v>
+        <v>0.8217824099965693</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4311377245508982</v>
+        <v>0.54</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3467673288138497</v>
+        <v>0.1599165074142883</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9451388913276059</v>
+        <v>0.9758029746459168</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>1102</v>
+        <v>2457</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1037</v>
+        <v>1293</v>
       </c>
       <c r="B5" t="n">
-        <v>1100</v>
+        <v>1332</v>
       </c>
       <c r="C5" t="n">
-        <v>1230</v>
+        <v>1404</v>
       </c>
       <c r="D5" t="n">
-        <v>2.16352920166091</v>
+        <v>1.975758593839199</v>
       </c>
       <c r="E5" t="n">
-        <v>1.399298242612648</v>
+        <v>1.341052582817462</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.7642309590482619</v>
+        <v>-0.6347060110217374</v>
       </c>
       <c r="G5" t="n">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="H5" t="n">
-        <v>51.73572519133813</v>
+        <v>75.43037089701807</v>
       </c>
       <c r="I5" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="J5" t="n">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="K5" t="n">
-        <v>189.0754529479063</v>
+        <v>156.1452737806297</v>
       </c>
       <c r="L5" t="n">
-        <v>8.015538244952138</v>
+        <v>4.871478729668038</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.8467851875683566</v>
+        <v>0.7214753972305492</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4846153846153846</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4129233050318149</v>
+        <v>0.1986218424497045</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9861440232588745</v>
+        <v>0.8334621306862291</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>1103</v>
+        <v>2458</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>128</v>
+        <v>1684</v>
       </c>
       <c r="B6" t="n">
-        <v>174</v>
+        <v>1705</v>
       </c>
       <c r="C6" t="n">
-        <v>328</v>
+        <v>1737</v>
       </c>
       <c r="D6" t="n">
-        <v>3.062238749093163</v>
+        <v>2.717636345509504</v>
       </c>
       <c r="E6" t="n">
-        <v>2.455185338473144</v>
+        <v>2.050453722766382</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6070534106200185</v>
+        <v>-0.6671826227431225</v>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="H6" t="n">
-        <v>40.84710547507868</v>
+        <v>25.22978618379852</v>
       </c>
       <c r="I6" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J6" t="n">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="K6" t="n">
-        <v>288.8725357830141</v>
+        <v>128.1274193704827</v>
       </c>
       <c r="L6" t="n">
-        <v>11.29999915038948</v>
+        <v>12.31975650336915</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.8759721322176297</v>
+        <v>0.6522917755895128</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2987012987012987</v>
+        <v>0.65625</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2816224066247799</v>
+        <v>0.0367917595378879</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8864208347543658</v>
+        <v>0.9801509638862053</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>1104</v>
+        <v>2459</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1153</v>
+        <v>1737</v>
       </c>
       <c r="B7" t="n">
-        <v>1185</v>
+        <v>1764</v>
       </c>
       <c r="C7" t="n">
-        <v>1263</v>
+        <v>1842</v>
       </c>
       <c r="D7" t="n">
-        <v>2.1742353791146</v>
+        <v>3.13460705032977</v>
       </c>
       <c r="E7" t="n">
-        <v>1.515896199580152</v>
+        <v>2.467424427586647</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6583391795344478</v>
+        <v>-0.6671826227431225</v>
       </c>
       <c r="G7" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H7" t="n">
-        <v>43.97888163959556</v>
+        <v>28.84561682258504</v>
       </c>
       <c r="I7" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J7" t="n">
         <v>78</v>
       </c>
       <c r="K7" t="n">
-        <v>101.7337035512904</v>
+        <v>228.3495989203227</v>
       </c>
       <c r="L7" t="n">
-        <v>6.456053281232565</v>
+        <v>14.209993790235</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.9240086013990673</v>
+        <v>0.8830912040534815</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4102564102564102</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3090047959118586</v>
+        <v>0.1985483619054963</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9749580493772007</v>
+        <v>0.9545802300781178</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>1105</v>
+        <v>2460</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="B8" t="n">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="C8" t="n">
-        <v>1998</v>
+        <v>1933</v>
       </c>
       <c r="D8" t="n">
-        <v>3.315334658273275</v>
+        <v>2.697145957086454</v>
       </c>
       <c r="E8" t="n">
-        <v>2.656995478738827</v>
+        <v>2.029963334343331</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6583391795344478</v>
+        <v>-0.6671826227431225</v>
       </c>
       <c r="G8" t="n">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="H8" t="n">
-        <v>90.9885450478921</v>
+        <v>58.91212468490608</v>
       </c>
       <c r="I8" t="n">
         <v>30</v>
       </c>
       <c r="J8" t="n">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="K8" t="n">
-        <v>319.2306511247997</v>
+        <v>182.7763334670283</v>
       </c>
       <c r="L8" t="n">
-        <v>9.84436984354722</v>
+        <v>12.22686821224494</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.8308092542041183</v>
+        <v>0.8085371439521076</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2439024390243902</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1448369965922545</v>
+        <v>0.1930495853966423</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8477806673164586</v>
+        <v>0.922859383384416</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>1106</v>
+        <v>2461</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>395</v>
+        <v>798</v>
       </c>
       <c r="B9" t="n">
-        <v>585</v>
+        <v>866</v>
       </c>
       <c r="C9" t="n">
-        <v>872</v>
+        <v>1040</v>
       </c>
       <c r="D9" t="n">
-        <v>3.079165191135083</v>
+        <v>2.887015475895377</v>
       </c>
       <c r="E9" t="n">
-        <v>2.330966868638072</v>
+        <v>2.12158637185259</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7481983224970105</v>
+        <v>-0.7654291040427865</v>
       </c>
       <c r="G9" t="n">
-        <v>477</v>
+        <v>242</v>
       </c>
       <c r="H9" t="n">
-        <v>325.0404962043488</v>
+        <v>85.61106848923316</v>
       </c>
       <c r="I9" t="n">
-        <v>190</v>
+        <v>68</v>
       </c>
       <c r="J9" t="n">
-        <v>287</v>
+        <v>174</v>
       </c>
       <c r="K9" t="n">
-        <v>911.9357286345349</v>
+        <v>429.7142738031423</v>
       </c>
       <c r="L9" t="n">
-        <v>12.68537602251186</v>
+        <v>10.67478313503943</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.5335333046353629</v>
+        <v>0.818926222125628</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6620209059233449</v>
+        <v>0.3908045977011494</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1321272335994916</v>
+        <v>0.3318479272607651</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7475796476002841</v>
+        <v>0.9477976012940083</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>1107</v>
+        <v>2462</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>640</v>
+        <v>1040</v>
       </c>
       <c r="B10" t="n">
-        <v>677</v>
+        <v>1099</v>
       </c>
       <c r="C10" t="n">
-        <v>785</v>
+        <v>1234</v>
       </c>
       <c r="D10" t="n">
-        <v>3.384982191929453</v>
+        <v>2.230198505818727</v>
       </c>
       <c r="E10" t="n">
-        <v>2.824214758008683</v>
+        <v>1.464769401775941</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5607674339207692</v>
+        <v>-0.7654291040427865</v>
       </c>
       <c r="G10" t="n">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="H10" t="n">
-        <v>278.9338342265167</v>
+        <v>45.2802455365877</v>
       </c>
       <c r="I10" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="J10" t="n">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="K10" t="n">
-        <v>321.1704062118559</v>
+        <v>187.8585495168901</v>
       </c>
       <c r="L10" t="n">
-        <v>16.12422024050113</v>
+        <v>8.246192511427543</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.825364200913298</v>
+        <v>0.7893769424913238</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3425925925925926</v>
+        <v>0.4370370370370371</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3565778867681204</v>
+        <v>0.4277119880278502</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7380248618375675</v>
+        <v>0.9839802882432497</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>1108</v>
+        <v>2463</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>913</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>1027</v>
+        <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>1.740365311653291</v>
+        <v>2.643584909773778</v>
       </c>
       <c r="E11" t="n">
-        <v>1.179597877732522</v>
+        <v>2.11579162476145</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5607674339207692</v>
+        <v>-0.527793285012328</v>
       </c>
       <c r="G11" t="n">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="H11" t="n">
-        <v>67.40227103148391</v>
+        <v>10.42768700351867</v>
       </c>
       <c r="I11" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="K11" t="n">
-        <v>123.3259677877535</v>
+        <v>55.6518545915349</v>
       </c>
       <c r="L11" t="n">
-        <v>8.290156932267516</v>
+        <v>12.5136341579048</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.8240361905874053</v>
+        <v>0.8191896286701511</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4074074074074074</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="R11" t="n">
-        <v>0.158481646348687</v>
+        <v>0.1176957406874949</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9564170183481597</v>
+        <v>0.9776366559636261</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>1109</v>
+        <v>2464</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>585</v>
+        <v>79</v>
       </c>
       <c r="B12" t="n">
-        <v>618</v>
+        <v>110</v>
       </c>
       <c r="C12" t="n">
-        <v>746</v>
+        <v>302</v>
       </c>
       <c r="D12" t="n">
-        <v>3.613117771570381</v>
+        <v>4.44524495831643</v>
       </c>
       <c r="E12" t="n">
-        <v>3.126901045399234</v>
+        <v>3.917451673304102</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.4862167261711471</v>
+        <v>-0.527793285012328</v>
       </c>
       <c r="G12" t="n">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="H12" t="n">
-        <v>36.80174324849463</v>
+        <v>65.22194990655898</v>
       </c>
       <c r="I12" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J12" t="n">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="K12" t="n">
-        <v>339.3498193807054</v>
+        <v>432.1399822883183</v>
       </c>
       <c r="L12" t="n">
-        <v>32.71980840190496</v>
+        <v>21.04194533150165</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.8926406594505896</v>
+        <v>0.877521378386558</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2578125</v>
+        <v>0.1614583333333333</v>
       </c>
       <c r="R12" t="n">
-        <v>0.4269492934753437</v>
+        <v>0.5175572330155673</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9148617676638825</v>
+        <v>0.9104937175583203</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>1110</v>
+        <v>2465</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>500</v>
+        <v>535</v>
       </c>
       <c r="B13" t="n">
-        <v>529</v>
+        <v>586</v>
       </c>
       <c r="C13" t="n">
-        <v>598</v>
+        <v>656</v>
       </c>
       <c r="D13" t="n">
-        <v>5.771022323986368</v>
+        <v>1.919953638383821</v>
       </c>
       <c r="E13" t="n">
-        <v>5.378230532210489</v>
+        <v>1.243458334535599</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3927917917758786</v>
+        <v>-0.6764953038482219</v>
       </c>
       <c r="G13" t="n">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="H13" t="n">
-        <v>66.2246170047718</v>
+        <v>62.75578366162938</v>
       </c>
       <c r="I13" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="J13" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K13" t="n">
-        <v>337.6475352187334</v>
+        <v>183.0868088709412</v>
       </c>
       <c r="L13" t="n">
-        <v>19.73639280949845</v>
+        <v>3.858810187557849</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.7942430838877459</v>
+        <v>0.6754420921079072</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4202898550724637</v>
+        <v>0.7285714285714285</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1542190975326859</v>
+        <v>0.1832149858493413</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9013495048898499</v>
+        <v>0.8415684017904466</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>1111</v>
+        <v>2466</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>621</v>
+        <v>126</v>
       </c>
       <c r="B14" t="n">
-        <v>642</v>
+        <v>174</v>
       </c>
       <c r="C14" t="n">
-        <v>858</v>
+        <v>327</v>
       </c>
       <c r="D14" t="n">
-        <v>3.002818336471266</v>
+        <v>3.107931657058874</v>
       </c>
       <c r="E14" t="n">
-        <v>2.472164522719643</v>
+        <v>2.500661799245463</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5306538137516225</v>
+        <v>-0.6072698578134105</v>
       </c>
       <c r="G14" t="n">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="H14" t="n">
-        <v>33.55137529799492</v>
+        <v>40.48282409911707</v>
       </c>
       <c r="I14" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="J14" t="n">
-        <v>216</v>
+        <v>153</v>
       </c>
       <c r="K14" t="n">
-        <v>405.6636450318269</v>
+        <v>290.0421797833931</v>
       </c>
       <c r="L14" t="n">
-        <v>14.62347086293637</v>
+        <v>11.35665454470659</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.7861774702083092</v>
+        <v>0.8072950011460365</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.09722222222222222</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4105315540342886</v>
+        <v>0.2652454750070896</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9452643632626865</v>
+        <v>0.8744543104010413</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>1112</v>
+        <v>2467</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1726</v>
+        <v>902</v>
       </c>
       <c r="B15" t="n">
-        <v>1807</v>
+        <v>931</v>
       </c>
       <c r="C15" t="n">
-        <v>1998</v>
+        <v>988</v>
       </c>
       <c r="D15" t="n">
-        <v>4.34657958178295</v>
+        <v>1.801542463060182</v>
       </c>
       <c r="E15" t="n">
-        <v>3.877669871142383</v>
+        <v>1.19078895549696</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.468909710640567</v>
+        <v>-0.6107535075632219</v>
       </c>
       <c r="G15" t="n">
-        <v>272</v>
+        <v>86</v>
       </c>
       <c r="H15" t="n">
-        <v>79.19038164761628</v>
+        <v>213.6400681561987</v>
       </c>
       <c r="I15" t="n">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="J15" t="n">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="K15" t="n">
-        <v>437.2438057274397</v>
+        <v>114.1822532990852</v>
       </c>
       <c r="L15" t="n">
-        <v>10.87052086891235</v>
+        <v>7.737249140626668</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.7543236330855773</v>
+        <v>0.6229548717599798</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4240837696335079</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5239125484029293</v>
+        <v>0.09483197917958823</v>
       </c>
       <c r="S15" t="n">
-        <v>0.5562075333260915</v>
+        <v>0.6646432451853976</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>1113</v>
+        <v>2468</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1449</v>
+        <v>859</v>
       </c>
       <c r="B16" t="n">
-        <v>1481</v>
+        <v>906</v>
       </c>
       <c r="C16" t="n">
-        <v>1635</v>
+        <v>1066</v>
       </c>
       <c r="D16" t="n">
-        <v>3.748822111167379</v>
+        <v>3.375846100741658</v>
       </c>
       <c r="E16" t="n">
-        <v>3.069167288232584</v>
+        <v>2.790708729964125</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6796548229347952</v>
+        <v>-0.5851373707775336</v>
       </c>
       <c r="G16" t="n">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="H16" t="n">
-        <v>159.8600533999343</v>
+        <v>122.0674899361528</v>
       </c>
       <c r="I16" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="J16" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K16" t="n">
-        <v>369.5506540610056</v>
+        <v>394.6605600164426</v>
       </c>
       <c r="L16" t="n">
-        <v>18.90808097248087</v>
+        <v>10.64381576239925</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.8868936390487263</v>
+        <v>0.7698256831030569</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.2077922077922078</v>
+        <v>0.29375</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4198171421665141</v>
+        <v>0.1319468074701547</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9598028158080181</v>
+        <v>0.8958749039886316</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>1114</v>
+        <v>2469</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1635</v>
+        <v>903</v>
       </c>
       <c r="B17" t="n">
-        <v>1679</v>
+        <v>928</v>
       </c>
       <c r="C17" t="n">
-        <v>1869</v>
+        <v>1047</v>
       </c>
       <c r="D17" t="n">
-        <v>2.714047483894896</v>
+        <v>2.15661376201298</v>
       </c>
       <c r="E17" t="n">
-        <v>2.034392660960101</v>
+        <v>1.498419258393806</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6796548229347952</v>
+        <v>-0.6581945036191742</v>
       </c>
       <c r="G17" t="n">
-        <v>234</v>
+        <v>144</v>
       </c>
       <c r="H17" t="n">
-        <v>72.14271206879721</v>
+        <v>24.90160506501388</v>
       </c>
       <c r="I17" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="J17" t="n">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="K17" t="n">
-        <v>295.1651580656394</v>
+        <v>211.4827607250916</v>
       </c>
       <c r="L17" t="n">
-        <v>13.68894763925261</v>
+        <v>6.38402429096618</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.8840658073835211</v>
+        <v>0.7488341347090739</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.2315789473684211</v>
+        <v>0.2100840336134454</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2116645441504782</v>
+        <v>0.1913610193803718</v>
       </c>
       <c r="S17" t="n">
-        <v>0.7875304785739421</v>
+        <v>0.6133389898874648</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>1115</v>
+        <v>2470</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1338</v>
+        <v>1155</v>
       </c>
       <c r="B18" t="n">
-        <v>1426</v>
+        <v>1184</v>
       </c>
       <c r="C18" t="n">
-        <v>1554</v>
+        <v>1265</v>
       </c>
       <c r="D18" t="n">
-        <v>1.455864213360141</v>
+        <v>2.252488817256901</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9049776852167188</v>
+        <v>1.594294313637727</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5508865281434219</v>
+        <v>-0.6581945036191742</v>
       </c>
       <c r="G18" t="n">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c r="H18" t="n">
-        <v>48.06527028996152</v>
+        <v>42.91335055155082</v>
       </c>
       <c r="I18" t="n">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="J18" t="n">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="K18" t="n">
-        <v>135.6337813950518</v>
+        <v>101.7856181649845</v>
       </c>
       <c r="L18" t="n">
-        <v>7.434919416522169</v>
+        <v>6.667834351142932</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.5189907617492331</v>
+        <v>0.951606578458754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.6875</v>
+        <v>0.3580246913580247</v>
       </c>
       <c r="R18" t="n">
-        <v>0.4970588626653636</v>
+        <v>0.3379351901692523</v>
       </c>
       <c r="S18" t="n">
-        <v>0.4115029964639297</v>
+        <v>0.9746603227388325</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>1116</v>
+        <v>2471</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1726</v>
+        <v>1846</v>
       </c>
       <c r="B19" t="n">
-        <v>1827</v>
+        <v>1874</v>
       </c>
       <c r="C19" t="n">
         <v>1998</v>
       </c>
       <c r="D19" t="n">
-        <v>4.160113467547152</v>
+        <v>3.314108866831563</v>
       </c>
       <c r="E19" t="n">
-        <v>3.60922693940373</v>
+        <v>2.655914363212388</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.5508865281434219</v>
+        <v>-0.6581945036191742</v>
       </c>
       <c r="G19" t="n">
-        <v>272</v>
+        <v>152</v>
       </c>
       <c r="H19" t="n">
-        <v>113.5447164656466</v>
+        <v>92.6256039651546</v>
       </c>
       <c r="I19" t="n">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="J19" t="n">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="K19" t="n">
-        <v>506.2203877057174</v>
+        <v>319.4790142899119</v>
       </c>
       <c r="L19" t="n">
-        <v>21.24518764247585</v>
+        <v>9.810450012621109</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.5829024180221928</v>
+        <v>0.7996490095570563</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.5906432748538012</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="R19" t="n">
-        <v>0.6310420194502558</v>
+        <v>0.1282508579671886</v>
       </c>
       <c r="S19" t="n">
-        <v>0.3013335529791156</v>
+        <v>0.8242554216910288</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>1117</v>
+        <v>2472</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1357</v>
+        <v>1804</v>
       </c>
       <c r="B20" t="n">
-        <v>1431</v>
+        <v>1821</v>
       </c>
       <c r="C20" t="n">
-        <v>1549</v>
+        <v>1869</v>
       </c>
       <c r="D20" t="n">
-        <v>1.297470988237435</v>
+        <v>1.292486737164684</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7759686817670742</v>
+        <v>0.8918121145279554</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5215023064703606</v>
+        <v>-0.4006746226367284</v>
       </c>
       <c r="G20" t="n">
-        <v>192</v>
+        <v>65</v>
       </c>
       <c r="H20" t="n">
-        <v>77.89188738741814</v>
+        <v>57.93403052382746</v>
       </c>
       <c r="I20" t="n">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="J20" t="n">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="K20" t="n">
-        <v>154.8932058784927</v>
+        <v>43.4531594369594</v>
       </c>
       <c r="L20" t="n">
-        <v>8.095283567051712</v>
+        <v>4.433459172895267</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.6724550424709654</v>
+        <v>0.8458719195726038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.6271186440677966</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1856919501877236</v>
+        <v>0.2236091692576579</v>
       </c>
       <c r="S20" t="n">
-        <v>0.7462578668431874</v>
+        <v>0.7835722038936472</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>1118</v>
+        <v>2473</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,73 +2191,73 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1549</v>
+        <v>1906</v>
       </c>
       <c r="B21" t="n">
-        <v>1583</v>
+        <v>1934</v>
       </c>
       <c r="C21" t="n">
-        <v>1642</v>
+        <v>1998</v>
       </c>
       <c r="D21" t="n">
-        <v>1.106421208717286</v>
+        <v>1.126535984320594</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5849189022469253</v>
+        <v>0.5726207789031146</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5215023064703606</v>
+        <v>-0.5539152054174793</v>
       </c>
       <c r="G21" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H21" t="n">
-        <v>53.61921892631199</v>
+        <v>26.83237118175362</v>
       </c>
       <c r="I21" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J21" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K21" t="n">
-        <v>69.8127070717496</v>
+        <v>68.37850407695159</v>
       </c>
       <c r="L21" t="n">
-        <v>6.903270678394128</v>
+        <v>3.945927256064291</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(1975), 'value': np.float64(0.3802034470795283), 'amplitude': np.float64(0.9341186524970075), 'start_idx': np.int64(1962), 'end_idx': np.int64(1997), 'duration': np.float64(35.0), 'fwhm': np.float64(17.853344502411346), 'rise_time': np.float64(13.0), 'decay_time': np.float64(22.0), 'auc': np.float64(25.454885001393915)}]</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.6540845334038615</v>
+        <v>0.7266290728082826</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.576271186440678</v>
+        <v>0.4375</v>
       </c>
       <c r="R21" t="n">
-        <v>0.04294757884521806</v>
+        <v>0.3367921570996574</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9358717899364949</v>
+        <v>0.3017631491484296</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>1119</v>
+        <v>2474</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,85 +2277,3353 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>224</v>
+        <v>1356</v>
       </c>
       <c r="B22" t="n">
-        <v>286</v>
+        <v>1380</v>
       </c>
       <c r="C22" t="n">
-        <v>410</v>
+        <v>1427</v>
       </c>
       <c r="D22" t="n">
-        <v>3.601912113496565</v>
+        <v>1.133410404501363</v>
       </c>
       <c r="E22" t="n">
-        <v>3.115735180921571</v>
+        <v>0.5565444764375045</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.4861769325749944</v>
+        <v>-0.5768659280638588</v>
       </c>
       <c r="G22" t="n">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="H22" t="n">
-        <v>49.0132346738695</v>
+        <v>35.73233257347806</v>
       </c>
       <c r="I22" t="n">
+        <v>24</v>
+      </c>
+      <c r="J22" t="n">
+        <v>47</v>
+      </c>
+      <c r="K22" t="n">
+        <v>48.16688394756075</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.533316778029293</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>0.8116724944029752</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.5609173594620016</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.7702562115995417</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>n16</t>
+        </is>
+      </c>
+      <c r="U22" t="n">
+        <v>2475</v>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>562</v>
+      </c>
+      <c r="B23" t="n">
+        <v>585</v>
+      </c>
+      <c r="C23" t="n">
+        <v>650</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.139224685605228</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.396845989583997</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.7423786960212311</v>
+      </c>
+      <c r="G23" t="n">
+        <v>88</v>
+      </c>
+      <c r="H23" t="n">
+        <v>324.4102811621964</v>
+      </c>
+      <c r="I23" t="n">
+        <v>23</v>
+      </c>
+      <c r="J23" t="n">
+        <v>65</v>
+      </c>
+      <c r="K23" t="n">
+        <v>245.6355177993113</v>
+      </c>
+      <c r="L23" t="n">
+        <v>12.96673715556898</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>0.6690212292691049</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.3538461538461539</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.04428444294736453</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.8028731345710819</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>n17</t>
+        </is>
+      </c>
+      <c r="U23" t="n">
+        <v>2476</v>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>650</v>
+      </c>
+      <c r="B24" t="n">
+        <v>682</v>
+      </c>
+      <c r="C24" t="n">
+        <v>873</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.770850784810429</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.028472088789198</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.7423786960212311</v>
+      </c>
+      <c r="G24" t="n">
+        <v>223</v>
+      </c>
+      <c r="H24" t="n">
+        <v>30.5688723985071</v>
+      </c>
+      <c r="I24" t="n">
+        <v>32</v>
+      </c>
+      <c r="J24" t="n">
+        <v>191</v>
+      </c>
+      <c r="K24" t="n">
+        <v>341.8399762459237</v>
+      </c>
+      <c r="L24" t="n">
+        <v>11.44514885751541</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>0.7956239134755554</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.1675392670157068</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.454694214716273</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.8617854687127416</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>n17</t>
+        </is>
+      </c>
+      <c r="U24" t="n">
+        <v>2477</v>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>873</v>
+      </c>
+      <c r="B25" t="n">
+        <v>956</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1069</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.155743386474986</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.4133646904537546</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.7423786960212311</v>
+      </c>
+      <c r="G25" t="n">
+        <v>196</v>
+      </c>
+      <c r="H25" t="n">
+        <v>53.60072798297574</v>
+      </c>
+      <c r="I25" t="n">
+        <v>83</v>
+      </c>
+      <c r="J25" t="n">
+        <v>113</v>
+      </c>
+      <c r="K25" t="n">
+        <v>129.1967389771458</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4.773860495053746</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(904), 'value': np.float64(-0.28337943628796625), 'amplitude': np.float64(0.45899925973326483), 'start_idx': np.int64(874), 'end_idx': np.int64(927), 'duration': np.float64(53.0), 'fwhm': np.float64(25.86103525586566), 'rise_time': np.float64(30.0), 'decay_time': np.float64(23.0), 'auc': np.float64(14.559691559570611)}]</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>0.5622919936526902</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.7345132743362832</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.04170890199279</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.7855871036854325</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>n17</t>
+        </is>
+      </c>
+      <c r="U25" t="n">
+        <v>2478</v>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1939</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.095328216824502</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3529495208032711</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.7423786960212311</v>
+      </c>
+      <c r="G26" t="n">
+        <v>88</v>
+      </c>
+      <c r="H26" t="n">
+        <v>32.77190149544435</v>
+      </c>
+      <c r="I26" t="n">
+        <v>29</v>
+      </c>
+      <c r="J26" t="n">
+        <v>59</v>
+      </c>
+      <c r="K26" t="n">
+        <v>56.54274135519434</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4.524312372977898</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>0.8956031806996261</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.4915254237288136</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.2415742156984562</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.9891539975860952</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>n17</t>
+        </is>
+      </c>
+      <c r="U26" t="n">
+        <v>2479</v>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1548</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1578</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1616</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4.471653010724453</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.020564317658124</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.4510886930663293</v>
+      </c>
+      <c r="G27" t="n">
+        <v>68</v>
+      </c>
+      <c r="H27" t="n">
+        <v>49.76512167341411</v>
+      </c>
+      <c r="I27" t="n">
+        <v>30</v>
+      </c>
+      <c r="J27" t="n">
+        <v>38</v>
+      </c>
+      <c r="K27" t="n">
+        <v>190.5217704370357</v>
+      </c>
+      <c r="L27" t="n">
+        <v>20.42152647051188</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>0.7522340847120799</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.3538998012205432</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.9591071985452506</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U27" t="n">
+        <v>2480</v>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>216</v>
+      </c>
+      <c r="B28" t="n">
+        <v>242</v>
+      </c>
+      <c r="C28" t="n">
+        <v>280</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.234468104494125</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.701797162934292</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.5326709415598334</v>
+      </c>
+      <c r="G28" t="n">
+        <v>64</v>
+      </c>
+      <c r="H28" t="n">
+        <v>26.12577144668563</v>
+      </c>
+      <c r="I28" t="n">
+        <v>26</v>
+      </c>
+      <c r="J28" t="n">
+        <v>38</v>
+      </c>
+      <c r="K28" t="n">
+        <v>91.65664765074484</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4.003070371537605</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>0.7482561525930268</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.168006963069588</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.8189890723880203</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U28" t="n">
+        <v>2481</v>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>641</v>
+      </c>
+      <c r="B29" t="n">
+        <v>674</v>
+      </c>
+      <c r="C29" t="n">
+        <v>794</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.374513682803341</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.804754660147433</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.5697590226559086</v>
+      </c>
+      <c r="G29" t="n">
+        <v>153</v>
+      </c>
+      <c r="H29" t="n">
+        <v>280.0429129857438</v>
+      </c>
+      <c r="I29" t="n">
+        <v>33</v>
+      </c>
+      <c r="J29" t="n">
+        <v>120</v>
+      </c>
+      <c r="K29" t="n">
+        <v>321.7281534840361</v>
+      </c>
+      <c r="L29" t="n">
+        <v>15.87893160101973</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>0.8661620979823591</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.3831907525610674</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.7835898682897662</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>2482</v>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>915</v>
+      </c>
+      <c r="B30" t="n">
+        <v>943</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1029</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.772749434395693</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.202990411739784</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.5697590226559086</v>
+      </c>
+      <c r="G30" t="n">
+        <v>114</v>
+      </c>
+      <c r="H30" t="n">
+        <v>66.33464601404478</v>
+      </c>
+      <c r="I30" t="n">
+        <v>28</v>
+      </c>
+      <c r="J30" t="n">
+        <v>86</v>
+      </c>
+      <c r="K30" t="n">
+        <v>124.7210343446187</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8.341755186226075</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>0.8419161165581911</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.3255813953488372</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.1350999500565926</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.9537736516839784</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U30" t="n">
+        <v>2483</v>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>584</v>
+      </c>
+      <c r="B31" t="n">
+        <v>618</v>
+      </c>
+      <c r="C31" t="n">
+        <v>748</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.660271417820085</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.174735537942376</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.4855358798777092</v>
+      </c>
+      <c r="G31" t="n">
+        <v>164</v>
+      </c>
+      <c r="H31" t="n">
+        <v>36.33943785175484</v>
+      </c>
+      <c r="I31" t="n">
+        <v>34</v>
+      </c>
+      <c r="J31" t="n">
+        <v>130</v>
+      </c>
+      <c r="K31" t="n">
+        <v>342.635983487532</v>
+      </c>
+      <c r="L31" t="n">
+        <v>33.2070118604459</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>0.883173569775794</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.2615384615384616</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.4318200228946562</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.8789680849923214</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
+        <v>2484</v>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>502</v>
+      </c>
+      <c r="B32" t="n">
+        <v>528</v>
+      </c>
+      <c r="C32" t="n">
+        <v>596</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5.929362376833134</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5.532295556551302</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.3970668202818312</v>
+      </c>
+      <c r="G32" t="n">
+        <v>94</v>
+      </c>
+      <c r="H32" t="n">
+        <v>64.15882332030782</v>
+      </c>
+      <c r="I32" t="n">
+        <v>26</v>
+      </c>
+      <c r="J32" t="n">
+        <v>68</v>
+      </c>
+      <c r="K32" t="n">
+        <v>335.1455947885386</v>
+      </c>
+      <c r="L32" t="n">
+        <v>20.0472186162091</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>0.7984486685116546</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.3823529411764706</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.1463433334802898</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.8797017631708528</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U32" t="n">
+        <v>2485</v>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>252</v>
+      </c>
+      <c r="B33" t="n">
+        <v>266</v>
+      </c>
+      <c r="C33" t="n">
+        <v>292</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.554976981650867</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.04757645682387093</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.507400524826996</v>
+      </c>
+      <c r="G33" t="n">
+        <v>40</v>
+      </c>
+      <c r="H33" t="n">
+        <v>14.70184941014469</v>
+      </c>
+      <c r="I33" t="n">
+        <v>14</v>
+      </c>
+      <c r="J33" t="n">
+        <v>26</v>
+      </c>
+      <c r="K33" t="n">
+        <v>16.02411614282401</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3.194910445792325</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>0.8126287274818718</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.1802457221399347</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.8609386919436576</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U33" t="n">
+        <v>2486</v>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>292</v>
+      </c>
+      <c r="B34" t="n">
+        <v>310</v>
+      </c>
+      <c r="C34" t="n">
+        <v>354</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.6627235830118797</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.1553230581848837</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.507400524826996</v>
+      </c>
+      <c r="G34" t="n">
         <v>62</v>
       </c>
-      <c r="J22" t="n">
-        <v>124</v>
-      </c>
-      <c r="K22" t="n">
-        <v>277.5833914177867</v>
-      </c>
-      <c r="L22" t="n">
-        <v>11.48055066446822</v>
-      </c>
-      <c r="M22" t="inlineStr">
+      <c r="H34" t="n">
+        <v>27.91432919285091</v>
+      </c>
+      <c r="I34" t="n">
+        <v>18</v>
+      </c>
+      <c r="J34" t="n">
+        <v>44</v>
+      </c>
+      <c r="K34" t="n">
+        <v>24.7381871085294</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.815189761094597</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="inlineStr">
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P22" t="n">
-        <v>0.6274318679879499</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="P34" t="n">
+        <v>0.8891858992613634</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.4090909090909091</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.2335240181523342</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.8878896673767338</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
+        <v>2487</v>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>608</v>
+      </c>
+      <c r="B35" t="n">
+        <v>630</v>
+      </c>
+      <c r="C35" t="n">
+        <v>730</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3.13406479580252</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.626664270975524</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.507400524826996</v>
+      </c>
+      <c r="G35" t="n">
+        <v>122</v>
+      </c>
+      <c r="H35" t="n">
+        <v>25.63169861550216</v>
+      </c>
+      <c r="I35" t="n">
+        <v>22</v>
+      </c>
+      <c r="J35" t="n">
+        <v>100</v>
+      </c>
+      <c r="K35" t="n">
+        <v>327.3156668800611</v>
+      </c>
+      <c r="L35" t="n">
+        <v>18.0422912750616</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>0.7634320926419649</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.1187331615565278</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.8772808373577257</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
+        <v>2488</v>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>426</v>
+      </c>
+      <c r="B36" t="n">
+        <v>442</v>
+      </c>
+      <c r="C36" t="n">
+        <v>464</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.6086541329524815</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.07664939557593781</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.5320047373765437</v>
+      </c>
+      <c r="G36" t="n">
+        <v>38</v>
+      </c>
+      <c r="H36" t="n">
+        <v>18.08994074277427</v>
+      </c>
+      <c r="I36" t="n">
+        <v>16</v>
+      </c>
+      <c r="J36" t="n">
+        <v>22</v>
+      </c>
+      <c r="K36" t="n">
+        <v>14.59722841606064</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2.910905395965892</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>0.7704487207413517</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.1879918398501928</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.9718621245610223</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>2489</v>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>565</v>
+      </c>
+      <c r="B37" t="n">
+        <v>586</v>
+      </c>
+      <c r="C37" t="n">
+        <v>621</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3.802354786065914</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.27035004868937</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.5320047373765437</v>
+      </c>
+      <c r="G37" t="n">
+        <v>56</v>
+      </c>
+      <c r="H37" t="n">
+        <v>18.17128704848028</v>
+      </c>
+      <c r="I37" t="n">
+        <v>21</v>
+      </c>
+      <c r="J37" t="n">
+        <v>35</v>
+      </c>
+      <c r="K37" t="n">
+        <v>183.8335202105763</v>
+      </c>
+      <c r="L37" t="n">
+        <v>18.18486799793097</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>0.7892383493262649</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.1651805256838461</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.9966452844613803</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U37" t="n">
+        <v>2490</v>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>621</v>
+      </c>
+      <c r="B38" t="n">
+        <v>644</v>
+      </c>
+      <c r="C38" t="n">
+        <v>858</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3.092174563605331</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.560169826228788</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.5320047373765437</v>
+      </c>
+      <c r="G38" t="n">
+        <v>237</v>
+      </c>
+      <c r="H38" t="n">
+        <v>24.59701624044953</v>
+      </c>
+      <c r="I38" t="n">
+        <v>23</v>
+      </c>
+      <c r="J38" t="n">
+        <v>214</v>
+      </c>
+      <c r="K38" t="n">
+        <v>406.0359992173286</v>
+      </c>
+      <c r="L38" t="n">
+        <v>14.78841124236638</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>0.7776591038049178</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.1074766355140187</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.4181435505670512</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.9341350917401402</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U38" t="n">
+        <v>2491</v>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>858</v>
+      </c>
+      <c r="B39" t="n">
+        <v>886</v>
+      </c>
+      <c r="C39" t="n">
+        <v>957</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.275849020892925</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.7438442835163809</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.5320047373765437</v>
+      </c>
+      <c r="G39" t="n">
+        <v>99</v>
+      </c>
+      <c r="H39" t="n">
+        <v>30.00968040182568</v>
+      </c>
+      <c r="I39" t="n">
+        <v>28</v>
+      </c>
+      <c r="J39" t="n">
+        <v>71</v>
+      </c>
+      <c r="K39" t="n">
+        <v>69.57271270629094</v>
+      </c>
+      <c r="L39" t="n">
+        <v>6.101783588225405</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>0.7862530808750281</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.3943661971830986</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.1516531284019752</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.7453490259902854</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
+        <v>2492</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>130</v>
+      </c>
+      <c r="B40" t="n">
+        <v>150</v>
+      </c>
+      <c r="C40" t="n">
+        <v>177</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.102163469093389</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.62678063044721</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.4753828386461788</v>
+      </c>
+      <c r="G40" t="n">
+        <v>47</v>
+      </c>
+      <c r="H40" t="n">
+        <v>18.12313315602131</v>
+      </c>
+      <c r="I40" t="n">
+        <v>20</v>
+      </c>
+      <c r="J40" t="n">
+        <v>27</v>
+      </c>
+      <c r="K40" t="n">
+        <v>65.52712533571336</v>
+      </c>
+      <c r="L40" t="n">
+        <v>5.662902315719474</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>0.8159496323390727</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.207549463721488</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.9830834524250903</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>2493</v>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>543</v>
+      </c>
+      <c r="B41" t="n">
+        <v>572</v>
+      </c>
+      <c r="C41" t="n">
+        <v>664</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.867202494212625</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.391819655566446</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.4753828386461788</v>
+      </c>
+      <c r="G41" t="n">
+        <v>121</v>
+      </c>
+      <c r="H41" t="n">
+        <v>83.93280508707448</v>
+      </c>
+      <c r="I41" t="n">
+        <v>29</v>
+      </c>
+      <c r="J41" t="n">
+        <v>92</v>
+      </c>
+      <c r="K41" t="n">
+        <v>115.9449051710616</v>
+      </c>
+      <c r="L41" t="n">
+        <v>5.029953894572272</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(635), 'value': np.float64(0.48798641837502255), 'amplitude': np.float64(0.9633692570212014), 'start_idx': np.int64(616), 'end_idx': np.int64(654), 'duration': np.float64(38.0), 'fwhm': np.float64(16.797870142709485), 'rise_time': np.float64(19.0), 'decay_time': np.float64(19.0), 'auc': np.float64(20.043640264250985)}]</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>0.7146190203220181</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.3152173913043478</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.5241057614033451</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.5820795579265652</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>2494</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1718</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1803</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.357909868505921</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3.885359900999036</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.4725499675068854</v>
+      </c>
+      <c r="G42" t="n">
+        <v>280</v>
+      </c>
+      <c r="H42" t="n">
+        <v>77.84845035171338</v>
+      </c>
+      <c r="I42" t="n">
+        <v>85</v>
+      </c>
+      <c r="J42" t="n">
+        <v>195</v>
+      </c>
+      <c r="K42" t="n">
+        <v>438.4761423483968</v>
+      </c>
+      <c r="L42" t="n">
+        <v>10.78577693692693</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>0.7081512455394129</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.469237057599778</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.5735292483031954</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>2495</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1453</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1479</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1637</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3.770358379901144</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3.09082695500014</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.6795314249010039</v>
+      </c>
+      <c r="G43" t="n">
+        <v>184</v>
+      </c>
+      <c r="H43" t="n">
+        <v>160.1088466810868</v>
+      </c>
+      <c r="I43" t="n">
+        <v>26</v>
+      </c>
+      <c r="J43" t="n">
+        <v>158</v>
+      </c>
+      <c r="K43" t="n">
+        <v>361.0711777860548</v>
+      </c>
+      <c r="L43" t="n">
+        <v>18.99020160289359</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>0.8663176794466096</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.1645569620253164</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.4236735243098292</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.9595805522419187</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>2496</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1637</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1679</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1817</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.807608294875236</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.128076869974232</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.6795314249010039</v>
+      </c>
+      <c r="G44" t="n">
+        <v>180</v>
+      </c>
+      <c r="H44" t="n">
+        <v>70.92469106432964</v>
+      </c>
+      <c r="I44" t="n">
+        <v>42</v>
+      </c>
+      <c r="J44" t="n">
+        <v>138</v>
+      </c>
+      <c r="K44" t="n">
+        <v>264.2771382902445</v>
+      </c>
+      <c r="L44" t="n">
+        <v>14.14110866114403</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>0.8907648149988014</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.3043478260869565</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.1339487330303994</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.9376165641737315</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>2497</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1817</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1837</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1865</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.9656524689092343</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.2861210440082304</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.6795314249010039</v>
+      </c>
+      <c r="G45" t="n">
+        <v>48</v>
+      </c>
+      <c r="H45" t="n">
+        <v>14.98326586826988</v>
+      </c>
+      <c r="I45" t="n">
+        <v>20</v>
+      </c>
+      <c r="J45" t="n">
+        <v>28</v>
+      </c>
+      <c r="K45" t="n">
+        <v>28.7676133897539</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.863711407560969</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>0.7937465237838108</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.349691571352816</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.9551725618918766</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>2498</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1471</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1493</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1555</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.7574225715361982</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.2051209576803382</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.55230161385586</v>
+      </c>
+      <c r="G46" t="n">
+        <v>84</v>
+      </c>
+      <c r="H46" t="n">
+        <v>52.19139548495673</v>
+      </c>
+      <c r="I46" t="n">
+        <v>22</v>
+      </c>
+      <c r="J46" t="n">
+        <v>62</v>
+      </c>
+      <c r="K46" t="n">
+        <v>48.16170204830662</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3.871667812107673</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>0.7642248078174192</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.3548387096774194</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.1123741174765709</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.7807621782008567</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>2499</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1770</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1828</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4.213850484953782</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.661548871097922</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.55230161385586</v>
+      </c>
+      <c r="G47" t="n">
+        <v>228</v>
+      </c>
+      <c r="H47" t="n">
+        <v>112.1797177829399</v>
+      </c>
+      <c r="I47" t="n">
+        <v>58</v>
+      </c>
+      <c r="J47" t="n">
+        <v>170</v>
+      </c>
+      <c r="K47" t="n">
+        <v>389.6072207534424</v>
+      </c>
+      <c r="L47" t="n">
+        <v>21.5396661001806</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>0.7203588477801548</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.3411764705882353</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.6691820328054096</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.28792555678039</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>2500</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1357</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1434</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.332496175060953</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.8099216452680793</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.5225745297928734</v>
+      </c>
+      <c r="G48" t="n">
+        <v>192</v>
+      </c>
+      <c r="H48" t="n">
+        <v>78.44469545126253</v>
+      </c>
+      <c r="I48" t="n">
+        <v>77</v>
+      </c>
+      <c r="J48" t="n">
+        <v>115</v>
+      </c>
+      <c r="K48" t="n">
+        <v>155.1757817568545</v>
+      </c>
+      <c r="L48" t="n">
+        <v>8.251283606762177</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>0.7029240089144346</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.6695652173913044</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.210629561503863</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.701519840925896</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>2501</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1549</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1578</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1644</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.101915498601188</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.5793409688083149</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.5225745297928734</v>
+      </c>
+      <c r="G49" t="n">
+        <v>95</v>
+      </c>
+      <c r="H49" t="n">
+        <v>53.76832506734968</v>
+      </c>
+      <c r="I49" t="n">
+        <v>29</v>
+      </c>
+      <c r="J49" t="n">
+        <v>66</v>
+      </c>
+      <c r="K49" t="n">
+        <v>70.49353026674302</v>
+      </c>
+      <c r="L49" t="n">
+        <v>6.823447196183695</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>0.7355270173536781</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.4393939393939394</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.08259216797783589</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.9143918640500485</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>2502</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1942</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3.266960286632368</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2.744385756839494</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.5225745297928734</v>
+      </c>
+      <c r="G50" t="n">
+        <v>56</v>
+      </c>
+      <c r="H50" t="n">
+        <v>23.10841973544302</v>
+      </c>
+      <c r="I50" t="n">
+        <v>22</v>
+      </c>
+      <c r="J50" t="n">
+        <v>34</v>
+      </c>
+      <c r="K50" t="n">
+        <v>171.2970085245038</v>
+      </c>
+      <c r="L50" t="n">
+        <v>20.23016377949425</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>0.558182034084754</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.06875085466077445</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.8905763687419637</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>2503</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1715</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1730</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1787</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3.069252664490506</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.590687522790738</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.4785651416997682</v>
+      </c>
+      <c r="G51" t="n">
+        <v>72</v>
+      </c>
+      <c r="H51" t="n">
+        <v>15.82219252742016</v>
+      </c>
+      <c r="I51" t="n">
+        <v>15</v>
+      </c>
+      <c r="J51" t="n">
+        <v>57</v>
+      </c>
+      <c r="K51" t="n">
+        <v>152.7577054303032</v>
+      </c>
+      <c r="L51" t="n">
+        <v>14.70415508915008</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0.908028128910717</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.3296998076489319</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.9921891098055224</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>2504</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>8</v>
+      </c>
+      <c r="C52" t="n">
+        <v>36</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.521284743645882</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.9450203226993859</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.5762644209464963</v>
+      </c>
+      <c r="G52" t="n">
+        <v>36</v>
+      </c>
+      <c r="H52" t="n">
+        <v>12.00480388215285</v>
+      </c>
+      <c r="I52" t="n">
+        <v>8</v>
+      </c>
+      <c r="J52" t="n">
+        <v>28</v>
+      </c>
+      <c r="K52" t="n">
+        <v>31.69294826204263</v>
+      </c>
+      <c r="L52" t="n">
+        <v>5.165396661689693</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>0.9638175330947188</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.4559518336824511</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.9568200576861002</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>2505</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>101</v>
+      </c>
+      <c r="B53" t="n">
+        <v>115</v>
+      </c>
+      <c r="C53" t="n">
+        <v>160</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.470116386386163</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.8938519654396673</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.5762644209464963</v>
+      </c>
+      <c r="G53" t="n">
+        <v>59</v>
+      </c>
+      <c r="H53" t="n">
+        <v>65.37737762414871</v>
+      </c>
+      <c r="I53" t="n">
+        <v>14</v>
+      </c>
+      <c r="J53" t="n">
+        <v>45</v>
+      </c>
+      <c r="K53" t="n">
+        <v>51.29967583557963</v>
+      </c>
+      <c r="L53" t="n">
+        <v>4.991658732036846</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>0.8836521623282934</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.3111111111111111</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.4284311625906219</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.88596046132378</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>2506</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>294</v>
+      </c>
+      <c r="B54" t="n">
+        <v>306</v>
+      </c>
+      <c r="C54" t="n">
+        <v>337</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.760428537031254</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.184164116084758</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.5762644209464963</v>
+      </c>
+      <c r="G54" t="n">
+        <v>43</v>
+      </c>
+      <c r="H54" t="n">
+        <v>10.21106009603824</v>
+      </c>
+      <c r="I54" t="n">
+        <v>12</v>
+      </c>
+      <c r="J54" t="n">
+        <v>31</v>
+      </c>
+      <c r="K54" t="n">
+        <v>48.38512072222211</v>
+      </c>
+      <c r="L54" t="n">
+        <v>5.977389654570287</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>0.8548873756782923</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.3775304392224618</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.9126576676312318</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>2507</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1723</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1753</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1812</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3.298936355410644</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2.722671934464147</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.5762644209464963</v>
+      </c>
+      <c r="G55" t="n">
+        <v>89</v>
+      </c>
+      <c r="H55" t="n">
+        <v>221.3129337337439</v>
+      </c>
+      <c r="I55" t="n">
+        <v>30</v>
+      </c>
+      <c r="J55" t="n">
+        <v>59</v>
+      </c>
+      <c r="K55" t="n">
+        <v>211.5369640611975</v>
+      </c>
+      <c r="L55" t="n">
+        <v>11.20126584358324</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>0.779003809584403</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.2727346572395632</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.8562936920321198</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>2508</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1684</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1816</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3.468207504593671</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.059622691122557</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.4085848134711138</v>
+      </c>
+      <c r="G56" t="n">
+        <v>314</v>
+      </c>
+      <c r="H56" t="n">
+        <v>145.9820190299131</v>
+      </c>
+      <c r="I56" t="n">
+        <v>132</v>
+      </c>
+      <c r="J56" t="n">
+        <v>182</v>
+      </c>
+      <c r="K56" t="n">
+        <v>618.3141575680361</v>
+      </c>
+      <c r="L56" t="n">
+        <v>7.682228680570631</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>0.6506330426486514</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.7252747252747253</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.206534957954842</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.9690364940326855</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>2509</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>289</v>
+      </c>
+      <c r="B57" t="n">
+        <v>315</v>
+      </c>
+      <c r="C57" t="n">
+        <v>352</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3.350274804217212</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2.822815943434292</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.5274588607829198</v>
+      </c>
+      <c r="G57" t="n">
+        <v>63</v>
+      </c>
+      <c r="H57" t="n">
+        <v>143.5709782123514</v>
+      </c>
+      <c r="I57" t="n">
+        <v>26</v>
+      </c>
+      <c r="J57" t="n">
+        <v>37</v>
+      </c>
+      <c r="K57" t="n">
+        <v>146.7443319350093</v>
+      </c>
+      <c r="L57" t="n">
+        <v>8.672282208411481</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>0.7478941165945167</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.7027027027027027</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.285782716314971</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.9706623049096309</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>2510</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>258</v>
+      </c>
+      <c r="B58" t="n">
+        <v>285</v>
+      </c>
+      <c r="C58" t="n">
+        <v>412</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3.699974179441182</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3.206775850460099</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.4931983289810826</v>
+      </c>
+      <c r="G58" t="n">
+        <v>154</v>
+      </c>
+      <c r="H58" t="n">
+        <v>37.30707170673872</v>
+      </c>
+      <c r="I58" t="n">
+        <v>27</v>
+      </c>
+      <c r="J58" t="n">
+        <v>127</v>
+      </c>
+      <c r="K58" t="n">
+        <v>223.148290969572</v>
+      </c>
+      <c r="L58" t="n">
+        <v>11.6784095148871</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>0.8200853733230264</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.2125984251968504</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.5046542938182222</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.6583632083807903</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>2511</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>146</v>
+      </c>
+      <c r="B59" t="n">
+        <v>171</v>
+      </c>
+      <c r="C59" t="n">
+        <v>243</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.939646710516719</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2.432495115351499</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.5071515951652197</v>
+      </c>
+      <c r="G59" t="n">
+        <v>97</v>
+      </c>
+      <c r="H59" t="n">
+        <v>151.4183613720377</v>
+      </c>
+      <c r="I59" t="n">
+        <v>25</v>
+      </c>
+      <c r="J59" t="n">
+        <v>72</v>
+      </c>
+      <c r="K59" t="n">
+        <v>218.8859074369884</v>
+      </c>
+      <c r="L59" t="n">
+        <v>11.1311771743338</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>0.8434668101706985</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.3472222222222222</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.1982660007181995</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.9074694522978388</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>2512</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1227</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1257</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1317</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.02649306093275</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.51934146576753</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.5071515951652197</v>
+      </c>
+      <c r="G60" t="n">
+        <v>90</v>
+      </c>
+      <c r="H60" t="n">
+        <v>22.21215290540908</v>
+      </c>
+      <c r="I60" t="n">
+        <v>30</v>
+      </c>
+      <c r="J60" t="n">
+        <v>60</v>
+      </c>
+      <c r="K60" t="n">
+        <v>43.09712016756657</v>
+      </c>
+      <c r="L60" t="n">
+        <v>3.886887525834092</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>0.6988251679429187</v>
+      </c>
+      <c r="Q60" t="n">
         <v>0.5</v>
       </c>
-      <c r="R22" t="n">
-        <v>0.4118728585914189</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.673429103312049</v>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>n39</t>
-        </is>
-      </c>
-      <c r="U22" t="n">
-        <v>1120</v>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
+      <c r="R60" t="n">
+        <v>0.5862495147761034</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.8011691564111051</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>2513</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.297920240925homecagefamilarmice2024-12-07095919trace/processed_No.297920240925homecagefamilarmice2024-12-07095919trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.297920240925homecagefamilarmice2024-12-07095919trace/processed_No.297920240925homecagefamilarmice2024-12-07095919trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X60"/>
+  <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>299</v>
+        <v>561</v>
       </c>
       <c r="B2" t="n">
-        <v>323</v>
+        <v>614</v>
       </c>
       <c r="C2" t="n">
-        <v>393</v>
+        <v>699</v>
       </c>
       <c r="D2" t="n">
-        <v>1.832311805502594</v>
+        <v>2.952638004075835</v>
       </c>
       <c r="E2" t="n">
-        <v>1.197605794480856</v>
+        <v>2.318302167051681</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6347060110217374</v>
+        <v>-0.6343358370241545</v>
       </c>
       <c r="G2" t="n">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="H2" t="n">
-        <v>84.83242700716306</v>
+        <v>114.6189729254883</v>
       </c>
       <c r="I2" t="n">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="J2" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K2" t="n">
-        <v>99.49730143806833</v>
+        <v>241.1129815643766</v>
       </c>
       <c r="L2" t="n">
-        <v>4.51779281864634</v>
+        <v>7.279681910448561</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.7558440652506063</v>
+        <v>0.7375358969877789</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3428571428571429</v>
+        <v>0.6235294117647059</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4482826809653839</v>
+        <v>0.2354085859319614</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3512069716220254</v>
+        <v>0.9113023317609359</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>2455</v>
+        <v>1941</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>562</v>
+        <v>1293</v>
       </c>
       <c r="B3" t="n">
-        <v>613</v>
+        <v>1333</v>
       </c>
       <c r="C3" t="n">
-        <v>700</v>
+        <v>1404</v>
       </c>
       <c r="D3" t="n">
-        <v>2.96861928687132</v>
+        <v>1.959839548470986</v>
       </c>
       <c r="E3" t="n">
-        <v>2.333913275849583</v>
+        <v>1.325503711446832</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6347060110217374</v>
+        <v>-0.6343358370241545</v>
       </c>
       <c r="G3" t="n">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="H3" t="n">
-        <v>114.4270184382366</v>
+        <v>75.47331910150274</v>
       </c>
       <c r="I3" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="K3" t="n">
-        <v>242.0972264064332</v>
+        <v>155.8164589586343</v>
       </c>
       <c r="L3" t="n">
-        <v>7.319500346636436</v>
+        <v>4.831953151280878</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.707755057137839</v>
+        <v>0.6975351836059559</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5862068965517241</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2269124146372294</v>
+        <v>0.1980319820127001</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9146966601829445</v>
+        <v>0.8305992480792272</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>2456</v>
+        <v>1942</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>700</v>
+        <v>1684</v>
       </c>
       <c r="B4" t="n">
-        <v>727</v>
+        <v>1705</v>
       </c>
       <c r="C4" t="n">
-        <v>777</v>
+        <v>1737</v>
       </c>
       <c r="D4" t="n">
-        <v>1.99483728670078</v>
+        <v>2.715110067093971</v>
       </c>
       <c r="E4" t="n">
-        <v>1.360131275679043</v>
+        <v>2.048467639870853</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6347060110217374</v>
+        <v>-0.6666424272231182</v>
       </c>
       <c r="G4" t="n">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="H4" t="n">
-        <v>28.79296832203158</v>
+        <v>24.48279538306247</v>
       </c>
       <c r="I4" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="K4" t="n">
-        <v>85.82575756485433</v>
+        <v>127.9928438245122</v>
       </c>
       <c r="L4" t="n">
-        <v>4.918519621584121</v>
+        <v>12.31502202635892</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.8217824099965693</v>
+        <v>0.6551695588875023</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.54</v>
+        <v>0.65625</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1599165074142883</v>
+        <v>0.03644446573306728</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9758029746459168</v>
+        <v>0.9796748367303474</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n1</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>2457</v>
+        <v>1943</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1293</v>
+        <v>1737</v>
       </c>
       <c r="B5" t="n">
-        <v>1332</v>
+        <v>1764</v>
       </c>
       <c r="C5" t="n">
-        <v>1404</v>
+        <v>1842</v>
       </c>
       <c r="D5" t="n">
-        <v>1.975758593839199</v>
+        <v>3.111810152660503</v>
       </c>
       <c r="E5" t="n">
-        <v>1.341052582817462</v>
+        <v>2.445167725437384</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6347060110217374</v>
+        <v>-0.6666424272231182</v>
       </c>
       <c r="G5" t="n">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H5" t="n">
-        <v>75.43037089701807</v>
+        <v>29.47240029287445</v>
       </c>
       <c r="I5" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J5" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K5" t="n">
-        <v>156.1452737806297</v>
+        <v>228.2800805445902</v>
       </c>
       <c r="L5" t="n">
-        <v>4.871478729668038</v>
+        <v>14.11434882007495</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.7214753972305492</v>
+        <v>0.8870123076361254</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1986218424497045</v>
+        <v>0.1993204283559598</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8334621306862291</v>
+        <v>0.9553491395857785</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n1</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>2458</v>
+        <v>1944</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1684</v>
+        <v>1842</v>
       </c>
       <c r="B6" t="n">
-        <v>1705</v>
+        <v>1872</v>
       </c>
       <c r="C6" t="n">
-        <v>1737</v>
+        <v>1998</v>
       </c>
       <c r="D6" t="n">
-        <v>2.717636345509504</v>
+        <v>2.687375010588306</v>
       </c>
       <c r="E6" t="n">
-        <v>2.050453722766382</v>
+        <v>2.020732583365188</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6671826227431225</v>
+        <v>-0.6666424272231182</v>
       </c>
       <c r="G6" t="n">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="H6" t="n">
-        <v>25.22978618379852</v>
+        <v>58.67975544092519</v>
       </c>
       <c r="I6" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J6" t="n">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="K6" t="n">
-        <v>128.1274193704827</v>
+        <v>290.3680879363839</v>
       </c>
       <c r="L6" t="n">
-        <v>12.31975650336915</v>
+        <v>12.18922313668991</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,16 +950,16 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.6522917755895128</v>
+        <v>0.8329479545842219</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.65625</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0367917595378879</v>
+        <v>0.1907331537047822</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9801509638862053</v>
+        <v>0.4809621491276971</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>2459</v>
+        <v>1945</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1737</v>
+        <v>798</v>
       </c>
       <c r="B7" t="n">
-        <v>1764</v>
+        <v>867</v>
       </c>
       <c r="C7" t="n">
-        <v>1842</v>
+        <v>1039</v>
       </c>
       <c r="D7" t="n">
-        <v>3.13460705032977</v>
+        <v>2.884936791197082</v>
       </c>
       <c r="E7" t="n">
-        <v>2.467424427586647</v>
+        <v>2.120865065836278</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6671826227431225</v>
+        <v>-0.7640717253608031</v>
       </c>
       <c r="G7" t="n">
-        <v>105</v>
+        <v>241</v>
       </c>
       <c r="H7" t="n">
-        <v>28.84561682258504</v>
+        <v>84.91512184856617</v>
       </c>
       <c r="I7" t="n">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="J7" t="n">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3495989203227</v>
+        <v>428.6807151355169</v>
       </c>
       <c r="L7" t="n">
-        <v>14.209993790235</v>
+        <v>10.67695048487369</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.8830912040534815</v>
+        <v>0.8150002264805641</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.4011627906976744</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1985483619054963</v>
+        <v>0.3351560832714554</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9545802300781178</v>
+        <v>0.9472689096573914</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>2460</v>
+        <v>1946</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1842</v>
+        <v>1039</v>
       </c>
       <c r="B8" t="n">
-        <v>1872</v>
+        <v>1099</v>
       </c>
       <c r="C8" t="n">
-        <v>1933</v>
+        <v>1233</v>
       </c>
       <c r="D8" t="n">
-        <v>2.697145957086454</v>
+        <v>2.209855859350644</v>
       </c>
       <c r="E8" t="n">
-        <v>2.029963334343331</v>
+        <v>1.445784133989841</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6671826227431225</v>
+        <v>-0.7640717253608031</v>
       </c>
       <c r="G8" t="n">
-        <v>91</v>
+        <v>194</v>
       </c>
       <c r="H8" t="n">
-        <v>58.91212468490608</v>
+        <v>47.7005524859087</v>
       </c>
       <c r="I8" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J8" t="n">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="K8" t="n">
-        <v>182.7763334670283</v>
+        <v>188.1204788880185</v>
       </c>
       <c r="L8" t="n">
-        <v>12.22686821224494</v>
+        <v>8.17852289207503</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.8085371439521076</v>
+        <v>0.8154015017083633</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4918032786885246</v>
+        <v>0.4477611940298508</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1930495853966423</v>
+        <v>0.4198760545779537</v>
       </c>
       <c r="S8" t="n">
-        <v>0.922859383384416</v>
+        <v>0.9853789588474777</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>2461</v>
+        <v>1947</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>798</v>
+        <v>80</v>
       </c>
       <c r="B9" t="n">
-        <v>866</v>
+        <v>110</v>
       </c>
       <c r="C9" t="n">
-        <v>1040</v>
+        <v>301</v>
       </c>
       <c r="D9" t="n">
-        <v>2.887015475895377</v>
+        <v>4.441455654692708</v>
       </c>
       <c r="E9" t="n">
-        <v>2.12158637185259</v>
+        <v>3.917458787256347</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7654291040427865</v>
+        <v>-0.5239968674363621</v>
       </c>
       <c r="G9" t="n">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="H9" t="n">
-        <v>85.61106848923316</v>
+        <v>64.65977793585371</v>
       </c>
       <c r="I9" t="n">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="J9" t="n">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="K9" t="n">
-        <v>429.7142738031423</v>
+        <v>428.4615535141172</v>
       </c>
       <c r="L9" t="n">
-        <v>10.67478313503943</v>
+        <v>21.00711509930241</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.818926222125628</v>
+        <v>0.8763704307811225</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3908045977011494</v>
+        <v>0.1570680628272251</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3318479272607651</v>
+        <v>0.5193424128162608</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9477976012940083</v>
+        <v>0.9138036221327993</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>2462</v>
+        <v>1948</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,73 +1245,73 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1040</v>
+        <v>535</v>
       </c>
       <c r="B10" t="n">
-        <v>1099</v>
+        <v>574</v>
       </c>
       <c r="C10" t="n">
-        <v>1234</v>
+        <v>773</v>
       </c>
       <c r="D10" t="n">
-        <v>2.230198505818727</v>
+        <v>1.945157477803782</v>
       </c>
       <c r="E10" t="n">
-        <v>1.464769401775941</v>
+        <v>1.264119679663262</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.7654291040427865</v>
+        <v>-0.6810377981405206</v>
       </c>
       <c r="G10" t="n">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="H10" t="n">
-        <v>45.2802455365877</v>
+        <v>62.83797437772796</v>
       </c>
       <c r="I10" t="n">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="J10" t="n">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="K10" t="n">
-        <v>187.8585495168901</v>
+        <v>323.4537453258446</v>
       </c>
       <c r="L10" t="n">
-        <v>8.246192511427543</v>
+        <v>3.916644208817877</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(691), 'value': np.float64(0.953258273166427), 'amplitude': np.float64(1.6342960713069474), 'start_idx': np.int64(656), 'end_idx': np.int64(719), 'duration': np.float64(63.0), 'fwhm': np.float64(29.498755889732138), 'rise_time': np.float64(35.0), 'decay_time': np.float64(28.0), 'auc': np.float64(81.26860871365614)}]</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.7893769424913238</v>
+        <v>0.765639817135496</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4370370370370371</v>
+        <v>0.1959798994974874</v>
       </c>
       <c r="R10" t="n">
-        <v>0.4277119880278502</v>
+        <v>0.1979539226786552</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9839802882432497</v>
+        <v>0.487272719350855</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>2463</v>
+        <v>1949</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="C11" t="n">
-        <v>24</v>
+        <v>327</v>
       </c>
       <c r="D11" t="n">
-        <v>2.643584909773778</v>
+        <v>3.103736268812291</v>
       </c>
       <c r="E11" t="n">
-        <v>2.11579162476145</v>
+        <v>2.498168508465432</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.527793285012328</v>
+        <v>-0.6055677603468592</v>
       </c>
       <c r="G11" t="n">
-        <v>24</v>
+        <v>201</v>
       </c>
       <c r="H11" t="n">
-        <v>10.42768700351867</v>
+        <v>40.48388028251313</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="J11" t="n">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="K11" t="n">
-        <v>55.6518545915349</v>
+        <v>289.7684269210409</v>
       </c>
       <c r="L11" t="n">
-        <v>12.5136341579048</v>
+        <v>11.37863906734435</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.8191896286701511</v>
+        <v>0.8506386442727818</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1176957406874949</v>
+        <v>0.2654339769516523</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9776366559636261</v>
+        <v>0.8782773213174212</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>2464</v>
+        <v>1950</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>79</v>
+        <v>859</v>
       </c>
       <c r="B12" t="n">
-        <v>110</v>
+        <v>907</v>
       </c>
       <c r="C12" t="n">
-        <v>302</v>
+        <v>1135</v>
       </c>
       <c r="D12" t="n">
-        <v>4.44524495831643</v>
+        <v>3.364621762052965</v>
       </c>
       <c r="E12" t="n">
-        <v>3.917451673304102</v>
+        <v>2.777326852049361</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.527793285012328</v>
+        <v>-0.5872949100036046</v>
       </c>
       <c r="G12" t="n">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="H12" t="n">
-        <v>65.22194990655898</v>
+        <v>122.791893161054</v>
       </c>
       <c r="I12" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J12" t="n">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="K12" t="n">
-        <v>432.1399822883183</v>
+        <v>440.1641382237593</v>
       </c>
       <c r="L12" t="n">
-        <v>21.04194533150165</v>
+        <v>10.6427148745519</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.877521378386558</v>
+        <v>0.8011477779987086</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.1614583333333333</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="R12" t="n">
-        <v>0.5175572330155673</v>
+        <v>0.2683884773673659</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9104937175583203</v>
+        <v>0.67863708583963</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>2465</v>
+        <v>1951</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>535</v>
+        <v>901</v>
       </c>
       <c r="B13" t="n">
-        <v>586</v>
+        <v>928</v>
       </c>
       <c r="C13" t="n">
-        <v>656</v>
+        <v>1046</v>
       </c>
       <c r="D13" t="n">
-        <v>1.919953638383821</v>
+        <v>2.139985642214433</v>
       </c>
       <c r="E13" t="n">
-        <v>1.243458334535599</v>
+        <v>1.478864634538394</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6764953038482219</v>
+        <v>-0.661121007676039</v>
       </c>
       <c r="G13" t="n">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="H13" t="n">
-        <v>62.75578366162938</v>
+        <v>25.56711235260116</v>
       </c>
       <c r="I13" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="J13" t="n">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="K13" t="n">
-        <v>183.0868088709412</v>
+        <v>213.7545230745096</v>
       </c>
       <c r="L13" t="n">
-        <v>3.858810187557849</v>
+        <v>6.349098901866384</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.6754420921079072</v>
+        <v>0.7468796337270692</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7285714285714285</v>
+        <v>0.2288135593220339</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1832149858493413</v>
+        <v>0.1789443727433099</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8415684017904466</v>
+        <v>0.6066298102800495</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>2466</v>
+        <v>1952</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>126</v>
+        <v>1155</v>
       </c>
       <c r="B14" t="n">
-        <v>174</v>
+        <v>1184</v>
       </c>
       <c r="C14" t="n">
-        <v>327</v>
+        <v>1265</v>
       </c>
       <c r="D14" t="n">
-        <v>3.107931657058874</v>
+        <v>2.230261076179946</v>
       </c>
       <c r="E14" t="n">
-        <v>2.500661799245463</v>
+        <v>1.569140068503906</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6072698578134105</v>
+        <v>-0.661121007676039</v>
       </c>
       <c r="G14" t="n">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="H14" t="n">
-        <v>40.48282409911707</v>
+        <v>43.38735179284618</v>
       </c>
       <c r="I14" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="J14" t="n">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="K14" t="n">
-        <v>290.0421797833931</v>
+        <v>102.1527121111732</v>
       </c>
       <c r="L14" t="n">
-        <v>11.35665454470659</v>
+        <v>6.616936053363736</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.8072950011460365</v>
+        <v>0.9492596869375134</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.3137254901960784</v>
+        <v>0.3580246913580247</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2652454750070896</v>
+        <v>0.3285580390778728</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8744543104010413</v>
+        <v>0.9720594490629701</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>2467</v>
+        <v>1953</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>902</v>
+        <v>1846</v>
       </c>
       <c r="B15" t="n">
-        <v>931</v>
+        <v>1874</v>
       </c>
       <c r="C15" t="n">
-        <v>988</v>
+        <v>1998</v>
       </c>
       <c r="D15" t="n">
-        <v>1.801542463060182</v>
+        <v>3.323967641792206</v>
       </c>
       <c r="E15" t="n">
-        <v>1.19078895549696</v>
+        <v>2.662846634116167</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6107535075632219</v>
+        <v>-0.661121007676039</v>
       </c>
       <c r="G15" t="n">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="H15" t="n">
-        <v>213.6400681561987</v>
+        <v>92.02647436806888</v>
       </c>
       <c r="I15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J15" t="n">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="K15" t="n">
-        <v>114.1822532990852</v>
+        <v>319.8811512190545</v>
       </c>
       <c r="L15" t="n">
-        <v>7.737249140626668</v>
+        <v>9.861841541377773</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.6229548717599798</v>
+        <v>0.8034922227885466</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.5087719298245614</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="R15" t="n">
-        <v>0.09483197917958823</v>
+        <v>0.1304287084522776</v>
       </c>
       <c r="S15" t="n">
-        <v>0.6646432451853976</v>
+        <v>0.8307657561985315</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>2468</v>
+        <v>1954</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>859</v>
+        <v>1804</v>
       </c>
       <c r="B16" t="n">
-        <v>906</v>
+        <v>1821</v>
       </c>
       <c r="C16" t="n">
-        <v>1066</v>
+        <v>1869</v>
       </c>
       <c r="D16" t="n">
-        <v>3.375846100741658</v>
+        <v>1.263359572548761</v>
       </c>
       <c r="E16" t="n">
-        <v>2.790708729964125</v>
+        <v>0.8590187090735378</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5851373707775336</v>
+        <v>-0.4043408634752229</v>
       </c>
       <c r="G16" t="n">
-        <v>207</v>
+        <v>65</v>
       </c>
       <c r="H16" t="n">
-        <v>122.0674899361528</v>
+        <v>58.39821904518953</v>
       </c>
       <c r="I16" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J16" t="n">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="K16" t="n">
-        <v>394.6605600164426</v>
+        <v>43.45953552466098</v>
       </c>
       <c r="L16" t="n">
-        <v>10.64381576239925</v>
+        <v>4.48200384594232</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.7698256831030569</v>
+        <v>0.8448071658579399</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.29375</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1319468074701547</v>
+        <v>0.2045838248066255</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8958749039886316</v>
+        <v>0.8436912025508875</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>2469</v>
+        <v>1955</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>903</v>
+        <v>182</v>
       </c>
       <c r="B17" t="n">
-        <v>928</v>
+        <v>217</v>
       </c>
       <c r="C17" t="n">
-        <v>1047</v>
+        <v>276</v>
       </c>
       <c r="D17" t="n">
-        <v>2.15661376201298</v>
+        <v>1.979410052749204</v>
       </c>
       <c r="E17" t="n">
-        <v>1.498419258393806</v>
+        <v>1.512535946235346</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6581945036191742</v>
+        <v>-0.4668741065138571</v>
       </c>
       <c r="G17" t="n">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="H17" t="n">
-        <v>24.90160506501388</v>
+        <v>66.5878668841261</v>
       </c>
       <c r="I17" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J17" t="n">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="K17" t="n">
-        <v>211.4827607250916</v>
+        <v>149.3928450398247</v>
       </c>
       <c r="L17" t="n">
-        <v>6.38402429096618</v>
+        <v>8.276572032166495</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.7488341347090739</v>
+        <v>0.6729330520138779</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.2100840336134454</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1913610193803718</v>
+        <v>0.2491736555463733</v>
       </c>
       <c r="S17" t="n">
-        <v>0.6133389898874648</v>
+        <v>0.6354470448397358</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>2470</v>
+        <v>1956</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1155</v>
+        <v>562</v>
       </c>
       <c r="B18" t="n">
-        <v>1184</v>
+        <v>585</v>
       </c>
       <c r="C18" t="n">
-        <v>1265</v>
+        <v>649</v>
       </c>
       <c r="D18" t="n">
-        <v>2.252488817256901</v>
+        <v>3.126365840804086</v>
       </c>
       <c r="E18" t="n">
-        <v>1.594294313637727</v>
+        <v>2.379250200327704</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6581945036191742</v>
+        <v>-0.7471156404763821</v>
       </c>
       <c r="G18" t="n">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="H18" t="n">
-        <v>42.91335055155082</v>
+        <v>324.1252621943262</v>
       </c>
       <c r="I18" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J18" t="n">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="K18" t="n">
-        <v>101.7856181649845</v>
+        <v>243.7837717751123</v>
       </c>
       <c r="L18" t="n">
-        <v>6.667834351142932</v>
+        <v>12.90243581486878</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.951606578458754</v>
+        <v>0.6621369646102361</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3580246913580247</v>
+        <v>0.359375</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3379351901692523</v>
+        <v>0.04045678623329059</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9746603227388325</v>
+        <v>0.7997343295102796</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>2471</v>
+        <v>1957</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1846</v>
+        <v>649</v>
       </c>
       <c r="B19" t="n">
-        <v>1874</v>
+        <v>681</v>
       </c>
       <c r="C19" t="n">
-        <v>1998</v>
+        <v>873</v>
       </c>
       <c r="D19" t="n">
-        <v>3.314108866831563</v>
+        <v>2.769767829897367</v>
       </c>
       <c r="E19" t="n">
-        <v>2.655914363212388</v>
+        <v>2.022652189420985</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6581945036191742</v>
+        <v>-0.7471156404763821</v>
       </c>
       <c r="G19" t="n">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="H19" t="n">
-        <v>92.6256039651546</v>
+        <v>30.05406174904215</v>
       </c>
       <c r="I19" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J19" t="n">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="K19" t="n">
-        <v>319.4790142899119</v>
+        <v>345.1580820039218</v>
       </c>
       <c r="L19" t="n">
-        <v>9.810450012621109</v>
+        <v>11.43076449368697</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.7996490095570563</v>
+        <v>0.7944421692720228</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.2258064516129032</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1282508579671886</v>
+        <v>0.4483734823981789</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8242554216910288</v>
+        <v>0.8624836166516969</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>2472</v>
+        <v>1958</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,73 +2105,73 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1804</v>
+        <v>873</v>
       </c>
       <c r="B20" t="n">
-        <v>1821</v>
+        <v>956</v>
       </c>
       <c r="C20" t="n">
-        <v>1869</v>
+        <v>1068</v>
       </c>
       <c r="D20" t="n">
-        <v>1.292486737164684</v>
+        <v>1.161291151063815</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8918121145279554</v>
+        <v>0.4141755105874328</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.4006746226367284</v>
+        <v>-0.7471156404763821</v>
       </c>
       <c r="G20" t="n">
-        <v>65</v>
+        <v>195</v>
       </c>
       <c r="H20" t="n">
-        <v>57.93403052382746</v>
+        <v>53.26124017913355</v>
       </c>
       <c r="I20" t="n">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="J20" t="n">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="K20" t="n">
-        <v>43.4531594369594</v>
+        <v>129.6165192118804</v>
       </c>
       <c r="L20" t="n">
-        <v>4.433459172895267</v>
+        <v>4.792620346415466</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(905), 'value': np.float64(-0.2814655289419315), 'amplitude': np.float64(0.46565011153445063), 'start_idx': np.int64(874), 'end_idx': np.int64(926), 'duration': np.float64(52.0), 'fwhm': np.float64(24.716119454090403), 'rise_time': np.float64(31.0), 'decay_time': np.float64(21.0), 'auc': np.float64(14.667261999451004)}]</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.8458719195726038</v>
+        <v>0.5619825277293692</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.3541666666666667</v>
+        <v>0.7410714285714286</v>
       </c>
       <c r="R20" t="n">
-        <v>0.2236091692576579</v>
+        <v>1.041299475142024</v>
       </c>
       <c r="S20" t="n">
-        <v>0.7835722038936472</v>
+        <v>0.7916512058178314</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>2473</v>
+        <v>1959</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,73 +2191,73 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1906</v>
+        <v>1910</v>
       </c>
       <c r="B21" t="n">
-        <v>1934</v>
+        <v>1940</v>
       </c>
       <c r="C21" t="n">
         <v>1998</v>
       </c>
       <c r="D21" t="n">
-        <v>1.126535984320594</v>
+        <v>1.097997870109351</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5726207789031146</v>
+        <v>0.3508822296329685</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5539152054174793</v>
+        <v>-0.7471156404763821</v>
       </c>
       <c r="G21" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H21" t="n">
-        <v>26.83237118175362</v>
+        <v>32.14533289867836</v>
       </c>
       <c r="I21" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J21" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K21" t="n">
-        <v>68.37850407695159</v>
+        <v>57.00137524924388</v>
       </c>
       <c r="L21" t="n">
-        <v>3.945927256064291</v>
+        <v>4.531410514741577</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1975), 'value': np.float64(0.3802034470795283), 'amplitude': np.float64(0.9341186524970075), 'start_idx': np.int64(1962), 'end_idx': np.int64(1997), 'duration': np.float64(35.0), 'fwhm': np.float64(17.853344502411346), 'rise_time': np.float64(13.0), 'decay_time': np.float64(22.0), 'auc': np.float64(25.454885001393915)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.7266290728082826</v>
+        <v>0.8831570631266272</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.4375</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3367921570996574</v>
+        <v>0.2266939436203353</v>
       </c>
       <c r="S21" t="n">
-        <v>0.3017631491484296</v>
+        <v>0.9890018789353974</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>2474</v>
+        <v>1960</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1356</v>
+        <v>1548</v>
       </c>
       <c r="B22" t="n">
-        <v>1380</v>
+        <v>1578</v>
       </c>
       <c r="C22" t="n">
-        <v>1427</v>
+        <v>1616</v>
       </c>
       <c r="D22" t="n">
-        <v>1.133410404501363</v>
+        <v>4.472608512830879</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5565444764375045</v>
+        <v>4.023690572792082</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.5768659280638588</v>
+        <v>-0.4489179400387966</v>
       </c>
       <c r="G22" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H22" t="n">
-        <v>35.73233257347806</v>
+        <v>49.6651204274217</v>
       </c>
       <c r="I22" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J22" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K22" t="n">
-        <v>48.16688394756075</v>
+        <v>190.3927454604093</v>
       </c>
       <c r="L22" t="n">
-        <v>3.533316778029293</v>
+        <v>20.45598515579441</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.8116724944029752</v>
+        <v>0.7518129282572429</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.5106382978723404</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="R22" t="n">
-        <v>0.5609173594620016</v>
+        <v>0.3539810735438635</v>
       </c>
       <c r="S22" t="n">
-        <v>0.7702562115995417</v>
+        <v>0.9567538571645617</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>2475</v>
+        <v>1961</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>562</v>
+        <v>641</v>
       </c>
       <c r="B23" t="n">
-        <v>585</v>
+        <v>675</v>
       </c>
       <c r="C23" t="n">
-        <v>650</v>
+        <v>785</v>
       </c>
       <c r="D23" t="n">
-        <v>3.139224685605228</v>
+        <v>3.371793586521145</v>
       </c>
       <c r="E23" t="n">
-        <v>2.396845989583997</v>
+        <v>2.806272996828593</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.7423786960212311</v>
+        <v>-0.5655205896925517</v>
       </c>
       <c r="G23" t="n">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="H23" t="n">
-        <v>324.4102811621964</v>
+        <v>279.7323278734529</v>
       </c>
       <c r="I23" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J23" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K23" t="n">
-        <v>245.6355177993113</v>
+        <v>319.1820517454336</v>
       </c>
       <c r="L23" t="n">
-        <v>12.96673715556898</v>
+        <v>15.9306150111638</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.6690212292691049</v>
+        <v>0.8428088327455356</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.3538461538461539</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="R23" t="n">
-        <v>0.04428444294736453</v>
+        <v>0.3467240876579885</v>
       </c>
       <c r="S23" t="n">
-        <v>0.8028731345710819</v>
+        <v>0.740025433596738</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>2476</v>
+        <v>1962</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>650</v>
+        <v>915</v>
       </c>
       <c r="B24" t="n">
-        <v>682</v>
+        <v>944</v>
       </c>
       <c r="C24" t="n">
-        <v>873</v>
+        <v>1028</v>
       </c>
       <c r="D24" t="n">
-        <v>2.770850784810429</v>
+        <v>1.758644414968824</v>
       </c>
       <c r="E24" t="n">
-        <v>2.028472088789198</v>
+        <v>1.193123825276273</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.7423786960212311</v>
+        <v>-0.5655205896925517</v>
       </c>
       <c r="G24" t="n">
-        <v>223</v>
+        <v>113</v>
       </c>
       <c r="H24" t="n">
-        <v>30.5688723985071</v>
+        <v>66.60222016630223</v>
       </c>
       <c r="I24" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J24" t="n">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="K24" t="n">
-        <v>341.8399762459237</v>
+        <v>123.5069361834977</v>
       </c>
       <c r="L24" t="n">
-        <v>11.44514885751541</v>
+        <v>8.309016076309579</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.7956239134755554</v>
+        <v>0.8364557383767033</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.1675392670157068</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="R24" t="n">
-        <v>0.454694214716273</v>
+        <v>0.14060147830337</v>
       </c>
       <c r="S24" t="n">
-        <v>0.8617854687127416</v>
+        <v>0.9551546326038289</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>2477</v>
+        <v>1963</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,73 +2535,73 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>873</v>
+        <v>543</v>
       </c>
       <c r="B25" t="n">
-        <v>956</v>
+        <v>561</v>
       </c>
       <c r="C25" t="n">
-        <v>1069</v>
+        <v>584</v>
       </c>
       <c r="D25" t="n">
-        <v>1.155743386474986</v>
+        <v>3.244604601379073</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4133646904537546</v>
+        <v>2.75813057623472</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.7423786960212311</v>
+        <v>-0.4864740251443528</v>
       </c>
       <c r="G25" t="n">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="H25" t="n">
-        <v>53.60072798297574</v>
+        <v>18.15495127491772</v>
       </c>
       <c r="I25" t="n">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="J25" t="n">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="K25" t="n">
-        <v>129.1967389771458</v>
+        <v>123.980436190485</v>
       </c>
       <c r="L25" t="n">
-        <v>4.773860495053746</v>
+        <v>29.42618696377377</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(904), 'value': np.float64(-0.28337943628796625), 'amplitude': np.float64(0.45899925973326483), 'start_idx': np.int64(874), 'end_idx': np.int64(927), 'duration': np.float64(53.0), 'fwhm': np.float64(25.86103525586566), 'rise_time': np.float64(30.0), 'decay_time': np.float64(23.0), 'auc': np.float64(14.559691559570611)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.5622919936526902</v>
+        <v>0.6237918100247586</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.7345132743362832</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="R25" t="n">
-        <v>1.04170890199279</v>
+        <v>0.02751741284394905</v>
       </c>
       <c r="S25" t="n">
-        <v>0.7855871036854325</v>
+        <v>0.985093124653163</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>2478</v>
+        <v>1964</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1910</v>
+        <v>584</v>
       </c>
       <c r="B26" t="n">
-        <v>1939</v>
+        <v>618</v>
       </c>
       <c r="C26" t="n">
-        <v>1998</v>
+        <v>747</v>
       </c>
       <c r="D26" t="n">
-        <v>1.095328216824502</v>
+        <v>3.650256216142553</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3529495208032711</v>
+        <v>3.163782190998201</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.7423786960212311</v>
+        <v>-0.4864740251443528</v>
       </c>
       <c r="G26" t="n">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="H26" t="n">
-        <v>32.77190149544435</v>
+        <v>36.50501721703256</v>
       </c>
       <c r="I26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J26" t="n">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="K26" t="n">
-        <v>56.54274135519434</v>
+        <v>342.5309237814814</v>
       </c>
       <c r="L26" t="n">
-        <v>4.524312372977898</v>
+        <v>33.10514995763545</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.8956031806996261</v>
+        <v>0.8892115849047326</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.4915254237288136</v>
+        <v>0.2635658914728682</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2415742156984562</v>
+        <v>0.4278469959160341</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9891539975860952</v>
+        <v>0.8959306565176951</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>2479</v>
+        <v>1965</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1548</v>
+        <v>501</v>
       </c>
       <c r="B27" t="n">
-        <v>1578</v>
+        <v>528</v>
       </c>
       <c r="C27" t="n">
-        <v>1616</v>
+        <v>597</v>
       </c>
       <c r="D27" t="n">
-        <v>4.471653010724453</v>
+        <v>5.88152363383521</v>
       </c>
       <c r="E27" t="n">
-        <v>4.020564317658124</v>
+        <v>5.485547338540512</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.4510886930663293</v>
+        <v>-0.3959762952946975</v>
       </c>
       <c r="G27" t="n">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="H27" t="n">
-        <v>49.76512167341411</v>
+        <v>64.92460161703616</v>
       </c>
       <c r="I27" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J27" t="n">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="K27" t="n">
-        <v>190.5217704370357</v>
+        <v>336.3630137650892</v>
       </c>
       <c r="L27" t="n">
-        <v>20.42152647051188</v>
+        <v>19.96303965762712</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.7522340847120799</v>
+        <v>0.8142450656605172</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="R27" t="n">
-        <v>0.3538998012205432</v>
+        <v>0.1654834418080679</v>
       </c>
       <c r="S27" t="n">
-        <v>0.9591071985452506</v>
+        <v>0.8885413515946966</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>2480</v>
+        <v>1966</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>216</v>
+        <v>608</v>
       </c>
       <c r="B28" t="n">
-        <v>242</v>
+        <v>631</v>
       </c>
       <c r="C28" t="n">
-        <v>280</v>
+        <v>729</v>
       </c>
       <c r="D28" t="n">
-        <v>2.234468104494125</v>
+        <v>3.133334982292254</v>
       </c>
       <c r="E28" t="n">
-        <v>1.701797162934292</v>
+        <v>2.62375710340664</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.5326709415598334</v>
+        <v>-0.5095778788856132</v>
       </c>
       <c r="G28" t="n">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="H28" t="n">
-        <v>26.12577144668563</v>
+        <v>27.75589428809906</v>
       </c>
       <c r="I28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J28" t="n">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="K28" t="n">
-        <v>91.65664765074484</v>
+        <v>325.6940633184687</v>
       </c>
       <c r="L28" t="n">
-        <v>4.003070371537605</v>
+        <v>18.17223004217757</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.7482561525930268</v>
+        <v>0.7808599497830184</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.2346938775510204</v>
       </c>
       <c r="R28" t="n">
-        <v>0.168006963069588</v>
+        <v>0.1192009060499868</v>
       </c>
       <c r="S28" t="n">
-        <v>0.8189890723880203</v>
+        <v>0.8764288805521446</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>2481</v>
+        <v>1967</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="B29" t="n">
-        <v>674</v>
+        <v>644</v>
       </c>
       <c r="C29" t="n">
-        <v>794</v>
+        <v>858</v>
       </c>
       <c r="D29" t="n">
-        <v>3.374513682803341</v>
+        <v>3.063658190199081</v>
       </c>
       <c r="E29" t="n">
-        <v>2.804754660147433</v>
+        <v>2.531021536598236</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.5697590226559086</v>
+        <v>-0.532636653600845</v>
       </c>
       <c r="G29" t="n">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="H29" t="n">
-        <v>280.0429129857438</v>
+        <v>28.4850227371212</v>
       </c>
       <c r="I29" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J29" t="n">
-        <v>120</v>
+        <v>214</v>
       </c>
       <c r="K29" t="n">
-        <v>321.7281534840361</v>
+        <v>406.1726039908167</v>
       </c>
       <c r="L29" t="n">
-        <v>15.87893160101973</v>
+        <v>14.74019970845032</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.8661620979823591</v>
+        <v>0.782034284019524</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.275</v>
+        <v>0.1074766355140187</v>
       </c>
       <c r="R29" t="n">
-        <v>0.3831907525610674</v>
+        <v>0.4181939098862594</v>
       </c>
       <c r="S29" t="n">
-        <v>0.7835898682897662</v>
+        <v>0.9377159770823558</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>2482</v>
+        <v>1968</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>915</v>
+        <v>858</v>
       </c>
       <c r="B30" t="n">
-        <v>943</v>
+        <v>887</v>
       </c>
       <c r="C30" t="n">
-        <v>1029</v>
+        <v>957</v>
       </c>
       <c r="D30" t="n">
-        <v>1.772749434395693</v>
+        <v>1.242474007549085</v>
       </c>
       <c r="E30" t="n">
-        <v>1.202990411739784</v>
+        <v>0.7098373539482398</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.5697590226559086</v>
+        <v>-0.532636653600845</v>
       </c>
       <c r="G30" t="n">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="H30" t="n">
-        <v>66.33464601404478</v>
+        <v>31.65402027389609</v>
       </c>
       <c r="I30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J30" t="n">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="K30" t="n">
-        <v>124.7210343446187</v>
+        <v>69.67310160319478</v>
       </c>
       <c r="L30" t="n">
-        <v>8.341755186226075</v>
+        <v>5.977923732621762</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.8419161165581911</v>
+        <v>0.7909627251485187</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.3255813953488372</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1350999500565926</v>
+        <v>0.1578924575576157</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9537736516839784</v>
+        <v>0.7432455120049259</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>2483</v>
+        <v>1969</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>584</v>
+        <v>130</v>
       </c>
       <c r="B31" t="n">
-        <v>618</v>
+        <v>150</v>
       </c>
       <c r="C31" t="n">
-        <v>748</v>
+        <v>176</v>
       </c>
       <c r="D31" t="n">
-        <v>3.660271417820085</v>
+        <v>2.05655085960202</v>
       </c>
       <c r="E31" t="n">
-        <v>3.174735537942376</v>
+        <v>1.585983857937381</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.4855358798777092</v>
+        <v>-0.4705670016646391</v>
       </c>
       <c r="G31" t="n">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="H31" t="n">
-        <v>36.33943785175484</v>
+        <v>17.72004846305649</v>
       </c>
       <c r="I31" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J31" t="n">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="K31" t="n">
-        <v>342.635983487532</v>
+        <v>64.80380026131945</v>
       </c>
       <c r="L31" t="n">
-        <v>33.2070118604459</v>
+        <v>5.553444900315614</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.883173569775794</v>
+        <v>0.8037769309156974</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.2615384615384616</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="R31" t="n">
-        <v>0.4318200228946562</v>
+        <v>0.1984422719260451</v>
       </c>
       <c r="S31" t="n">
-        <v>0.8789680849923214</v>
+        <v>0.9926830079300516</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>2484</v>
+        <v>1970</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>502</v>
+        <v>1718</v>
       </c>
       <c r="B32" t="n">
-        <v>528</v>
+        <v>1804</v>
       </c>
       <c r="C32" t="n">
-        <v>596</v>
+        <v>1998</v>
       </c>
       <c r="D32" t="n">
-        <v>5.929362376833134</v>
+        <v>4.331360684339896</v>
       </c>
       <c r="E32" t="n">
-        <v>5.532295556551302</v>
+        <v>3.852391158744969</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.3970668202818312</v>
+        <v>-0.4789695255949267</v>
       </c>
       <c r="G32" t="n">
-        <v>94</v>
+        <v>280</v>
       </c>
       <c r="H32" t="n">
-        <v>64.15882332030782</v>
+        <v>78.2629199192736</v>
       </c>
       <c r="I32" t="n">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="J32" t="n">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="K32" t="n">
-        <v>335.1455947885386</v>
+        <v>440.2359040717407</v>
       </c>
       <c r="L32" t="n">
-        <v>20.0472186162091</v>
+        <v>10.74456196106954</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.7984486685116546</v>
+        <v>0.6986371280698565</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.4432989690721649</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1463433334802898</v>
+        <v>0.4799306154979023</v>
       </c>
       <c r="S32" t="n">
-        <v>0.8797017631708528</v>
+        <v>0.5726752084884186</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>2485</v>
+        <v>1971</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,73 +3223,73 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="B33" t="n">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="C33" t="n">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="D33" t="n">
-        <v>0.554976981650867</v>
+        <v>0.9905795432328195</v>
       </c>
       <c r="E33" t="n">
-        <v>0.04757645682387093</v>
+        <v>0.3126784368512956</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.507400524826996</v>
+        <v>-0.6779011063815239</v>
       </c>
       <c r="G33" t="n">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="H33" t="n">
-        <v>14.70184941014469</v>
+        <v>75.35981206564861</v>
       </c>
       <c r="I33" t="n">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="J33" t="n">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="K33" t="n">
-        <v>16.02411614282401</v>
+        <v>80.2759675195083</v>
       </c>
       <c r="L33" t="n">
-        <v>3.194910445792325</v>
+        <v>4.993504950937231</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(315), 'value': np.float64(-0.16715687633375764), 'amplitude': np.float64(0.5107442300477663), 'start_idx': np.int64(304), 'end_idx': np.int64(330), 'duration': np.float64(26.0), 'fwhm': np.float64(16.276856102404793), 'rise_time': np.float64(11.0), 'decay_time': np.float64(15.0), 'auc': np.float64(9.0811008029825)}]</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.8126287274818718</v>
+        <v>0.518335256207647</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1802457221399347</v>
+        <v>0.2969500605218935</v>
       </c>
       <c r="S33" t="n">
-        <v>0.8609386919436576</v>
+        <v>0.4707063941242855</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>2486</v>
+        <v>1972</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>292</v>
+        <v>1452</v>
       </c>
       <c r="B34" t="n">
-        <v>310</v>
+        <v>1479</v>
       </c>
       <c r="C34" t="n">
-        <v>354</v>
+        <v>1636</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6627235830118797</v>
+        <v>3.757711958658811</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1553230581848837</v>
+        <v>3.079810852277288</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.507400524826996</v>
+        <v>-0.6779011063815239</v>
       </c>
       <c r="G34" t="n">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="H34" t="n">
-        <v>27.91432919285091</v>
+        <v>160.0546707203882</v>
       </c>
       <c r="I34" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J34" t="n">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="K34" t="n">
-        <v>24.7381871085294</v>
+        <v>362.504855920653</v>
       </c>
       <c r="L34" t="n">
-        <v>3.815189761094597</v>
+        <v>18.94260122566311</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.8891858992613634</v>
+        <v>0.8697377888829199</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.1719745222929936</v>
       </c>
       <c r="R34" t="n">
-        <v>0.2335240181523342</v>
+        <v>0.4168817365691568</v>
       </c>
       <c r="S34" t="n">
-        <v>0.8878896673767338</v>
+        <v>0.9599707766714523</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>2487</v>
+        <v>1973</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>608</v>
+        <v>1636</v>
       </c>
       <c r="B35" t="n">
-        <v>630</v>
+        <v>1679</v>
       </c>
       <c r="C35" t="n">
-        <v>730</v>
+        <v>1817</v>
       </c>
       <c r="D35" t="n">
-        <v>3.13406479580252</v>
+        <v>2.775059267212491</v>
       </c>
       <c r="E35" t="n">
-        <v>2.626664270975524</v>
+        <v>2.097158160830968</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.507400524826996</v>
+        <v>-0.6779011063815239</v>
       </c>
       <c r="G35" t="n">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="H35" t="n">
-        <v>25.63169861550216</v>
+        <v>71.30971201171383</v>
       </c>
       <c r="I35" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="K35" t="n">
-        <v>327.3156668800611</v>
+        <v>264.6562670163615</v>
       </c>
       <c r="L35" t="n">
-        <v>18.0422912750616</v>
+        <v>13.98905548235504</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.7634320926419649</v>
+        <v>0.8800057135828993</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.22</v>
+        <v>0.3115942028985507</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1187331615565278</v>
+        <v>0.1256713720855143</v>
       </c>
       <c r="S35" t="n">
-        <v>0.8772808373577257</v>
+        <v>0.9402656638850916</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>2488</v>
+        <v>1974</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>426</v>
+        <v>1817</v>
       </c>
       <c r="B36" t="n">
-        <v>442</v>
+        <v>1836</v>
       </c>
       <c r="C36" t="n">
-        <v>464</v>
+        <v>1866</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6086541329524815</v>
+        <v>0.949311843602166</v>
       </c>
       <c r="E36" t="n">
-        <v>0.07664939557593781</v>
+        <v>0.2714107372206421</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5320047373765437</v>
+        <v>-0.6779011063815239</v>
       </c>
       <c r="G36" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H36" t="n">
-        <v>18.08994074277427</v>
+        <v>14.94923065668377</v>
       </c>
       <c r="I36" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J36" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K36" t="n">
-        <v>14.59722841606064</v>
+        <v>28.88914948473444</v>
       </c>
       <c r="L36" t="n">
-        <v>2.910905395965892</v>
+        <v>4.785474748994099</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.7704487207413517</v>
+        <v>0.8101042034824226</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1879918398501928</v>
+        <v>0.3430820990808903</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9718621245610223</v>
+        <v>0.9515926863385694</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>2489</v>
+        <v>1975</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>565</v>
+        <v>1471</v>
       </c>
       <c r="B37" t="n">
-        <v>586</v>
+        <v>1507</v>
       </c>
       <c r="C37" t="n">
-        <v>621</v>
+        <v>1555</v>
       </c>
       <c r="D37" t="n">
-        <v>3.802354786065914</v>
+        <v>0.7603548461414782</v>
       </c>
       <c r="E37" t="n">
-        <v>3.27035004868937</v>
+        <v>0.2074479458001766</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.5320047373765437</v>
+        <v>-0.5529069003413015</v>
       </c>
       <c r="G37" t="n">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="H37" t="n">
-        <v>18.17128704848028</v>
+        <v>52.0705003851931</v>
       </c>
       <c r="I37" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J37" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="K37" t="n">
-        <v>183.8335202105763</v>
+        <v>48.17201040064018</v>
       </c>
       <c r="L37" t="n">
-        <v>18.18486799793097</v>
+        <v>3.889545248816527</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,24 +3616,24 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.7892383493262649</v>
+        <v>0.54693295554665</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1651805256838461</v>
+        <v>0.136836464807892</v>
       </c>
       <c r="S37" t="n">
-        <v>0.9966452844613803</v>
+        <v>0.8909617613905376</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>2490</v>
+        <v>1976</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>621</v>
+        <v>1771</v>
       </c>
       <c r="B38" t="n">
-        <v>644</v>
+        <v>1828</v>
       </c>
       <c r="C38" t="n">
-        <v>858</v>
+        <v>1998</v>
       </c>
       <c r="D38" t="n">
-        <v>3.092174563605331</v>
+        <v>4.203409673577633</v>
       </c>
       <c r="E38" t="n">
-        <v>2.560169826228788</v>
+        <v>3.650502773236331</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5320047373765437</v>
+        <v>-0.5529069003413015</v>
       </c>
       <c r="G38" t="n">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="H38" t="n">
-        <v>24.59701624044953</v>
+        <v>112.4965355975892</v>
       </c>
       <c r="I38" t="n">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="J38" t="n">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="K38" t="n">
-        <v>406.0359992173286</v>
+        <v>386.8243907258399</v>
       </c>
       <c r="L38" t="n">
-        <v>14.78841124236638</v>
+        <v>21.50226595866426</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,24 +3702,24 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.7776591038049178</v>
+        <v>0.7335787561412489</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.1074766355140187</v>
+        <v>0.3352941176470588</v>
       </c>
       <c r="R38" t="n">
-        <v>0.4181435505670512</v>
+        <v>0.6700669506197666</v>
       </c>
       <c r="S38" t="n">
-        <v>0.9341350917401402</v>
+        <v>0.2883761001472561</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>2491</v>
+        <v>1977</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>858</v>
+        <v>1357</v>
       </c>
       <c r="B39" t="n">
-        <v>886</v>
+        <v>1433</v>
       </c>
       <c r="C39" t="n">
-        <v>957</v>
+        <v>1549</v>
       </c>
       <c r="D39" t="n">
-        <v>1.275849020892925</v>
+        <v>1.317225723666069</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7438442835163809</v>
+        <v>0.7953313308774537</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.5320047373765437</v>
+        <v>-0.521894392788615</v>
       </c>
       <c r="G39" t="n">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="H39" t="n">
-        <v>30.00968040182568</v>
+        <v>79.38682185929429</v>
       </c>
       <c r="I39" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="J39" t="n">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="K39" t="n">
-        <v>69.57271270629094</v>
+        <v>155.0202597468196</v>
       </c>
       <c r="L39" t="n">
-        <v>6.101783588225405</v>
+        <v>8.184416152333251</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,24 +3788,24 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.7862530808750281</v>
+        <v>0.6900849136616496</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.3943661971830986</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1516531284019752</v>
+        <v>0.201935289790417</v>
       </c>
       <c r="S39" t="n">
-        <v>0.7453490259902854</v>
+        <v>0.7142958591536457</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>2492</v>
+        <v>1978</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130</v>
+        <v>1549</v>
       </c>
       <c r="B40" t="n">
-        <v>150</v>
+        <v>1582</v>
       </c>
       <c r="C40" t="n">
-        <v>177</v>
+        <v>1700</v>
       </c>
       <c r="D40" t="n">
-        <v>2.102163469093389</v>
+        <v>1.098235144584125</v>
       </c>
       <c r="E40" t="n">
-        <v>1.62678063044721</v>
+        <v>0.5763407517955097</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.4753828386461788</v>
+        <v>-0.521894392788615</v>
       </c>
       <c r="G40" t="n">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="H40" t="n">
-        <v>18.12313315602131</v>
+        <v>53.88214831493042</v>
       </c>
       <c r="I40" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J40" t="n">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="K40" t="n">
-        <v>65.52712533571336</v>
+        <v>93.24206774441683</v>
       </c>
       <c r="L40" t="n">
-        <v>5.662902315719474</v>
+        <v>6.823745767261539</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,24 +3874,24 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.8159496323390727</v>
+        <v>0.9185073689553583</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.2796610169491525</v>
       </c>
       <c r="R40" t="n">
-        <v>0.207549463721488</v>
+        <v>0.2726892508814581</v>
       </c>
       <c r="S40" t="n">
-        <v>0.9830834524250903</v>
+        <v>0.6873184934378815</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>2493</v>
+        <v>1979</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,73 +3911,73 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>543</v>
+        <v>1942</v>
       </c>
       <c r="B41" t="n">
-        <v>572</v>
+        <v>1964</v>
       </c>
       <c r="C41" t="n">
-        <v>664</v>
+        <v>1998</v>
       </c>
       <c r="D41" t="n">
-        <v>1.867202494212625</v>
+        <v>3.265297335704659</v>
       </c>
       <c r="E41" t="n">
-        <v>1.391819655566446</v>
+        <v>2.743402942916044</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.4753828386461788</v>
+        <v>-0.521894392788615</v>
       </c>
       <c r="G41" t="n">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="H41" t="n">
-        <v>83.93280508707448</v>
+        <v>23.312853403698</v>
       </c>
       <c r="I41" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J41" t="n">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="K41" t="n">
-        <v>115.9449051710616</v>
+        <v>171.2696830165008</v>
       </c>
       <c r="L41" t="n">
-        <v>5.029953894572272</v>
+        <v>20.28851378800351</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(635), 'value': np.float64(0.48798641837502255), 'amplitude': np.float64(0.9633692570212014), 'start_idx': np.int64(616), 'end_idx': np.int64(654), 'duration': np.float64(38.0), 'fwhm': np.float64(16.797870142709485), 'rise_time': np.float64(19.0), 'decay_time': np.float64(19.0), 'auc': np.float64(20.043640264250985)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.7146190203220181</v>
+        <v>0.5304385390080386</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.3152173913043478</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="R41" t="n">
-        <v>0.5241057614033451</v>
+        <v>0.06831029204799721</v>
       </c>
       <c r="S41" t="n">
-        <v>0.5820795579265652</v>
+        <v>0.9125034073932751</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>2494</v>
+        <v>1980</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="B42" t="n">
-        <v>1803</v>
+        <v>1731</v>
       </c>
       <c r="C42" t="n">
-        <v>1998</v>
+        <v>1786</v>
       </c>
       <c r="D42" t="n">
-        <v>4.357909868505921</v>
+        <v>3.057800885391681</v>
       </c>
       <c r="E42" t="n">
-        <v>3.885359900999036</v>
+        <v>2.581650494435965</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.4725499675068854</v>
+        <v>-0.4761503909557155</v>
       </c>
       <c r="G42" t="n">
-        <v>280</v>
+        <v>71</v>
       </c>
       <c r="H42" t="n">
-        <v>77.84845035171338</v>
+        <v>15.09254074237811</v>
       </c>
       <c r="I42" t="n">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="J42" t="n">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="K42" t="n">
-        <v>438.4761423483968</v>
+        <v>151.5193584726403</v>
       </c>
       <c r="L42" t="n">
-        <v>10.78577693692693</v>
+        <v>14.71185716311352</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,24 +4046,24 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.7081512455394129</v>
+        <v>0.9079148281239242</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.4358974358974359</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="R42" t="n">
-        <v>0.469237057599778</v>
+        <v>0.3329846860072386</v>
       </c>
       <c r="S42" t="n">
-        <v>0.5735292483031954</v>
+        <v>0.9934717868520705</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>2495</v>
+        <v>1981</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1453</v>
+        <v>160</v>
       </c>
       <c r="B43" t="n">
-        <v>1479</v>
+        <v>224</v>
       </c>
       <c r="C43" t="n">
-        <v>1637</v>
+        <v>339</v>
       </c>
       <c r="D43" t="n">
-        <v>3.770358379901144</v>
+        <v>2.207807227726384</v>
       </c>
       <c r="E43" t="n">
-        <v>3.09082695500014</v>
+        <v>1.626449592247285</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.6795314249010039</v>
+        <v>-0.5813576354790991</v>
       </c>
       <c r="G43" t="n">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H43" t="n">
-        <v>160.1088466810868</v>
+        <v>132.2237388537002</v>
       </c>
       <c r="I43" t="n">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="J43" t="n">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="K43" t="n">
-        <v>361.0711777860548</v>
+        <v>244.8727139971348</v>
       </c>
       <c r="L43" t="n">
-        <v>18.99020160289359</v>
+        <v>7.544722678617384</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,24 +4132,24 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.8663176794466096</v>
+        <v>0.6772995283888532</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.1645569620253164</v>
+        <v>0.5565217391304348</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4236735243098292</v>
+        <v>0.2933360003067169</v>
       </c>
       <c r="S43" t="n">
-        <v>0.9595805522419187</v>
+        <v>0.5893380017602875</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>2496</v>
+        <v>1982</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1637</v>
+        <v>227</v>
       </c>
       <c r="B44" t="n">
-        <v>1679</v>
+        <v>285</v>
       </c>
       <c r="C44" t="n">
-        <v>1817</v>
+        <v>412</v>
       </c>
       <c r="D44" t="n">
-        <v>2.807608294875236</v>
+        <v>3.683559803180223</v>
       </c>
       <c r="E44" t="n">
-        <v>2.128076869974232</v>
+        <v>3.190517111703517</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.6795314249010039</v>
+        <v>-0.4930426914767052</v>
       </c>
       <c r="G44" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H44" t="n">
-        <v>70.92469106432964</v>
+        <v>38.66544256982371</v>
       </c>
       <c r="I44" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="J44" t="n">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="K44" t="n">
-        <v>264.2771382902445</v>
+        <v>276.2362345242708</v>
       </c>
       <c r="L44" t="n">
-        <v>14.14110866114403</v>
+        <v>11.66717137672411</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,24 +4218,24 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.8907648149988014</v>
+        <v>0.6402422607776094</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.3043478260869565</v>
+        <v>0.4566929133858268</v>
       </c>
       <c r="R44" t="n">
-        <v>0.1339487330303994</v>
+        <v>0.4107625567013657</v>
       </c>
       <c r="S44" t="n">
-        <v>0.9376165641737315</v>
+        <v>0.6692314868920899</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n39</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>2497</v>
+        <v>1983</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1817</v>
+        <v>144</v>
       </c>
       <c r="B45" t="n">
-        <v>1837</v>
+        <v>172</v>
       </c>
       <c r="C45" t="n">
-        <v>1865</v>
+        <v>244</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9656524689092343</v>
+        <v>2.932583983784009</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2861210440082304</v>
+        <v>2.416102150647512</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.6795314249010039</v>
+        <v>-0.5164818331364968</v>
       </c>
       <c r="G45" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="H45" t="n">
-        <v>14.98326586826988</v>
+        <v>152.6704006641658</v>
       </c>
       <c r="I45" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J45" t="n">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="K45" t="n">
-        <v>28.7676133897539</v>
+        <v>223.6402764688765</v>
       </c>
       <c r="L45" t="n">
-        <v>4.863711407560969</v>
+        <v>11.20476134594744</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,24 +4304,24 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.7937465237838108</v>
+        <v>0.838781877699359</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="R45" t="n">
-        <v>0.349691571352816</v>
+        <v>0.210377314464053</v>
       </c>
       <c r="S45" t="n">
-        <v>0.9551725618918766</v>
+        <v>0.9234850918658275</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n40</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>2498</v>
+        <v>1984</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1471</v>
+        <v>1183</v>
       </c>
       <c r="B46" t="n">
-        <v>1493</v>
+        <v>1203</v>
       </c>
       <c r="C46" t="n">
-        <v>1555</v>
+        <v>1318</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7574225715361982</v>
+        <v>1.719125482021569</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2051209576803382</v>
+        <v>1.202643648885072</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.55230161385586</v>
+        <v>-0.5164818331364968</v>
       </c>
       <c r="G46" t="n">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="H46" t="n">
-        <v>52.19139548495673</v>
+        <v>22.77890933351</v>
       </c>
       <c r="I46" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J46" t="n">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="K46" t="n">
-        <v>48.16170204830662</v>
+        <v>103.8724607223325</v>
       </c>
       <c r="L46" t="n">
-        <v>3.871667812107673</v>
+        <v>6.568402083726055</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,24 +4390,24 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.7642248078174192</v>
+        <v>0.8022580749687324</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="R46" t="n">
-        <v>0.1123741174765709</v>
+        <v>0.5583011035814194</v>
       </c>
       <c r="S46" t="n">
-        <v>0.7807621782008567</v>
+        <v>0.8234087022676446</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n40</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>2499</v>
+        <v>1985</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4420,1210 +4420,6 @@
         </is>
       </c>
       <c r="X46" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>1770</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1828</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1998</v>
-      </c>
-      <c r="D47" t="n">
-        <v>4.213850484953782</v>
-      </c>
-      <c r="E47" t="n">
-        <v>3.661548871097922</v>
-      </c>
-      <c r="F47" t="n">
-        <v>-0.55230161385586</v>
-      </c>
-      <c r="G47" t="n">
-        <v>228</v>
-      </c>
-      <c r="H47" t="n">
-        <v>112.1797177829399</v>
-      </c>
-      <c r="I47" t="n">
-        <v>58</v>
-      </c>
-      <c r="J47" t="n">
-        <v>170</v>
-      </c>
-      <c r="K47" t="n">
-        <v>389.6072207534424</v>
-      </c>
-      <c r="L47" t="n">
-        <v>21.5396661001806</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P47" t="n">
-        <v>0.7203588477801548</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0.3411764705882353</v>
-      </c>
-      <c r="R47" t="n">
-        <v>0.6691820328054096</v>
-      </c>
-      <c r="S47" t="n">
-        <v>0.28792555678039</v>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>n31</t>
-        </is>
-      </c>
-      <c r="U47" t="n">
-        <v>2500</v>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>1357</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1434</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1549</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1.332496175060953</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.8099216452680793</v>
-      </c>
-      <c r="F48" t="n">
-        <v>-0.5225745297928734</v>
-      </c>
-      <c r="G48" t="n">
-        <v>192</v>
-      </c>
-      <c r="H48" t="n">
-        <v>78.44469545126253</v>
-      </c>
-      <c r="I48" t="n">
-        <v>77</v>
-      </c>
-      <c r="J48" t="n">
-        <v>115</v>
-      </c>
-      <c r="K48" t="n">
-        <v>155.1757817568545</v>
-      </c>
-      <c r="L48" t="n">
-        <v>8.251283606762177</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P48" t="n">
-        <v>0.7029240089144346</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0.6695652173913044</v>
-      </c>
-      <c r="R48" t="n">
-        <v>0.210629561503863</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0.701519840925896</v>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>n32</t>
-        </is>
-      </c>
-      <c r="U48" t="n">
-        <v>2501</v>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>1549</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1578</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1644</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1.101915498601188</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.5793409688083149</v>
-      </c>
-      <c r="F49" t="n">
-        <v>-0.5225745297928734</v>
-      </c>
-      <c r="G49" t="n">
-        <v>95</v>
-      </c>
-      <c r="H49" t="n">
-        <v>53.76832506734968</v>
-      </c>
-      <c r="I49" t="n">
-        <v>29</v>
-      </c>
-      <c r="J49" t="n">
-        <v>66</v>
-      </c>
-      <c r="K49" t="n">
-        <v>70.49353026674302</v>
-      </c>
-      <c r="L49" t="n">
-        <v>6.823447196183695</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P49" t="n">
-        <v>0.7355270173536781</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0.4393939393939394</v>
-      </c>
-      <c r="R49" t="n">
-        <v>0.08259216797783589</v>
-      </c>
-      <c r="S49" t="n">
-        <v>0.9143918640500485</v>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>n32</t>
-        </is>
-      </c>
-      <c r="U49" t="n">
-        <v>2502</v>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>1942</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1964</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1998</v>
-      </c>
-      <c r="D50" t="n">
-        <v>3.266960286632368</v>
-      </c>
-      <c r="E50" t="n">
-        <v>2.744385756839494</v>
-      </c>
-      <c r="F50" t="n">
-        <v>-0.5225745297928734</v>
-      </c>
-      <c r="G50" t="n">
-        <v>56</v>
-      </c>
-      <c r="H50" t="n">
-        <v>23.10841973544302</v>
-      </c>
-      <c r="I50" t="n">
-        <v>22</v>
-      </c>
-      <c r="J50" t="n">
-        <v>34</v>
-      </c>
-      <c r="K50" t="n">
-        <v>171.2970085245038</v>
-      </c>
-      <c r="L50" t="n">
-        <v>20.23016377949425</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P50" t="n">
-        <v>0.558182034084754</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="R50" t="n">
-        <v>0.06875085466077445</v>
-      </c>
-      <c r="S50" t="n">
-        <v>0.8905763687419637</v>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>n32</t>
-        </is>
-      </c>
-      <c r="U50" t="n">
-        <v>2503</v>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>1715</v>
-      </c>
-      <c r="B51" t="n">
-        <v>1730</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1787</v>
-      </c>
-      <c r="D51" t="n">
-        <v>3.069252664490506</v>
-      </c>
-      <c r="E51" t="n">
-        <v>2.590687522790738</v>
-      </c>
-      <c r="F51" t="n">
-        <v>-0.4785651416997682</v>
-      </c>
-      <c r="G51" t="n">
-        <v>72</v>
-      </c>
-      <c r="H51" t="n">
-        <v>15.82219252742016</v>
-      </c>
-      <c r="I51" t="n">
-        <v>15</v>
-      </c>
-      <c r="J51" t="n">
-        <v>57</v>
-      </c>
-      <c r="K51" t="n">
-        <v>152.7577054303032</v>
-      </c>
-      <c r="L51" t="n">
-        <v>14.70415508915008</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P51" t="n">
-        <v>0.908028128910717</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="R51" t="n">
-        <v>0.3296998076489319</v>
-      </c>
-      <c r="S51" t="n">
-        <v>0.9921891098055224</v>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>n33</t>
-        </is>
-      </c>
-      <c r="U51" t="n">
-        <v>2504</v>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>0</v>
-      </c>
-      <c r="B52" t="n">
-        <v>8</v>
-      </c>
-      <c r="C52" t="n">
-        <v>36</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1.521284743645882</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.9450203226993859</v>
-      </c>
-      <c r="F52" t="n">
-        <v>-0.5762644209464963</v>
-      </c>
-      <c r="G52" t="n">
-        <v>36</v>
-      </c>
-      <c r="H52" t="n">
-        <v>12.00480388215285</v>
-      </c>
-      <c r="I52" t="n">
-        <v>8</v>
-      </c>
-      <c r="J52" t="n">
-        <v>28</v>
-      </c>
-      <c r="K52" t="n">
-        <v>31.69294826204263</v>
-      </c>
-      <c r="L52" t="n">
-        <v>5.165396661689693</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P52" t="n">
-        <v>0.9638175330947188</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0.4559518336824511</v>
-      </c>
-      <c r="S52" t="n">
-        <v>0.9568200576861002</v>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>n34</t>
-        </is>
-      </c>
-      <c r="U52" t="n">
-        <v>2505</v>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>101</v>
-      </c>
-      <c r="B53" t="n">
-        <v>115</v>
-      </c>
-      <c r="C53" t="n">
-        <v>160</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1.470116386386163</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.8938519654396673</v>
-      </c>
-      <c r="F53" t="n">
-        <v>-0.5762644209464963</v>
-      </c>
-      <c r="G53" t="n">
-        <v>59</v>
-      </c>
-      <c r="H53" t="n">
-        <v>65.37737762414871</v>
-      </c>
-      <c r="I53" t="n">
-        <v>14</v>
-      </c>
-      <c r="J53" t="n">
-        <v>45</v>
-      </c>
-      <c r="K53" t="n">
-        <v>51.29967583557963</v>
-      </c>
-      <c r="L53" t="n">
-        <v>4.991658732036846</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P53" t="n">
-        <v>0.8836521623282934</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0.3111111111111111</v>
-      </c>
-      <c r="R53" t="n">
-        <v>0.4284311625906219</v>
-      </c>
-      <c r="S53" t="n">
-        <v>0.88596046132378</v>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>n34</t>
-        </is>
-      </c>
-      <c r="U53" t="n">
-        <v>2506</v>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>294</v>
-      </c>
-      <c r="B54" t="n">
-        <v>306</v>
-      </c>
-      <c r="C54" t="n">
-        <v>337</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1.760428537031254</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1.184164116084758</v>
-      </c>
-      <c r="F54" t="n">
-        <v>-0.5762644209464963</v>
-      </c>
-      <c r="G54" t="n">
-        <v>43</v>
-      </c>
-      <c r="H54" t="n">
-        <v>10.21106009603824</v>
-      </c>
-      <c r="I54" t="n">
-        <v>12</v>
-      </c>
-      <c r="J54" t="n">
-        <v>31</v>
-      </c>
-      <c r="K54" t="n">
-        <v>48.38512072222211</v>
-      </c>
-      <c r="L54" t="n">
-        <v>5.977389654570287</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P54" t="n">
-        <v>0.8548873756782923</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0.3870967741935484</v>
-      </c>
-      <c r="R54" t="n">
-        <v>0.3775304392224618</v>
-      </c>
-      <c r="S54" t="n">
-        <v>0.9126576676312318</v>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>n34</t>
-        </is>
-      </c>
-      <c r="U54" t="n">
-        <v>2507</v>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>1723</v>
-      </c>
-      <c r="B55" t="n">
-        <v>1753</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1812</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3.298936355410644</v>
-      </c>
-      <c r="E55" t="n">
-        <v>2.722671934464147</v>
-      </c>
-      <c r="F55" t="n">
-        <v>-0.5762644209464963</v>
-      </c>
-      <c r="G55" t="n">
-        <v>89</v>
-      </c>
-      <c r="H55" t="n">
-        <v>221.3129337337439</v>
-      </c>
-      <c r="I55" t="n">
-        <v>30</v>
-      </c>
-      <c r="J55" t="n">
-        <v>59</v>
-      </c>
-      <c r="K55" t="n">
-        <v>211.5369640611975</v>
-      </c>
-      <c r="L55" t="n">
-        <v>11.20126584358324</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P55" t="n">
-        <v>0.779003809584403</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>0.5084745762711864</v>
-      </c>
-      <c r="R55" t="n">
-        <v>0.2727346572395632</v>
-      </c>
-      <c r="S55" t="n">
-        <v>0.8562936920321198</v>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>n34</t>
-        </is>
-      </c>
-      <c r="U55" t="n">
-        <v>2508</v>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>1684</v>
-      </c>
-      <c r="B56" t="n">
-        <v>1816</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1998</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3.468207504593671</v>
-      </c>
-      <c r="E56" t="n">
-        <v>3.059622691122557</v>
-      </c>
-      <c r="F56" t="n">
-        <v>-0.4085848134711138</v>
-      </c>
-      <c r="G56" t="n">
-        <v>314</v>
-      </c>
-      <c r="H56" t="n">
-        <v>145.9820190299131</v>
-      </c>
-      <c r="I56" t="n">
-        <v>132</v>
-      </c>
-      <c r="J56" t="n">
-        <v>182</v>
-      </c>
-      <c r="K56" t="n">
-        <v>618.3141575680361</v>
-      </c>
-      <c r="L56" t="n">
-        <v>7.682228680570631</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P56" t="n">
-        <v>0.6506330426486514</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0.7252747252747253</v>
-      </c>
-      <c r="R56" t="n">
-        <v>0.206534957954842</v>
-      </c>
-      <c r="S56" t="n">
-        <v>0.9690364940326855</v>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>n35</t>
-        </is>
-      </c>
-      <c r="U56" t="n">
-        <v>2509</v>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>289</v>
-      </c>
-      <c r="B57" t="n">
-        <v>315</v>
-      </c>
-      <c r="C57" t="n">
-        <v>352</v>
-      </c>
-      <c r="D57" t="n">
-        <v>3.350274804217212</v>
-      </c>
-      <c r="E57" t="n">
-        <v>2.822815943434292</v>
-      </c>
-      <c r="F57" t="n">
-        <v>-0.5274588607829198</v>
-      </c>
-      <c r="G57" t="n">
-        <v>63</v>
-      </c>
-      <c r="H57" t="n">
-        <v>143.5709782123514</v>
-      </c>
-      <c r="I57" t="n">
-        <v>26</v>
-      </c>
-      <c r="J57" t="n">
-        <v>37</v>
-      </c>
-      <c r="K57" t="n">
-        <v>146.7443319350093</v>
-      </c>
-      <c r="L57" t="n">
-        <v>8.672282208411481</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P57" t="n">
-        <v>0.7478941165945167</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0.7027027027027027</v>
-      </c>
-      <c r="R57" t="n">
-        <v>0.285782716314971</v>
-      </c>
-      <c r="S57" t="n">
-        <v>0.9706623049096309</v>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>n37</t>
-        </is>
-      </c>
-      <c r="U57" t="n">
-        <v>2510</v>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>258</v>
-      </c>
-      <c r="B58" t="n">
-        <v>285</v>
-      </c>
-      <c r="C58" t="n">
-        <v>412</v>
-      </c>
-      <c r="D58" t="n">
-        <v>3.699974179441182</v>
-      </c>
-      <c r="E58" t="n">
-        <v>3.206775850460099</v>
-      </c>
-      <c r="F58" t="n">
-        <v>-0.4931983289810826</v>
-      </c>
-      <c r="G58" t="n">
-        <v>154</v>
-      </c>
-      <c r="H58" t="n">
-        <v>37.30707170673872</v>
-      </c>
-      <c r="I58" t="n">
-        <v>27</v>
-      </c>
-      <c r="J58" t="n">
-        <v>127</v>
-      </c>
-      <c r="K58" t="n">
-        <v>223.148290969572</v>
-      </c>
-      <c r="L58" t="n">
-        <v>11.6784095148871</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P58" t="n">
-        <v>0.8200853733230264</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0.2125984251968504</v>
-      </c>
-      <c r="R58" t="n">
-        <v>0.5046542938182222</v>
-      </c>
-      <c r="S58" t="n">
-        <v>0.6583632083807903</v>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>n39</t>
-        </is>
-      </c>
-      <c r="U58" t="n">
-        <v>2511</v>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>146</v>
-      </c>
-      <c r="B59" t="n">
-        <v>171</v>
-      </c>
-      <c r="C59" t="n">
-        <v>243</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2.939646710516719</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2.432495115351499</v>
-      </c>
-      <c r="F59" t="n">
-        <v>-0.5071515951652197</v>
-      </c>
-      <c r="G59" t="n">
-        <v>97</v>
-      </c>
-      <c r="H59" t="n">
-        <v>151.4183613720377</v>
-      </c>
-      <c r="I59" t="n">
-        <v>25</v>
-      </c>
-      <c r="J59" t="n">
-        <v>72</v>
-      </c>
-      <c r="K59" t="n">
-        <v>218.8859074369884</v>
-      </c>
-      <c r="L59" t="n">
-        <v>11.1311771743338</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P59" t="n">
-        <v>0.8434668101706985</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>0.3472222222222222</v>
-      </c>
-      <c r="R59" t="n">
-        <v>0.1982660007181995</v>
-      </c>
-      <c r="S59" t="n">
-        <v>0.9074694522978388</v>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>n40</t>
-        </is>
-      </c>
-      <c r="U59" t="n">
-        <v>2512</v>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>1227</v>
-      </c>
-      <c r="B60" t="n">
-        <v>1257</v>
-      </c>
-      <c r="C60" t="n">
-        <v>1317</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1.02649306093275</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.51934146576753</v>
-      </c>
-      <c r="F60" t="n">
-        <v>-0.5071515951652197</v>
-      </c>
-      <c r="G60" t="n">
-        <v>90</v>
-      </c>
-      <c r="H60" t="n">
-        <v>22.21215290540908</v>
-      </c>
-      <c r="I60" t="n">
-        <v>30</v>
-      </c>
-      <c r="J60" t="n">
-        <v>60</v>
-      </c>
-      <c r="K60" t="n">
-        <v>43.09712016756657</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.886887525834092</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
-        <v>0</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P60" t="n">
-        <v>0.6988251679429187</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R60" t="n">
-        <v>0.5862495147761034</v>
-      </c>
-      <c r="S60" t="n">
-        <v>0.8011691564111051</v>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>n40</t>
-        </is>
-      </c>
-      <c r="U60" t="n">
-        <v>2513</v>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X60" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.297920240925homecagefamilarmice2024-12-07095919trace/processed_No.297920240925homecagefamilarmice2024-12-07095919trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.297920240925homecagefamilarmice2024-12-07095919trace/processed_No.297920240925homecagefamilarmice2024-12-07095919trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1732</v>
+        <v>561</v>
       </c>
       <c r="B2" t="n">
-        <v>1768</v>
+        <v>614</v>
       </c>
       <c r="C2" t="n">
-        <v>1838</v>
+        <v>699</v>
       </c>
       <c r="D2" t="n">
-        <v>2.936214456588815</v>
+        <v>2.952638004075835</v>
       </c>
       <c r="E2" t="n">
-        <v>2.26848554348435</v>
+        <v>2.318302167051681</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6677289131044658</v>
+        <v>-0.6343358370241545</v>
       </c>
       <c r="G2" t="n">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="H2" t="n">
-        <v>34.14681795030128</v>
+        <v>114.6189729254883</v>
       </c>
       <c r="I2" t="n">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J2" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K2" t="n">
-        <v>234.1959423236757</v>
+        <v>241.1129815643766</v>
       </c>
       <c r="L2" t="n">
-        <v>13.3808655108718</v>
+        <v>7.279681910448561</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,24 +606,24 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.8381612481504018</v>
+        <v>0.7375358969877789</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5142857142857142</v>
+        <v>0.6235294117647059</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1964024006425119</v>
+        <v>0.2354085859319614</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9696964815394448</v>
+        <v>0.9113023317609359</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>927</v>
+        <v>1941</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1838</v>
+        <v>1293</v>
       </c>
       <c r="B3" t="n">
-        <v>1877</v>
+        <v>1333</v>
       </c>
       <c r="C3" t="n">
-        <v>1998</v>
+        <v>1404</v>
       </c>
       <c r="D3" t="n">
-        <v>2.548946278508231</v>
+        <v>1.959839548470986</v>
       </c>
       <c r="E3" t="n">
-        <v>1.881217365403765</v>
+        <v>1.325503711446832</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6677289131044658</v>
+        <v>-0.6343358370241545</v>
       </c>
       <c r="G3" t="n">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="H3" t="n">
-        <v>55.41875600355843</v>
+        <v>75.47331910150274</v>
       </c>
       <c r="I3" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="K3" t="n">
-        <v>295.1294925291729</v>
+        <v>155.8164589586343</v>
       </c>
       <c r="L3" t="n">
-        <v>11.61601369771205</v>
+        <v>4.831953151280878</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,24 +692,24 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.7823511951028859</v>
+        <v>0.6975351836059559</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3223140495867768</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1451043562857369</v>
+        <v>0.1980319820127001</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5024703837161109</v>
+        <v>0.8305992480792272</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>928</v>
+        <v>1942</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>792</v>
+        <v>1684</v>
       </c>
       <c r="B4" t="n">
-        <v>872</v>
+        <v>1705</v>
       </c>
       <c r="C4" t="n">
-        <v>1033</v>
+        <v>1737</v>
       </c>
       <c r="D4" t="n">
-        <v>2.907117630005394</v>
+        <v>2.715110067093971</v>
       </c>
       <c r="E4" t="n">
-        <v>2.140351381590496</v>
+        <v>2.048467639870853</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.7667662484148986</v>
+        <v>-0.6666424272231182</v>
       </c>
       <c r="G4" t="n">
-        <v>241</v>
+        <v>53</v>
       </c>
       <c r="H4" t="n">
-        <v>74.10218879679178</v>
+        <v>24.48279538306247</v>
       </c>
       <c r="I4" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="J4" t="n">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="K4" t="n">
-        <v>435.3315967121006</v>
+        <v>127.9928438245122</v>
       </c>
       <c r="L4" t="n">
-        <v>10.80123232433071</v>
+        <v>12.31502202635892</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.820705456260584</v>
+        <v>0.6551695588875023</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4968944099378882</v>
+        <v>0.65625</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3363347851843483</v>
+        <v>0.03644446573306728</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9519522532187341</v>
+        <v>0.9796748367303474</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>929</v>
+        <v>1943</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1033</v>
+        <v>1737</v>
       </c>
       <c r="B5" t="n">
-        <v>1099</v>
+        <v>1764</v>
       </c>
       <c r="C5" t="n">
-        <v>1227</v>
+        <v>1842</v>
       </c>
       <c r="D5" t="n">
-        <v>2.014082425712076</v>
+        <v>3.111810152660503</v>
       </c>
       <c r="E5" t="n">
-        <v>1.247316177297178</v>
+        <v>2.445167725437384</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.7667662484148986</v>
+        <v>-0.6666424272231182</v>
       </c>
       <c r="G5" t="n">
-        <v>194</v>
+        <v>105</v>
       </c>
       <c r="H5" t="n">
-        <v>58.20027461375503</v>
+        <v>29.47240029287445</v>
       </c>
       <c r="I5" t="n">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="J5" t="n">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="K5" t="n">
-        <v>192.1041589576096</v>
+        <v>228.2800805445902</v>
       </c>
       <c r="L5" t="n">
-        <v>7.483210165261637</v>
+        <v>14.11434882007495</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.8523189059999223</v>
+        <v>0.8870123076361254</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.515625</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="R5" t="n">
-        <v>0.373006106760812</v>
+        <v>0.1993204283559598</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9883677085681034</v>
+        <v>0.9553491395857785</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>930</v>
+        <v>1944</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1842</v>
       </c>
       <c r="B6" t="n">
-        <v>56</v>
+        <v>1872</v>
       </c>
       <c r="C6" t="n">
-        <v>133</v>
+        <v>1998</v>
       </c>
       <c r="D6" t="n">
-        <v>2.768244883658372</v>
+        <v>2.687375010588306</v>
       </c>
       <c r="E6" t="n">
-        <v>2.179588856250839</v>
+        <v>2.020732583365188</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5886560274075328</v>
+        <v>-0.6666424272231182</v>
       </c>
       <c r="G6" t="n">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="H6" t="n">
-        <v>42.68057026811703</v>
+        <v>58.67975544092519</v>
       </c>
       <c r="I6" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="J6" t="n">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="K6" t="n">
-        <v>230.5213819852392</v>
+        <v>290.3680879363839</v>
       </c>
       <c r="L6" t="n">
-        <v>10.30502332938407</v>
+        <v>12.18922313668991</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.5269043574149038</v>
+        <v>0.8329479545842219</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1101547553910887</v>
+        <v>0.1907331537047822</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9630581184468321</v>
+        <v>0.4809621491276971</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>931</v>
+        <v>1945</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>133</v>
+        <v>798</v>
       </c>
       <c r="B7" t="n">
-        <v>179</v>
+        <v>867</v>
       </c>
       <c r="C7" t="n">
-        <v>319</v>
+        <v>1039</v>
       </c>
       <c r="D7" t="n">
-        <v>2.866651875526538</v>
+        <v>2.884936791197082</v>
       </c>
       <c r="E7" t="n">
-        <v>2.277995848119005</v>
+        <v>2.120865065836278</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5886560274075328</v>
+        <v>-0.7640717253608031</v>
       </c>
       <c r="G7" t="n">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="H7" t="n">
-        <v>43.99142375750748</v>
+        <v>84.91512184856617</v>
       </c>
       <c r="I7" t="n">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="J7" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="K7" t="n">
-        <v>274.1807256180273</v>
+        <v>428.6807151355169</v>
       </c>
       <c r="L7" t="n">
-        <v>10.67135159498021</v>
+        <v>10.67695048487369</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.8636019490416971</v>
+        <v>0.8150002264805641</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3285714285714286</v>
+        <v>0.4011627906976744</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3632489484449798</v>
+        <v>0.3351560832714554</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8941240014582779</v>
+        <v>0.9472689096573914</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>932</v>
+        <v>1946</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>178</v>
+        <v>1039</v>
       </c>
       <c r="B8" t="n">
-        <v>209</v>
+        <v>1099</v>
       </c>
       <c r="C8" t="n">
-        <v>249</v>
+        <v>1233</v>
       </c>
       <c r="D8" t="n">
-        <v>3.093389228831639</v>
+        <v>2.209855859350644</v>
       </c>
       <c r="E8" t="n">
-        <v>2.460721819684699</v>
+        <v>1.445784133989841</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6326674091469401</v>
+        <v>-0.7640717253608031</v>
       </c>
       <c r="G8" t="n">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="H8" t="n">
-        <v>28.58938283240371</v>
+        <v>47.7005524859087</v>
       </c>
       <c r="I8" t="n">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="J8" t="n">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="K8" t="n">
-        <v>147.6832547147411</v>
+        <v>188.1204788880185</v>
       </c>
       <c r="L8" t="n">
-        <v>15.05015346988898</v>
+        <v>8.17852289207503</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.6854556943074159</v>
+        <v>0.8154015017083633</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.775</v>
+        <v>0.4477611940298508</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1874711724193619</v>
+        <v>0.4198760545779537</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9367622948900373</v>
+        <v>0.9853789588474777</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>933</v>
+        <v>1947</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1146</v>
+        <v>80</v>
       </c>
       <c r="B9" t="n">
-        <v>1190</v>
+        <v>110</v>
       </c>
       <c r="C9" t="n">
-        <v>1257</v>
+        <v>301</v>
       </c>
       <c r="D9" t="n">
-        <v>2.049777205743188</v>
+        <v>4.441455654692708</v>
       </c>
       <c r="E9" t="n">
-        <v>1.395812036932296</v>
+        <v>3.917458787256347</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6539651688108918</v>
+        <v>-0.5239968674363621</v>
       </c>
       <c r="G9" t="n">
-        <v>111</v>
+        <v>221</v>
       </c>
       <c r="H9" t="n">
-        <v>44.91279665290836</v>
+        <v>64.65977793585371</v>
       </c>
       <c r="I9" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="J9" t="n">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="K9" t="n">
-        <v>101.1631614429186</v>
+        <v>428.4615535141172</v>
       </c>
       <c r="L9" t="n">
-        <v>6.033579903658346</v>
+        <v>21.00711509930241</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.8361862712977849</v>
+        <v>0.8763704307811225</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6567164179104478</v>
+        <v>0.1570680628272251</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2786644455215102</v>
+        <v>0.5193424128162608</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9657700384608305</v>
+        <v>0.9138036221327993</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>934</v>
+        <v>1948</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,73 +1245,73 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1842</v>
+        <v>535</v>
       </c>
       <c r="B10" t="n">
-        <v>1882</v>
+        <v>574</v>
       </c>
       <c r="C10" t="n">
-        <v>1998</v>
+        <v>773</v>
       </c>
       <c r="D10" t="n">
-        <v>3.32380092539154</v>
+        <v>1.945157477803782</v>
       </c>
       <c r="E10" t="n">
-        <v>2.669835756580648</v>
+        <v>1.264119679663262</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6539651688108918</v>
+        <v>-0.6810377981405206</v>
       </c>
       <c r="G10" t="n">
-        <v>156</v>
+        <v>238</v>
       </c>
       <c r="H10" t="n">
-        <v>90.38943926200932</v>
+        <v>62.83797437772796</v>
       </c>
       <c r="I10" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" t="n">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="K10" t="n">
-        <v>318.09267492576</v>
+        <v>323.4537453258446</v>
       </c>
       <c r="L10" t="n">
-        <v>9.783706449175915</v>
+        <v>3.916644208817877</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(691), 'value': np.float64(0.953258273166427), 'amplitude': np.float64(1.6342960713069474), 'start_idx': np.int64(656), 'end_idx': np.int64(719), 'duration': np.float64(63.0), 'fwhm': np.float64(29.498755889732138), 'rise_time': np.float64(35.0), 'decay_time': np.float64(28.0), 'auc': np.float64(81.26860871365614)}]</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.7634485795411079</v>
+        <v>0.765639817135496</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3448275862068966</v>
+        <v>0.1959798994974874</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0755079612923356</v>
+        <v>0.1979539226786552</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8858310430079828</v>
+        <v>0.487272719350855</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>935</v>
+        <v>1949</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1143</v>
+        <v>126</v>
       </c>
       <c r="B11" t="n">
-        <v>1189</v>
+        <v>174</v>
       </c>
       <c r="C11" t="n">
-        <v>1350</v>
+        <v>327</v>
       </c>
       <c r="D11" t="n">
-        <v>2.343056425094326</v>
+        <v>3.103736268812291</v>
       </c>
       <c r="E11" t="n">
-        <v>1.734214818521197</v>
+        <v>2.498168508465432</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6088416065731285</v>
+        <v>-0.6055677603468592</v>
       </c>
       <c r="G11" t="n">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H11" t="n">
-        <v>139.8296971360928</v>
+        <v>40.48388028251313</v>
       </c>
       <c r="I11" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J11" t="n">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="K11" t="n">
-        <v>269.6903839183891</v>
+        <v>289.7684269210409</v>
       </c>
       <c r="L11" t="n">
-        <v>7.415097529978626</v>
+        <v>11.37863906734435</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.7815255569162574</v>
+        <v>0.8506386442727818</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1329610476405234</v>
+        <v>0.2654339769516523</v>
       </c>
       <c r="S11" t="n">
-        <v>0.7687630844153446</v>
+        <v>0.8782773213174212</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>936</v>
+        <v>1950</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>390</v>
+        <v>859</v>
       </c>
       <c r="B12" t="n">
-        <v>595</v>
+        <v>907</v>
       </c>
       <c r="C12" t="n">
-        <v>868</v>
+        <v>1135</v>
       </c>
       <c r="D12" t="n">
-        <v>3.045622162223167</v>
+        <v>3.364621762052965</v>
       </c>
       <c r="E12" t="n">
-        <v>2.305067128682531</v>
+        <v>2.777326852049361</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7405550335406365</v>
+        <v>-0.5872949100036046</v>
       </c>
       <c r="G12" t="n">
-        <v>478</v>
+        <v>276</v>
       </c>
       <c r="H12" t="n">
-        <v>326.5731975979506</v>
+        <v>122.791893161054</v>
       </c>
       <c r="I12" t="n">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="J12" t="n">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="K12" t="n">
-        <v>908.0756655671217</v>
+        <v>440.1641382237593</v>
       </c>
       <c r="L12" t="n">
-        <v>12.5140085814373</v>
+        <v>10.6427148745519</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.545397255139122</v>
+        <v>0.8011477779987086</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7509157509157509</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1196104427462445</v>
+        <v>0.2683884773673659</v>
       </c>
       <c r="S12" t="n">
-        <v>0.7579900291539379</v>
+        <v>0.67863708583963</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>937</v>
+        <v>1951</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>642</v>
+        <v>901</v>
       </c>
       <c r="B13" t="n">
-        <v>675</v>
+        <v>928</v>
       </c>
       <c r="C13" t="n">
-        <v>789</v>
+        <v>1046</v>
       </c>
       <c r="D13" t="n">
-        <v>3.316420331320928</v>
+        <v>2.139985642214433</v>
       </c>
       <c r="E13" t="n">
-        <v>2.785610818180885</v>
+        <v>1.478864634538394</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5308095131400429</v>
+        <v>-0.661121007676039</v>
       </c>
       <c r="G13" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H13" t="n">
-        <v>276.7614127266931</v>
+        <v>25.56711235260116</v>
       </c>
       <c r="I13" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J13" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K13" t="n">
-        <v>312.782637511026</v>
+        <v>213.7545230745096</v>
       </c>
       <c r="L13" t="n">
-        <v>16.10594159408652</v>
+        <v>6.349098901866384</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.8595808642066548</v>
+        <v>0.7468796337270692</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.2288135593220339</v>
       </c>
       <c r="R13" t="n">
-        <v>0.371666068915456</v>
+        <v>0.1789443727433099</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7665015676196646</v>
+        <v>0.6066298102800495</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>938</v>
+        <v>1952</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>444</v>
+        <v>1155</v>
       </c>
       <c r="B14" t="n">
-        <v>502</v>
+        <v>1184</v>
       </c>
       <c r="C14" t="n">
-        <v>589</v>
+        <v>1265</v>
       </c>
       <c r="D14" t="n">
-        <v>3.798349588579168</v>
+        <v>2.230261076179946</v>
       </c>
       <c r="E14" t="n">
-        <v>3.315952668396242</v>
+        <v>1.569140068503906</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.482396920182927</v>
+        <v>-0.661121007676039</v>
       </c>
       <c r="G14" t="n">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="H14" t="n">
-        <v>217.8353954594781</v>
+        <v>43.38735179284618</v>
       </c>
       <c r="I14" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="J14" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K14" t="n">
-        <v>414.1466476471484</v>
+        <v>102.1527121111732</v>
       </c>
       <c r="L14" t="n">
-        <v>34.43948227347837</v>
+        <v>6.616936053363736</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.7320806435997734</v>
+        <v>0.9492596869375134</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3580246913580247</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4214827103095816</v>
+        <v>0.3285580390778728</v>
       </c>
       <c r="S14" t="n">
-        <v>0.833856555715049</v>
+        <v>0.9720594490629701</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>939</v>
+        <v>1953</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>589</v>
+        <v>1846</v>
       </c>
       <c r="B15" t="n">
-        <v>619</v>
+        <v>1874</v>
       </c>
       <c r="C15" t="n">
-        <v>742</v>
+        <v>1998</v>
       </c>
       <c r="D15" t="n">
-        <v>3.553101921226607</v>
+        <v>3.323967641792206</v>
       </c>
       <c r="E15" t="n">
-        <v>3.07070500104368</v>
+        <v>2.662846634116167</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.482396920182927</v>
+        <v>-0.661121007676039</v>
       </c>
       <c r="G15" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H15" t="n">
-        <v>33.73024521763023</v>
+        <v>92.02647436806888</v>
       </c>
       <c r="I15" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J15" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K15" t="n">
-        <v>325.2962710247945</v>
+        <v>319.8811512190545</v>
       </c>
       <c r="L15" t="n">
-        <v>32.21583158113652</v>
+        <v>9.861841541377773</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.8851261276566718</v>
+        <v>0.8034922227885466</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2439024390243902</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4289270148612828</v>
+        <v>0.1304287084522776</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9329480377281569</v>
+        <v>0.8307657561985315</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>940</v>
+        <v>1954</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>423</v>
+        <v>1804</v>
       </c>
       <c r="B16" t="n">
-        <v>548</v>
+        <v>1821</v>
       </c>
       <c r="C16" t="n">
-        <v>852</v>
+        <v>1869</v>
       </c>
       <c r="D16" t="n">
-        <v>3.847912665019031</v>
+        <v>1.263359572548761</v>
       </c>
       <c r="E16" t="n">
-        <v>3.329607459949748</v>
+        <v>0.8590187090735378</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5183052050692833</v>
+        <v>-0.4043408634752229</v>
       </c>
       <c r="G16" t="n">
-        <v>429</v>
+        <v>65</v>
       </c>
       <c r="H16" t="n">
-        <v>247.9578018105923</v>
+        <v>58.39821904518953</v>
       </c>
       <c r="I16" t="n">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="J16" t="n">
-        <v>304</v>
+        <v>48</v>
       </c>
       <c r="K16" t="n">
-        <v>836.7921141713772</v>
+        <v>43.45953552466098</v>
       </c>
       <c r="L16" t="n">
-        <v>19.23831338476457</v>
+        <v>4.48200384594232</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.7603403023343557</v>
+        <v>0.8448071658579399</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4111842105263158</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4039146029924943</v>
+        <v>0.2045838248066255</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9073026161327252</v>
+        <v>0.8436912025508875</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>941</v>
+        <v>1955</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="B17" t="n">
-        <v>73</v>
+        <v>217</v>
       </c>
       <c r="C17" t="n">
-        <v>179</v>
+        <v>276</v>
       </c>
       <c r="D17" t="n">
-        <v>2.418084826586268</v>
+        <v>1.979410052749204</v>
       </c>
       <c r="E17" t="n">
-        <v>1.937405093289771</v>
+        <v>1.512535946235346</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.4806797332964971</v>
+        <v>-0.4668741065138571</v>
       </c>
       <c r="G17" t="n">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="H17" t="n">
-        <v>49.54107517543643</v>
+        <v>66.5878668841261</v>
       </c>
       <c r="I17" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="J17" t="n">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="K17" t="n">
-        <v>259.8775813203396</v>
+        <v>149.3928450398247</v>
       </c>
       <c r="L17" t="n">
-        <v>6.693587020649372</v>
+        <v>8.276572032166495</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.5235924326600736</v>
+        <v>0.6729330520138779</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.6886792452830188</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4458871917091367</v>
+        <v>0.2491736555463733</v>
       </c>
       <c r="S17" t="n">
-        <v>0.5527893471924719</v>
+        <v>0.6354470448397358</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>942</v>
+        <v>1956</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1723</v>
+        <v>562</v>
       </c>
       <c r="B18" t="n">
-        <v>1804</v>
+        <v>585</v>
       </c>
       <c r="C18" t="n">
-        <v>1998</v>
+        <v>649</v>
       </c>
       <c r="D18" t="n">
-        <v>4.192446786042052</v>
+        <v>3.126365840804086</v>
       </c>
       <c r="E18" t="n">
-        <v>3.718596148160152</v>
+        <v>2.379250200327704</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.4738506378819001</v>
+        <v>-0.7471156404763821</v>
       </c>
       <c r="G18" t="n">
-        <v>275</v>
+        <v>87</v>
       </c>
       <c r="H18" t="n">
-        <v>79.18214059821776</v>
+        <v>324.1252621943262</v>
       </c>
       <c r="I18" t="n">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J18" t="n">
-        <v>194</v>
+        <v>64</v>
       </c>
       <c r="K18" t="n">
-        <v>440.0069129932944</v>
+        <v>243.7837717751123</v>
       </c>
       <c r="L18" t="n">
-        <v>10.76780505932949</v>
+        <v>12.90243581486878</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.7951966914353911</v>
+        <v>0.6621369646102361</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.4175257731958763</v>
+        <v>0.359375</v>
       </c>
       <c r="R18" t="n">
-        <v>0.4770936840711856</v>
+        <v>0.04045678623329059</v>
       </c>
       <c r="S18" t="n">
-        <v>0.5841336394195658</v>
+        <v>0.7997343295102796</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>943</v>
+        <v>1957</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1442</v>
+        <v>649</v>
       </c>
       <c r="B19" t="n">
-        <v>1484</v>
+        <v>681</v>
       </c>
       <c r="C19" t="n">
-        <v>1631</v>
+        <v>873</v>
       </c>
       <c r="D19" t="n">
-        <v>3.689395685417883</v>
+        <v>2.769767829897367</v>
       </c>
       <c r="E19" t="n">
-        <v>3.025665788106883</v>
+        <v>2.022652189420985</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6637298973109995</v>
+        <v>-0.7471156404763821</v>
       </c>
       <c r="G19" t="n">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="H19" t="n">
-        <v>156.7856912163804</v>
+        <v>30.05406174904215</v>
       </c>
       <c r="I19" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="J19" t="n">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="K19" t="n">
-        <v>381.9732293141037</v>
+        <v>345.1580820039218</v>
       </c>
       <c r="L19" t="n">
-        <v>18.56286111922966</v>
+        <v>11.43076449368697</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.9226077335777898</v>
+        <v>0.7944421692720228</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R19" t="n">
-        <v>0.4183659041746995</v>
+        <v>0.4483734823981789</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9593487162576637</v>
+        <v>0.8624836166516969</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>944</v>
+        <v>1958</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,73 +2105,73 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1631</v>
+        <v>873</v>
       </c>
       <c r="B20" t="n">
-        <v>1685</v>
+        <v>956</v>
       </c>
       <c r="C20" t="n">
-        <v>1875</v>
+        <v>1068</v>
       </c>
       <c r="D20" t="n">
-        <v>2.605076101758392</v>
+        <v>1.161291151063815</v>
       </c>
       <c r="E20" t="n">
-        <v>1.941346204447393</v>
+        <v>0.4141755105874328</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6637298973109995</v>
+        <v>-0.7471156404763821</v>
       </c>
       <c r="G20" t="n">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="H20" t="n">
-        <v>74.82195042711874</v>
+        <v>53.26124017913355</v>
       </c>
       <c r="I20" t="n">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="J20" t="n">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="K20" t="n">
-        <v>295.2076522361484</v>
+        <v>129.6165192118804</v>
       </c>
       <c r="L20" t="n">
-        <v>13.10720508323248</v>
+        <v>4.792620346415466</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(905), 'value': np.float64(-0.2814655289419315), 'amplitude': np.float64(0.46565011153445063), 'start_idx': np.int64(874), 'end_idx': np.int64(926), 'duration': np.float64(52.0), 'fwhm': np.float64(24.716119454090403), 'rise_time': np.float64(31.0), 'decay_time': np.float64(21.0), 'auc': np.float64(14.667261999451004)}]</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.8647217164105081</v>
+        <v>0.5619825277293692</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.2842105263157895</v>
+        <v>0.7410714285714286</v>
       </c>
       <c r="R20" t="n">
-        <v>0.2839842278629707</v>
+        <v>1.041299475142024</v>
       </c>
       <c r="S20" t="n">
-        <v>0.7910464650062122</v>
+        <v>0.7916512058178314</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>945</v>
+        <v>1959</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1341</v>
+        <v>1910</v>
       </c>
       <c r="B21" t="n">
-        <v>1428</v>
+        <v>1940</v>
       </c>
       <c r="C21" t="n">
-        <v>1549</v>
+        <v>1998</v>
       </c>
       <c r="D21" t="n">
-        <v>1.409904808446754</v>
+        <v>1.097997870109351</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8529236693428797</v>
+        <v>0.3508822296329685</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5569811391038747</v>
+        <v>-0.7471156404763821</v>
       </c>
       <c r="G21" t="n">
-        <v>208</v>
+        <v>88</v>
       </c>
       <c r="H21" t="n">
-        <v>46.64701894648465</v>
+        <v>32.14533289867836</v>
       </c>
       <c r="I21" t="n">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="J21" t="n">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="K21" t="n">
-        <v>135.3247923005181</v>
+        <v>57.00137524924388</v>
       </c>
       <c r="L21" t="n">
-        <v>7.251216675139536</v>
+        <v>4.531410514741577</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.5703021225607584</v>
+        <v>0.8831570631266272</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.71900826446281</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="R21" t="n">
-        <v>0.4855205808100371</v>
+        <v>0.2266939436203353</v>
       </c>
       <c r="S21" t="n">
-        <v>0.3969447603529809</v>
+        <v>0.9890018789353974</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>946</v>
+        <v>1960</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1722</v>
+        <v>1548</v>
       </c>
       <c r="B22" t="n">
-        <v>1822</v>
+        <v>1578</v>
       </c>
       <c r="C22" t="n">
-        <v>1998</v>
+        <v>1616</v>
       </c>
       <c r="D22" t="n">
-        <v>4.103048927798559</v>
+        <v>4.472608512830879</v>
       </c>
       <c r="E22" t="n">
-        <v>3.546067788694684</v>
+        <v>4.023690572792082</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.5569811391038747</v>
+        <v>-0.4489179400387966</v>
       </c>
       <c r="G22" t="n">
-        <v>276</v>
+        <v>68</v>
       </c>
       <c r="H22" t="n">
-        <v>117.3077073764764</v>
+        <v>49.6651204274217</v>
       </c>
       <c r="I22" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="J22" t="n">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="K22" t="n">
-        <v>515.6972725526942</v>
+        <v>190.3927454604093</v>
       </c>
       <c r="L22" t="n">
-        <v>21.10220252170301</v>
+        <v>20.45598515579441</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.6252703608578407</v>
+        <v>0.7518129282572429</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.5681818181818182</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="R22" t="n">
-        <v>0.5944897015966909</v>
+        <v>0.3539810735438635</v>
       </c>
       <c r="S22" t="n">
-        <v>0.3556506753126738</v>
+        <v>0.9567538571645617</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>947</v>
+        <v>1961</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1355</v>
+        <v>641</v>
       </c>
       <c r="B23" t="n">
-        <v>1434</v>
+        <v>675</v>
       </c>
       <c r="C23" t="n">
-        <v>1544</v>
+        <v>785</v>
       </c>
       <c r="D23" t="n">
-        <v>1.211420792749871</v>
+        <v>3.371793586521145</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6967205248259946</v>
+        <v>2.806272996828593</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.5147002679238768</v>
+        <v>-0.5655205896925517</v>
       </c>
       <c r="G23" t="n">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="H23" t="n">
-        <v>125.0744742995996</v>
+        <v>279.7323278734529</v>
       </c>
       <c r="I23" t="n">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="J23" t="n">
         <v>110</v>
       </c>
       <c r="K23" t="n">
-        <v>151.4639239227047</v>
+        <v>319.1820517454336</v>
       </c>
       <c r="L23" t="n">
-        <v>7.708095938299774</v>
+        <v>15.9306150111638</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.6810833884690222</v>
+        <v>0.8428088327455356</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.7181818181818181</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2252758974119164</v>
+        <v>0.3467240876579885</v>
       </c>
       <c r="S23" t="n">
-        <v>0.7761170871442599</v>
+        <v>0.740025433596738</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>948</v>
+        <v>1962</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1544</v>
+        <v>915</v>
       </c>
       <c r="B24" t="n">
-        <v>1587</v>
+        <v>944</v>
       </c>
       <c r="C24" t="n">
-        <v>1707</v>
+        <v>1028</v>
       </c>
       <c r="D24" t="n">
-        <v>1.10205771899313</v>
+        <v>1.758644414968824</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5873574510692535</v>
+        <v>1.193123825276273</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.5147002679238768</v>
+        <v>-0.5655205896925517</v>
       </c>
       <c r="G24" t="n">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="H24" t="n">
-        <v>52.61133709219484</v>
+        <v>66.60222016630223</v>
       </c>
       <c r="I24" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="J24" t="n">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="K24" t="n">
-        <v>96.70899354270063</v>
+        <v>123.5069361834977</v>
       </c>
       <c r="L24" t="n">
-        <v>7.01223445922545</v>
+        <v>8.309016076309579</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.8636613270288647</v>
+        <v>0.8364557383767033</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.3583333333333333</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2600917132318908</v>
+        <v>0.14060147830337</v>
       </c>
       <c r="S24" t="n">
-        <v>0.6951305191909529</v>
+        <v>0.9551546326038289</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>949</v>
+        <v>1963</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>929</v>
+        <v>543</v>
       </c>
       <c r="B25" t="n">
-        <v>1097</v>
+        <v>561</v>
       </c>
       <c r="C25" t="n">
-        <v>1322</v>
+        <v>584</v>
       </c>
       <c r="D25" t="n">
-        <v>3.561189803677117</v>
+        <v>3.244604601379073</v>
       </c>
       <c r="E25" t="n">
-        <v>3.022107532296154</v>
+        <v>2.75813057623472</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.5390822713809624</v>
+        <v>-0.4864740251443528</v>
       </c>
       <c r="G25" t="n">
-        <v>393</v>
+        <v>41</v>
       </c>
       <c r="H25" t="n">
-        <v>102.4094421806576</v>
+        <v>18.15495127491772</v>
       </c>
       <c r="I25" t="n">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="J25" t="n">
-        <v>225</v>
+        <v>23</v>
       </c>
       <c r="K25" t="n">
-        <v>456.8588097161823</v>
+        <v>123.980436190485</v>
       </c>
       <c r="L25" t="n">
-        <v>14.60662205928229</v>
+        <v>29.42618696377377</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,36 +2584,1842 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.5723015734939648</v>
+        <v>0.6237918100247586</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.7466666666666667</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="R25" t="n">
-        <v>0.9501754189355185</v>
+        <v>0.02751741284394905</v>
       </c>
       <c r="S25" t="n">
-        <v>0.8735236884431565</v>
+        <v>0.985093124653163</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U25" t="n">
+        <v>1964</v>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>584</v>
+      </c>
+      <c r="B26" t="n">
+        <v>618</v>
+      </c>
+      <c r="C26" t="n">
+        <v>747</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.650256216142553</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.163782190998201</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.4864740251443528</v>
+      </c>
+      <c r="G26" t="n">
+        <v>163</v>
+      </c>
+      <c r="H26" t="n">
+        <v>36.50501721703256</v>
+      </c>
+      <c r="I26" t="n">
+        <v>34</v>
+      </c>
+      <c r="J26" t="n">
+        <v>129</v>
+      </c>
+      <c r="K26" t="n">
+        <v>342.5309237814814</v>
+      </c>
+      <c r="L26" t="n">
+        <v>33.10514995763545</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>0.8892115849047326</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.2635658914728682</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.4278469959160341</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.8959306565176951</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U26" t="n">
+        <v>1965</v>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>501</v>
+      </c>
+      <c r="B27" t="n">
+        <v>528</v>
+      </c>
+      <c r="C27" t="n">
+        <v>597</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.88152363383521</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5.485547338540512</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.3959762952946975</v>
+      </c>
+      <c r="G27" t="n">
+        <v>96</v>
+      </c>
+      <c r="H27" t="n">
+        <v>64.92460161703616</v>
+      </c>
+      <c r="I27" t="n">
+        <v>27</v>
+      </c>
+      <c r="J27" t="n">
+        <v>69</v>
+      </c>
+      <c r="K27" t="n">
+        <v>336.3630137650892</v>
+      </c>
+      <c r="L27" t="n">
+        <v>19.96303965762712</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>0.8142450656605172</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.391304347826087</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.1654834418080679</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.8885413515946966</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U27" t="n">
+        <v>1966</v>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>608</v>
+      </c>
+      <c r="B28" t="n">
+        <v>631</v>
+      </c>
+      <c r="C28" t="n">
+        <v>729</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.133334982292254</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.62375710340664</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.5095778788856132</v>
+      </c>
+      <c r="G28" t="n">
+        <v>121</v>
+      </c>
+      <c r="H28" t="n">
+        <v>27.75589428809906</v>
+      </c>
+      <c r="I28" t="n">
+        <v>23</v>
+      </c>
+      <c r="J28" t="n">
+        <v>98</v>
+      </c>
+      <c r="K28" t="n">
+        <v>325.6940633184687</v>
+      </c>
+      <c r="L28" t="n">
+        <v>18.17223004217757</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>0.7808599497830184</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.2346938775510204</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.1192009060499868</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.8764288805521446</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U28" t="n">
+        <v>1967</v>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>621</v>
+      </c>
+      <c r="B29" t="n">
+        <v>644</v>
+      </c>
+      <c r="C29" t="n">
+        <v>858</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.063658190199081</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.531021536598236</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.532636653600845</v>
+      </c>
+      <c r="G29" t="n">
+        <v>237</v>
+      </c>
+      <c r="H29" t="n">
+        <v>28.4850227371212</v>
+      </c>
+      <c r="I29" t="n">
+        <v>23</v>
+      </c>
+      <c r="J29" t="n">
+        <v>214</v>
+      </c>
+      <c r="K29" t="n">
+        <v>406.1726039908167</v>
+      </c>
+      <c r="L29" t="n">
+        <v>14.74019970845032</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>0.782034284019524</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.1074766355140187</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.4181939098862594</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.9377159770823558</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>1968</v>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>858</v>
+      </c>
+      <c r="B30" t="n">
+        <v>887</v>
+      </c>
+      <c r="C30" t="n">
+        <v>957</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.242474007549085</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7098373539482398</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.532636653600845</v>
+      </c>
+      <c r="G30" t="n">
+        <v>99</v>
+      </c>
+      <c r="H30" t="n">
+        <v>31.65402027389609</v>
+      </c>
+      <c r="I30" t="n">
+        <v>29</v>
+      </c>
+      <c r="J30" t="n">
+        <v>70</v>
+      </c>
+      <c r="K30" t="n">
+        <v>69.67310160319478</v>
+      </c>
+      <c r="L30" t="n">
+        <v>5.977923732621762</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>0.7909627251485187</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.4142857142857143</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.1578924575576157</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.7432455120049259</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U30" t="n">
+        <v>1969</v>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>130</v>
+      </c>
+      <c r="B31" t="n">
+        <v>150</v>
+      </c>
+      <c r="C31" t="n">
+        <v>176</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.05655085960202</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.585983857937381</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.4705670016646391</v>
+      </c>
+      <c r="G31" t="n">
+        <v>46</v>
+      </c>
+      <c r="H31" t="n">
+        <v>17.72004846305649</v>
+      </c>
+      <c r="I31" t="n">
+        <v>20</v>
+      </c>
+      <c r="J31" t="n">
+        <v>26</v>
+      </c>
+      <c r="K31" t="n">
+        <v>64.80380026131945</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5.553444900315614</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>0.8037769309156974</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.1984422719260451</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.9926830079300516</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
+        <v>1970</v>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1718</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1804</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4.331360684339896</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.852391158744969</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.4789695255949267</v>
+      </c>
+      <c r="G32" t="n">
+        <v>280</v>
+      </c>
+      <c r="H32" t="n">
+        <v>78.2629199192736</v>
+      </c>
+      <c r="I32" t="n">
+        <v>86</v>
+      </c>
+      <c r="J32" t="n">
+        <v>194</v>
+      </c>
+      <c r="K32" t="n">
+        <v>440.2359040717407</v>
+      </c>
+      <c r="L32" t="n">
+        <v>10.74456196106954</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>0.6986371280698565</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.4432989690721649</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.4799306154979023</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.5726752084884186</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U32" t="n">
+        <v>1971</v>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>185</v>
+      </c>
+      <c r="B33" t="n">
+        <v>245</v>
+      </c>
+      <c r="C33" t="n">
+        <v>331</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9905795432328195</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.3126784368512956</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.6779011063815239</v>
+      </c>
+      <c r="G33" t="n">
+        <v>146</v>
+      </c>
+      <c r="H33" t="n">
+        <v>75.35981206564861</v>
+      </c>
+      <c r="I33" t="n">
+        <v>60</v>
+      </c>
+      <c r="J33" t="n">
+        <v>86</v>
+      </c>
+      <c r="K33" t="n">
+        <v>80.2759675195083</v>
+      </c>
+      <c r="L33" t="n">
+        <v>4.993504950937231</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(315), 'value': np.float64(-0.16715687633375764), 'amplitude': np.float64(0.5107442300477663), 'start_idx': np.int64(304), 'end_idx': np.int64(330), 'duration': np.float64(26.0), 'fwhm': np.float64(16.276856102404793), 'rise_time': np.float64(11.0), 'decay_time': np.float64(15.0), 'auc': np.float64(9.0811008029825)}]</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>0.518335256207647</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.6976744186046512</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.2969500605218935</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.4707063941242855</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U33" t="n">
+        <v>1972</v>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1452</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1479</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1636</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3.757711958658811</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3.079810852277288</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.6779011063815239</v>
+      </c>
+      <c r="G34" t="n">
+        <v>184</v>
+      </c>
+      <c r="H34" t="n">
+        <v>160.0546707203882</v>
+      </c>
+      <c r="I34" t="n">
+        <v>27</v>
+      </c>
+      <c r="J34" t="n">
+        <v>157</v>
+      </c>
+      <c r="K34" t="n">
+        <v>362.504855920653</v>
+      </c>
+      <c r="L34" t="n">
+        <v>18.94260122566311</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>0.8697377888829199</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.1719745222929936</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.4168817365691568</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.9599707766714523</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
+        <v>1973</v>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1636</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1679</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1817</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.775059267212491</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.097158160830968</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.6779011063815239</v>
+      </c>
+      <c r="G35" t="n">
+        <v>181</v>
+      </c>
+      <c r="H35" t="n">
+        <v>71.30971201171383</v>
+      </c>
+      <c r="I35" t="n">
+        <v>43</v>
+      </c>
+      <c r="J35" t="n">
+        <v>138</v>
+      </c>
+      <c r="K35" t="n">
+        <v>264.6562670163615</v>
+      </c>
+      <c r="L35" t="n">
+        <v>13.98905548235504</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>0.8800057135828993</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.3115942028985507</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.1256713720855143</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.9402656638850916</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
+        <v>1974</v>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1817</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1836</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1866</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.949311843602166</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.2714107372206421</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.6779011063815239</v>
+      </c>
+      <c r="G36" t="n">
+        <v>49</v>
+      </c>
+      <c r="H36" t="n">
+        <v>14.94923065668377</v>
+      </c>
+      <c r="I36" t="n">
+        <v>19</v>
+      </c>
+      <c r="J36" t="n">
+        <v>30</v>
+      </c>
+      <c r="K36" t="n">
+        <v>28.88914948473444</v>
+      </c>
+      <c r="L36" t="n">
+        <v>4.785474748994099</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>0.8101042034824226</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.3430820990808903</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.9515926863385694</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>1975</v>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1471</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1507</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1555</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.7603548461414782</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.2074479458001766</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.5529069003413015</v>
+      </c>
+      <c r="G37" t="n">
+        <v>84</v>
+      </c>
+      <c r="H37" t="n">
+        <v>52.0705003851931</v>
+      </c>
+      <c r="I37" t="n">
+        <v>36</v>
+      </c>
+      <c r="J37" t="n">
+        <v>48</v>
+      </c>
+      <c r="K37" t="n">
+        <v>48.17201040064018</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.889545248816527</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>0.54693295554665</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.136836464807892</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.8909617613905376</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U37" t="n">
+        <v>1976</v>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1771</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1828</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4.203409673577633</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3.650502773236331</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.5529069003413015</v>
+      </c>
+      <c r="G38" t="n">
+        <v>227</v>
+      </c>
+      <c r="H38" t="n">
+        <v>112.4965355975892</v>
+      </c>
+      <c r="I38" t="n">
+        <v>57</v>
+      </c>
+      <c r="J38" t="n">
+        <v>170</v>
+      </c>
+      <c r="K38" t="n">
+        <v>386.8243907258399</v>
+      </c>
+      <c r="L38" t="n">
+        <v>21.50226595866426</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>0.7335787561412489</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.3352941176470588</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.6700669506197666</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.2883761001472561</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U38" t="n">
+        <v>1977</v>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1357</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1433</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.317225723666069</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.7953313308774537</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.521894392788615</v>
+      </c>
+      <c r="G39" t="n">
+        <v>192</v>
+      </c>
+      <c r="H39" t="n">
+        <v>79.38682185929429</v>
+      </c>
+      <c r="I39" t="n">
+        <v>76</v>
+      </c>
+      <c r="J39" t="n">
+        <v>116</v>
+      </c>
+      <c r="K39" t="n">
+        <v>155.0202597468196</v>
+      </c>
+      <c r="L39" t="n">
+        <v>8.184416152333251</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>0.6900849136616496</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.6551724137931034</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.201935289790417</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.7142958591536457</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
+        <v>1978</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1549</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1582</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.098235144584125</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.5763407517955097</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.521894392788615</v>
+      </c>
+      <c r="G40" t="n">
+        <v>151</v>
+      </c>
+      <c r="H40" t="n">
+        <v>53.88214831493042</v>
+      </c>
+      <c r="I40" t="n">
+        <v>33</v>
+      </c>
+      <c r="J40" t="n">
+        <v>118</v>
+      </c>
+      <c r="K40" t="n">
+        <v>93.24206774441683</v>
+      </c>
+      <c r="L40" t="n">
+        <v>6.823745767261539</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>0.9185073689553583</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.2796610169491525</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.2726892508814581</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.6873184934378815</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>1979</v>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1942</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3.265297335704659</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.743402942916044</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.521894392788615</v>
+      </c>
+      <c r="G41" t="n">
+        <v>56</v>
+      </c>
+      <c r="H41" t="n">
+        <v>23.312853403698</v>
+      </c>
+      <c r="I41" t="n">
+        <v>22</v>
+      </c>
+      <c r="J41" t="n">
+        <v>34</v>
+      </c>
+      <c r="K41" t="n">
+        <v>171.2696830165008</v>
+      </c>
+      <c r="L41" t="n">
+        <v>20.28851378800351</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>0.5304385390080386</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.06831029204799721</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.9125034073932751</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>1980</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1715</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1731</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1786</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3.057800885391681</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.581650494435965</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.4761503909557155</v>
+      </c>
+      <c r="G42" t="n">
+        <v>71</v>
+      </c>
+      <c r="H42" t="n">
+        <v>15.09254074237811</v>
+      </c>
+      <c r="I42" t="n">
+        <v>16</v>
+      </c>
+      <c r="J42" t="n">
+        <v>55</v>
+      </c>
+      <c r="K42" t="n">
+        <v>151.5193584726403</v>
+      </c>
+      <c r="L42" t="n">
+        <v>14.71185716311352</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>0.9079148281239242</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.2909090909090909</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.3329846860072386</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.9934717868520705</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>1981</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>160</v>
+      </c>
+      <c r="B43" t="n">
+        <v>224</v>
+      </c>
+      <c r="C43" t="n">
+        <v>339</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.207807227726384</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.626449592247285</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.5813576354790991</v>
+      </c>
+      <c r="G43" t="n">
+        <v>179</v>
+      </c>
+      <c r="H43" t="n">
+        <v>132.2237388537002</v>
+      </c>
+      <c r="I43" t="n">
+        <v>64</v>
+      </c>
+      <c r="J43" t="n">
+        <v>115</v>
+      </c>
+      <c r="K43" t="n">
+        <v>244.8727139971348</v>
+      </c>
+      <c r="L43" t="n">
+        <v>7.544722678617384</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6772995283888532</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.5565217391304348</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.2933360003067169</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.5893380017602875</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>1982</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>227</v>
+      </c>
+      <c r="B44" t="n">
+        <v>285</v>
+      </c>
+      <c r="C44" t="n">
+        <v>412</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3.683559803180223</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3.190517111703517</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.4930426914767052</v>
+      </c>
+      <c r="G44" t="n">
+        <v>185</v>
+      </c>
+      <c r="H44" t="n">
+        <v>38.66544256982371</v>
+      </c>
+      <c r="I44" t="n">
+        <v>58</v>
+      </c>
+      <c r="J44" t="n">
+        <v>127</v>
+      </c>
+      <c r="K44" t="n">
+        <v>276.2362345242708</v>
+      </c>
+      <c r="L44" t="n">
+        <v>11.66717137672411</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6402422607776094</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.4566929133858268</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.4107625567013657</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.6692314868920899</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>1983</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>144</v>
+      </c>
+      <c r="B45" t="n">
+        <v>172</v>
+      </c>
+      <c r="C45" t="n">
+        <v>244</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.932583983784009</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.416102150647512</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.5164818331364968</v>
+      </c>
+      <c r="G45" t="n">
+        <v>100</v>
+      </c>
+      <c r="H45" t="n">
+        <v>152.6704006641658</v>
+      </c>
+      <c r="I45" t="n">
+        <v>28</v>
+      </c>
+      <c r="J45" t="n">
+        <v>72</v>
+      </c>
+      <c r="K45" t="n">
+        <v>223.6402764688765</v>
+      </c>
+      <c r="L45" t="n">
+        <v>11.20476134594744</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>0.838781877699359</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.210377314464053</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.9234850918658275</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
           <t>n40</t>
         </is>
       </c>
-      <c r="U25" t="n">
-        <v>950</v>
-      </c>
-      <c r="V25" t="inlineStr">
+      <c r="U45" t="n">
+        <v>1984</v>
+      </c>
+      <c r="V45" t="inlineStr">
         <is>
           <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
         </is>
       </c>
-      <c r="W25" t="inlineStr">
+      <c r="W45" t="inlineStr">
         <is>
           <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
         </is>
       </c>
-      <c r="X25" t="inlineStr">
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1183</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1203</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1318</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.719125482021569</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.202643648885072</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.5164818331364968</v>
+      </c>
+      <c r="G46" t="n">
+        <v>135</v>
+      </c>
+      <c r="H46" t="n">
+        <v>22.77890933351</v>
+      </c>
+      <c r="I46" t="n">
+        <v>20</v>
+      </c>
+      <c r="J46" t="n">
+        <v>115</v>
+      </c>
+      <c r="K46" t="n">
+        <v>103.8724607223325</v>
+      </c>
+      <c r="L46" t="n">
+        <v>6.568402083726055</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>0.8022580749687324</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.5583011035814194</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.8234087022676446</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>1985</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.297920240925homecagefamilarmice2024-12-07095919trace/processed_No.297920240925homecagefamilarmice2024-12-07095919trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.297920240925homecagefamilarmice2024-12-07095919trace/processed_No.297920240925homecagefamilarmice2024-12-07095919trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X46"/>
+  <dimension ref="A1:X50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1941</v>
+        <v>2025</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>1942</v>
+        <v>2026</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>1943</v>
+        <v>2027</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>1944</v>
+        <v>2028</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>1945</v>
+        <v>2029</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>1946</v>
+        <v>2030</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>1947</v>
+        <v>2031</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>1948</v>
+        <v>2032</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>1949</v>
+        <v>2033</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>1950</v>
+        <v>2034</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>1951</v>
+        <v>2035</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>1952</v>
+        <v>2036</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>1953</v>
+        <v>2037</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>1954</v>
+        <v>2038</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>1955</v>
+        <v>2039</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="U17" t="n">
-        <v>1956</v>
+        <v>2040</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>1957</v>
+        <v>2041</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>1958</v>
+        <v>2042</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="U20" t="n">
-        <v>1959</v>
+        <v>2043</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="U21" t="n">
-        <v>1960</v>
+        <v>2044</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>1961</v>
+        <v>2045</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="U23" t="n">
-        <v>1962</v>
+        <v>2046</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="U24" t="n">
-        <v>1963</v>
+        <v>2047</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>1964</v>
+        <v>2048</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="U26" t="n">
-        <v>1965</v>
+        <v>2049</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="U27" t="n">
-        <v>1966</v>
+        <v>2050</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="U28" t="n">
-        <v>1967</v>
+        <v>2051</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
+        <v>567</v>
+      </c>
+      <c r="B29" t="n">
+        <v>585</v>
+      </c>
+      <c r="C29" t="n">
         <v>621</v>
       </c>
-      <c r="B29" t="n">
-        <v>644</v>
-      </c>
-      <c r="C29" t="n">
-        <v>858</v>
-      </c>
       <c r="D29" t="n">
-        <v>3.063658190199081</v>
+        <v>3.794326351358175</v>
       </c>
       <c r="E29" t="n">
-        <v>2.531021536598236</v>
+        <v>3.26168969775733</v>
       </c>
       <c r="F29" t="n">
         <v>-0.532636653600845</v>
       </c>
       <c r="G29" t="n">
-        <v>237</v>
+        <v>54</v>
       </c>
       <c r="H29" t="n">
-        <v>28.4850227371212</v>
+        <v>16.17456500560081</v>
       </c>
       <c r="I29" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J29" t="n">
-        <v>214</v>
+        <v>36</v>
       </c>
       <c r="K29" t="n">
-        <v>406.1726039908167</v>
+        <v>176.7292841085526</v>
       </c>
       <c r="L29" t="n">
-        <v>14.74019970845032</v>
+        <v>18.25566845445666</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.782034284019524</v>
+        <v>0.8062486241927405</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.1074766355140187</v>
+        <v>0.5</v>
       </c>
       <c r="R29" t="n">
-        <v>0.4181939098862594</v>
+        <v>0.1614477153716311</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9377159770823558</v>
+        <v>0.9967650702228278</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="U29" t="n">
-        <v>1968</v>
+        <v>2052</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
+        <v>621</v>
+      </c>
+      <c r="B30" t="n">
+        <v>644</v>
+      </c>
+      <c r="C30" t="n">
         <v>858</v>
       </c>
-      <c r="B30" t="n">
-        <v>887</v>
-      </c>
-      <c r="C30" t="n">
-        <v>957</v>
-      </c>
       <c r="D30" t="n">
-        <v>1.242474007549085</v>
+        <v>3.063658190199081</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7098373539482398</v>
+        <v>2.531021536598236</v>
       </c>
       <c r="F30" t="n">
         <v>-0.532636653600845</v>
       </c>
       <c r="G30" t="n">
-        <v>99</v>
+        <v>237</v>
       </c>
       <c r="H30" t="n">
-        <v>31.65402027389609</v>
+        <v>28.4850227371212</v>
       </c>
       <c r="I30" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J30" t="n">
-        <v>70</v>
+        <v>214</v>
       </c>
       <c r="K30" t="n">
-        <v>69.67310160319478</v>
+        <v>406.1726039908167</v>
       </c>
       <c r="L30" t="n">
-        <v>5.977923732621762</v>
+        <v>14.74019970845032</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,16 +3014,16 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.7909627251485187</v>
+        <v>0.782034284019524</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.4142857142857143</v>
+        <v>0.1074766355140187</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1578924575576157</v>
+        <v>0.4181939098862594</v>
       </c>
       <c r="S30" t="n">
-        <v>0.7432455120049259</v>
+        <v>0.9377159770823558</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="U30" t="n">
-        <v>1969</v>
+        <v>2053</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130</v>
+        <v>858</v>
       </c>
       <c r="B31" t="n">
-        <v>150</v>
+        <v>887</v>
       </c>
       <c r="C31" t="n">
-        <v>176</v>
+        <v>957</v>
       </c>
       <c r="D31" t="n">
-        <v>2.05655085960202</v>
+        <v>1.242474007549085</v>
       </c>
       <c r="E31" t="n">
-        <v>1.585983857937381</v>
+        <v>0.7098373539482398</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.4705670016646391</v>
+        <v>-0.532636653600845</v>
       </c>
       <c r="G31" t="n">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="H31" t="n">
-        <v>17.72004846305649</v>
+        <v>31.65402027389609</v>
       </c>
       <c r="I31" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J31" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="K31" t="n">
-        <v>64.80380026131945</v>
+        <v>69.67310160319478</v>
       </c>
       <c r="L31" t="n">
-        <v>5.553444900315614</v>
+        <v>5.977923732621762</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.8037769309156974</v>
+        <v>0.7909627251485187</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1984422719260451</v>
+        <v>0.1578924575576157</v>
       </c>
       <c r="S31" t="n">
-        <v>0.9926830079300516</v>
+        <v>0.7432455120049259</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>1970</v>
+        <v>2054</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1718</v>
+        <v>130</v>
       </c>
       <c r="B32" t="n">
-        <v>1804</v>
+        <v>150</v>
       </c>
       <c r="C32" t="n">
-        <v>1998</v>
+        <v>176</v>
       </c>
       <c r="D32" t="n">
-        <v>4.331360684339896</v>
+        <v>2.05655085960202</v>
       </c>
       <c r="E32" t="n">
-        <v>3.852391158744969</v>
+        <v>1.585983857937381</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.4789695255949267</v>
+        <v>-0.4705670016646391</v>
       </c>
       <c r="G32" t="n">
-        <v>280</v>
+        <v>46</v>
       </c>
       <c r="H32" t="n">
-        <v>78.2629199192736</v>
+        <v>17.72004846305649</v>
       </c>
       <c r="I32" t="n">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="J32" t="n">
-        <v>194</v>
+        <v>26</v>
       </c>
       <c r="K32" t="n">
-        <v>440.2359040717407</v>
+        <v>64.80380026131945</v>
       </c>
       <c r="L32" t="n">
-        <v>10.74456196106954</v>
+        <v>5.553444900315614</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.6986371280698565</v>
+        <v>0.8037769309156974</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.4432989690721649</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="R32" t="n">
-        <v>0.4799306154979023</v>
+        <v>0.1984422719260451</v>
       </c>
       <c r="S32" t="n">
-        <v>0.5726752084884186</v>
+        <v>0.9926830079300516</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>1971</v>
+        <v>2055</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,73 +3223,73 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>185</v>
+        <v>1718</v>
       </c>
       <c r="B33" t="n">
-        <v>245</v>
+        <v>1804</v>
       </c>
       <c r="C33" t="n">
-        <v>331</v>
+        <v>1998</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9905795432328195</v>
+        <v>4.331360684339896</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3126784368512956</v>
+        <v>3.852391158744969</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.6779011063815239</v>
+        <v>-0.4789695255949267</v>
       </c>
       <c r="G33" t="n">
-        <v>146</v>
+        <v>280</v>
       </c>
       <c r="H33" t="n">
-        <v>75.35981206564861</v>
+        <v>78.2629199192736</v>
       </c>
       <c r="I33" t="n">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="J33" t="n">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="K33" t="n">
-        <v>80.2759675195083</v>
+        <v>440.2359040717407</v>
       </c>
       <c r="L33" t="n">
-        <v>4.993504950937231</v>
+        <v>10.74456196106954</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(315), 'value': np.float64(-0.16715687633375764), 'amplitude': np.float64(0.5107442300477663), 'start_idx': np.int64(304), 'end_idx': np.int64(330), 'duration': np.float64(26.0), 'fwhm': np.float64(16.276856102404793), 'rise_time': np.float64(11.0), 'decay_time': np.float64(15.0), 'auc': np.float64(9.0811008029825)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.518335256207647</v>
+        <v>0.6986371280698565</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.6976744186046512</v>
+        <v>0.4432989690721649</v>
       </c>
       <c r="R33" t="n">
-        <v>0.2969500605218935</v>
+        <v>0.4799306154979023</v>
       </c>
       <c r="S33" t="n">
-        <v>0.4707063941242855</v>
+        <v>0.5726752084884186</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>1972</v>
+        <v>2056</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,65 +3309,65 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1452</v>
+        <v>185</v>
       </c>
       <c r="B34" t="n">
-        <v>1479</v>
+        <v>245</v>
       </c>
       <c r="C34" t="n">
-        <v>1636</v>
+        <v>331</v>
       </c>
       <c r="D34" t="n">
-        <v>3.757711958658811</v>
+        <v>0.9905795432328195</v>
       </c>
       <c r="E34" t="n">
-        <v>3.079810852277288</v>
+        <v>0.3126784368512956</v>
       </c>
       <c r="F34" t="n">
         <v>-0.6779011063815239</v>
       </c>
       <c r="G34" t="n">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="H34" t="n">
-        <v>160.0546707203882</v>
+        <v>75.35981206564861</v>
       </c>
       <c r="I34" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="J34" t="n">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="K34" t="n">
-        <v>362.504855920653</v>
+        <v>80.2759675195083</v>
       </c>
       <c r="L34" t="n">
-        <v>18.94260122566311</v>
+        <v>4.993504950937231</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(315), 'value': np.float64(-0.16715687633375764), 'amplitude': np.float64(0.5107442300477663), 'start_idx': np.int64(304), 'end_idx': np.int64(330), 'duration': np.float64(26.0), 'fwhm': np.float64(16.276856102404793), 'rise_time': np.float64(11.0), 'decay_time': np.float64(15.0), 'auc': np.float64(9.0811008029825)}]</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.8697377888829199</v>
+        <v>0.518335256207647</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.1719745222929936</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="R34" t="n">
-        <v>0.4168817365691568</v>
+        <v>0.2969500605218935</v>
       </c>
       <c r="S34" t="n">
-        <v>0.9599707766714523</v>
+        <v>0.4707063941242855</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="U34" t="n">
-        <v>1973</v>
+        <v>2057</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
+        <v>1452</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1479</v>
+      </c>
+      <c r="C35" t="n">
         <v>1636</v>
       </c>
-      <c r="B35" t="n">
-        <v>1679</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1817</v>
-      </c>
       <c r="D35" t="n">
-        <v>2.775059267212491</v>
+        <v>3.757711958658811</v>
       </c>
       <c r="E35" t="n">
-        <v>2.097158160830968</v>
+        <v>3.079810852277288</v>
       </c>
       <c r="F35" t="n">
         <v>-0.6779011063815239</v>
       </c>
       <c r="G35" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H35" t="n">
-        <v>71.30971201171383</v>
+        <v>160.0546707203882</v>
       </c>
       <c r="I35" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="J35" t="n">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="K35" t="n">
-        <v>264.6562670163615</v>
+        <v>362.504855920653</v>
       </c>
       <c r="L35" t="n">
-        <v>13.98905548235504</v>
+        <v>18.94260122566311</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,16 +3444,16 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.8800057135828993</v>
+        <v>0.8697377888829199</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.3115942028985507</v>
+        <v>0.1719745222929936</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1256713720855143</v>
+        <v>0.4168817365691568</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9402656638850916</v>
+        <v>0.9599707766714523</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="U35" t="n">
-        <v>1974</v>
+        <v>2058</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
+        <v>1636</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1679</v>
+      </c>
+      <c r="C36" t="n">
         <v>1817</v>
       </c>
-      <c r="B36" t="n">
-        <v>1836</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1866</v>
-      </c>
       <c r="D36" t="n">
-        <v>0.949311843602166</v>
+        <v>2.775059267212491</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2714107372206421</v>
+        <v>2.097158160830968</v>
       </c>
       <c r="F36" t="n">
         <v>-0.6779011063815239</v>
       </c>
       <c r="G36" t="n">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="H36" t="n">
-        <v>14.94923065668377</v>
+        <v>71.30971201171383</v>
       </c>
       <c r="I36" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="J36" t="n">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="K36" t="n">
-        <v>28.88914948473444</v>
+        <v>264.6562670163615</v>
       </c>
       <c r="L36" t="n">
-        <v>4.785474748994099</v>
+        <v>13.98905548235504</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,16 +3530,16 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.8101042034824226</v>
+        <v>0.8800057135828993</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.3115942028985507</v>
       </c>
       <c r="R36" t="n">
-        <v>0.3430820990808903</v>
+        <v>0.1256713720855143</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9515926863385694</v>
+        <v>0.9402656638850916</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="U36" t="n">
-        <v>1975</v>
+        <v>2059</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1471</v>
+        <v>1817</v>
       </c>
       <c r="B37" t="n">
-        <v>1507</v>
+        <v>1836</v>
       </c>
       <c r="C37" t="n">
-        <v>1555</v>
+        <v>1866</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7603548461414782</v>
+        <v>0.949311843602166</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2074479458001766</v>
+        <v>0.2714107372206421</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.5529069003413015</v>
+        <v>-0.6779011063815239</v>
       </c>
       <c r="G37" t="n">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="H37" t="n">
-        <v>52.0705003851931</v>
+        <v>14.94923065668377</v>
       </c>
       <c r="I37" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="J37" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="K37" t="n">
-        <v>48.17201040064018</v>
+        <v>28.88914948473444</v>
       </c>
       <c r="L37" t="n">
-        <v>3.889545248816527</v>
+        <v>4.785474748994099</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,24 +3616,24 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.54693295554665</v>
+        <v>0.8101042034824226</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.75</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="R37" t="n">
-        <v>0.136836464807892</v>
+        <v>0.3430820990808903</v>
       </c>
       <c r="S37" t="n">
-        <v>0.8909617613905376</v>
+        <v>0.9515926863385694</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>1976</v>
+        <v>2060</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1771</v>
+        <v>1471</v>
       </c>
       <c r="B38" t="n">
-        <v>1828</v>
+        <v>1507</v>
       </c>
       <c r="C38" t="n">
-        <v>1998</v>
+        <v>1555</v>
       </c>
       <c r="D38" t="n">
-        <v>4.203409673577633</v>
+        <v>0.7603548461414782</v>
       </c>
       <c r="E38" t="n">
-        <v>3.650502773236331</v>
+        <v>0.2074479458001766</v>
       </c>
       <c r="F38" t="n">
         <v>-0.5529069003413015</v>
       </c>
       <c r="G38" t="n">
-        <v>227</v>
+        <v>84</v>
       </c>
       <c r="H38" t="n">
-        <v>112.4965355975892</v>
+        <v>52.0705003851931</v>
       </c>
       <c r="I38" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="J38" t="n">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="K38" t="n">
-        <v>386.8243907258399</v>
+        <v>48.17201040064018</v>
       </c>
       <c r="L38" t="n">
-        <v>21.50226595866426</v>
+        <v>3.889545248816527</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,16 +3702,16 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.7335787561412489</v>
+        <v>0.54693295554665</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.3352941176470588</v>
+        <v>0.75</v>
       </c>
       <c r="R38" t="n">
-        <v>0.6700669506197666</v>
+        <v>0.136836464807892</v>
       </c>
       <c r="S38" t="n">
-        <v>0.2883761001472561</v>
+        <v>0.8909617613905376</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         </is>
       </c>
       <c r="U38" t="n">
-        <v>1977</v>
+        <v>2061</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1357</v>
+        <v>1771</v>
       </c>
       <c r="B39" t="n">
-        <v>1433</v>
+        <v>1828</v>
       </c>
       <c r="C39" t="n">
-        <v>1549</v>
+        <v>1998</v>
       </c>
       <c r="D39" t="n">
-        <v>1.317225723666069</v>
+        <v>4.203409673577633</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7953313308774537</v>
+        <v>3.650502773236331</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.521894392788615</v>
+        <v>-0.5529069003413015</v>
       </c>
       <c r="G39" t="n">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="H39" t="n">
-        <v>79.38682185929429</v>
+        <v>112.4965355975892</v>
       </c>
       <c r="I39" t="n">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="J39" t="n">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="K39" t="n">
-        <v>155.0202597468196</v>
+        <v>386.8243907258399</v>
       </c>
       <c r="L39" t="n">
-        <v>8.184416152333251</v>
+        <v>21.50226595866426</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,24 +3788,24 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.6900849136616496</v>
+        <v>0.7335787561412489</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.6551724137931034</v>
+        <v>0.3352941176470588</v>
       </c>
       <c r="R39" t="n">
-        <v>0.201935289790417</v>
+        <v>0.6700669506197666</v>
       </c>
       <c r="S39" t="n">
-        <v>0.7142958591536457</v>
+        <v>0.2883761001472561</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>1978</v>
+        <v>2062</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
+        <v>1357</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1433</v>
+      </c>
+      <c r="C40" t="n">
         <v>1549</v>
       </c>
-      <c r="B40" t="n">
-        <v>1582</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1700</v>
-      </c>
       <c r="D40" t="n">
-        <v>1.098235144584125</v>
+        <v>1.317225723666069</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5763407517955097</v>
+        <v>0.7953313308774537</v>
       </c>
       <c r="F40" t="n">
         <v>-0.521894392788615</v>
       </c>
       <c r="G40" t="n">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="H40" t="n">
-        <v>53.88214831493042</v>
+        <v>79.38682185929429</v>
       </c>
       <c r="I40" t="n">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="J40" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K40" t="n">
-        <v>93.24206774441683</v>
+        <v>155.0202597468196</v>
       </c>
       <c r="L40" t="n">
-        <v>6.823745767261539</v>
+        <v>8.184416152333251</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,16 +3874,16 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.9185073689553583</v>
+        <v>0.6900849136616496</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.2796610169491525</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="R40" t="n">
-        <v>0.2726892508814581</v>
+        <v>0.201935289790417</v>
       </c>
       <c r="S40" t="n">
-        <v>0.6873184934378815</v>
+        <v>0.7142958591536457</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="U40" t="n">
-        <v>1979</v>
+        <v>2063</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1942</v>
+        <v>1549</v>
       </c>
       <c r="B41" t="n">
-        <v>1964</v>
+        <v>1582</v>
       </c>
       <c r="C41" t="n">
-        <v>1998</v>
+        <v>1643</v>
       </c>
       <c r="D41" t="n">
-        <v>3.265297335704659</v>
+        <v>1.098235144584125</v>
       </c>
       <c r="E41" t="n">
-        <v>2.743402942916044</v>
+        <v>0.5763407517955097</v>
       </c>
       <c r="F41" t="n">
         <v>-0.521894392788615</v>
       </c>
       <c r="G41" t="n">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="H41" t="n">
-        <v>23.312853403698</v>
+        <v>53.88214831493042</v>
       </c>
       <c r="I41" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="J41" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="K41" t="n">
-        <v>171.2696830165008</v>
+        <v>70.13871605476037</v>
       </c>
       <c r="L41" t="n">
-        <v>20.28851378800351</v>
+        <v>6.823745767261539</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,16 +3960,16 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.5304385390080386</v>
+        <v>0.6766706042370846</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="R41" t="n">
-        <v>0.06831029204799721</v>
+        <v>0.05696884693682138</v>
       </c>
       <c r="S41" t="n">
-        <v>0.9125034073932751</v>
+        <v>0.9271974199459904</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         </is>
       </c>
       <c r="U41" t="n">
-        <v>1980</v>
+        <v>2064</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1715</v>
+        <v>1942</v>
       </c>
       <c r="B42" t="n">
-        <v>1731</v>
+        <v>1964</v>
       </c>
       <c r="C42" t="n">
-        <v>1786</v>
+        <v>1998</v>
       </c>
       <c r="D42" t="n">
-        <v>3.057800885391681</v>
+        <v>3.265297335704659</v>
       </c>
       <c r="E42" t="n">
-        <v>2.581650494435965</v>
+        <v>2.743402942916044</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.4761503909557155</v>
+        <v>-0.521894392788615</v>
       </c>
       <c r="G42" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="H42" t="n">
-        <v>15.09254074237811</v>
+        <v>23.312853403698</v>
       </c>
       <c r="I42" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J42" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="K42" t="n">
-        <v>151.5193584726403</v>
+        <v>171.2696830165008</v>
       </c>
       <c r="L42" t="n">
-        <v>14.71185716311352</v>
+        <v>20.28851378800351</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,24 +4046,24 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.9079148281239242</v>
+        <v>0.5304385390080386</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.2909090909090909</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="R42" t="n">
-        <v>0.3329846860072386</v>
+        <v>0.06831029204799721</v>
       </c>
       <c r="S42" t="n">
-        <v>0.9934717868520705</v>
+        <v>0.9125034073932751</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>1981</v>
+        <v>2065</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>160</v>
+        <v>1715</v>
       </c>
       <c r="B43" t="n">
-        <v>224</v>
+        <v>1731</v>
       </c>
       <c r="C43" t="n">
-        <v>339</v>
+        <v>1786</v>
       </c>
       <c r="D43" t="n">
-        <v>2.207807227726384</v>
+        <v>3.057800885391681</v>
       </c>
       <c r="E43" t="n">
-        <v>1.626449592247285</v>
+        <v>2.581650494435965</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.5813576354790991</v>
+        <v>-0.4761503909557155</v>
       </c>
       <c r="G43" t="n">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="H43" t="n">
-        <v>132.2237388537002</v>
+        <v>15.09254074237811</v>
       </c>
       <c r="I43" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="J43" t="n">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="K43" t="n">
-        <v>244.8727139971348</v>
+        <v>151.5193584726403</v>
       </c>
       <c r="L43" t="n">
-        <v>7.544722678617384</v>
+        <v>14.71185716311352</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,24 +4132,24 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.6772995283888532</v>
+        <v>0.9079148281239242</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.5565217391304348</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="R43" t="n">
-        <v>0.2933360003067169</v>
+        <v>0.3329846860072386</v>
       </c>
       <c r="S43" t="n">
-        <v>0.5893380017602875</v>
+        <v>0.9934717868520705</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>1982</v>
+        <v>2066</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>285</v>
+        <v>7</v>
       </c>
       <c r="C44" t="n">
-        <v>412</v>
+        <v>37</v>
       </c>
       <c r="D44" t="n">
-        <v>3.683559803180223</v>
+        <v>1.497450661454106</v>
       </c>
       <c r="E44" t="n">
-        <v>3.190517111703517</v>
+        <v>0.9160930259750066</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.4930426914767052</v>
+        <v>-0.5813576354790991</v>
       </c>
       <c r="G44" t="n">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="H44" t="n">
-        <v>38.66544256982371</v>
+        <v>11.45353211711038</v>
       </c>
       <c r="I44" t="n">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J44" t="n">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="K44" t="n">
-        <v>276.2362345242708</v>
+        <v>32.1190829617918</v>
       </c>
       <c r="L44" t="n">
-        <v>11.66717137672411</v>
+        <v>5.117226641756219</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,24 +4218,24 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.6402422607776094</v>
+        <v>0.9297038719798406</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.4566929133858268</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="R44" t="n">
-        <v>0.4107625567013657</v>
+        <v>0.4447243501725389</v>
       </c>
       <c r="S44" t="n">
-        <v>0.6692314868920899</v>
+        <v>0.9536511480385642</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>n39</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>1983</v>
+        <v>2067</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="B45" t="n">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="C45" t="n">
-        <v>244</v>
+        <v>160</v>
       </c>
       <c r="D45" t="n">
-        <v>2.932583983784009</v>
+        <v>1.43837036273935</v>
       </c>
       <c r="E45" t="n">
-        <v>2.416102150647512</v>
+        <v>0.8570127272602504</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.5164818331364968</v>
+        <v>-0.5813576354790991</v>
       </c>
       <c r="G45" t="n">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="H45" t="n">
-        <v>152.6704006641658</v>
+        <v>67.14017399690931</v>
       </c>
       <c r="I45" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J45" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="K45" t="n">
-        <v>223.6402764688765</v>
+        <v>107.4034361367699</v>
       </c>
       <c r="L45" t="n">
-        <v>11.20476134594744</v>
+        <v>4.915331990821617</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,24 +4304,24 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.838781877699359</v>
+        <v>0.6994955596668131</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="R45" t="n">
-        <v>0.210377314464053</v>
+        <v>0.4294728872772594</v>
       </c>
       <c r="S45" t="n">
-        <v>0.9234850918658275</v>
+        <v>0.6317346246416151</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>n40</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>1984</v>
+        <v>2068</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1183</v>
+        <v>294</v>
       </c>
       <c r="B46" t="n">
-        <v>1203</v>
+        <v>305</v>
       </c>
       <c r="C46" t="n">
-        <v>1318</v>
+        <v>339</v>
       </c>
       <c r="D46" t="n">
-        <v>1.719125482021569</v>
+        <v>1.719554119536248</v>
       </c>
       <c r="E46" t="n">
-        <v>1.202643648885072</v>
+        <v>1.138196484057149</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.5164818331364968</v>
+        <v>-0.5813576354790991</v>
       </c>
       <c r="G46" t="n">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="H46" t="n">
-        <v>22.77890933351</v>
+        <v>12.22439802936617</v>
       </c>
       <c r="I46" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J46" t="n">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="K46" t="n">
-        <v>103.8724607223325</v>
+        <v>48.95302829326295</v>
       </c>
       <c r="L46" t="n">
-        <v>6.568402083726055</v>
+        <v>5.876219082829684</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,36 +4390,380 @@
         </is>
       </c>
       <c r="P46" t="n">
+        <v>0.9071889545493604</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.382244504553236</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.9310055792859884</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>2069</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1722</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1753</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1812</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3.300840458857516</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2.719482823378417</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.5813576354790991</v>
+      </c>
+      <c r="G47" t="n">
+        <v>90</v>
+      </c>
+      <c r="H47" t="n">
+        <v>221.3799712541311</v>
+      </c>
+      <c r="I47" t="n">
+        <v>31</v>
+      </c>
+      <c r="J47" t="n">
+        <v>59</v>
+      </c>
+      <c r="K47" t="n">
+        <v>214.3402439639055</v>
+      </c>
+      <c r="L47" t="n">
+        <v>11.27993674252365</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>0.7742054848987941</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.5254237288135594</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.2660855500442483</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.8609109438518218</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>2070</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>227</v>
+      </c>
+      <c r="B48" t="n">
+        <v>285</v>
+      </c>
+      <c r="C48" t="n">
+        <v>412</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3.683559803180223</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3.190517111703517</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.4930426914767052</v>
+      </c>
+      <c r="G48" t="n">
+        <v>185</v>
+      </c>
+      <c r="H48" t="n">
+        <v>38.66544256982371</v>
+      </c>
+      <c r="I48" t="n">
+        <v>58</v>
+      </c>
+      <c r="J48" t="n">
+        <v>127</v>
+      </c>
+      <c r="K48" t="n">
+        <v>276.2362345242708</v>
+      </c>
+      <c r="L48" t="n">
+        <v>11.66717137672411</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>0.6402422607776094</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.4566929133858268</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.4107625567013657</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.6692314868920899</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>2071</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>144</v>
+      </c>
+      <c r="B49" t="n">
+        <v>172</v>
+      </c>
+      <c r="C49" t="n">
+        <v>244</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.932583983784009</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2.416102150647512</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.5164818331364968</v>
+      </c>
+      <c r="G49" t="n">
+        <v>100</v>
+      </c>
+      <c r="H49" t="n">
+        <v>152.6704006641658</v>
+      </c>
+      <c r="I49" t="n">
+        <v>28</v>
+      </c>
+      <c r="J49" t="n">
+        <v>72</v>
+      </c>
+      <c r="K49" t="n">
+        <v>223.6402764688765</v>
+      </c>
+      <c r="L49" t="n">
+        <v>11.20476134594744</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>0.838781877699359</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.210377314464053</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.9234850918658275</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>2072</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1183</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1203</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1318</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.719125482021569</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.202643648885072</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.5164818331364968</v>
+      </c>
+      <c r="G50" t="n">
+        <v>135</v>
+      </c>
+      <c r="H50" t="n">
+        <v>22.77890933351</v>
+      </c>
+      <c r="I50" t="n">
+        <v>20</v>
+      </c>
+      <c r="J50" t="n">
+        <v>115</v>
+      </c>
+      <c r="K50" t="n">
+        <v>103.8724607223325</v>
+      </c>
+      <c r="L50" t="n">
+        <v>6.568402083726055</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
         <v>0.8022580749687324</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="Q50" t="n">
         <v>0.1739130434782609</v>
       </c>
-      <c r="R46" t="n">
+      <c r="R50" t="n">
         <v>0.5583011035814194</v>
       </c>
-      <c r="S46" t="n">
+      <c r="S50" t="n">
         <v>0.8234087022676446</v>
       </c>
-      <c r="T46" t="inlineStr">
+      <c r="T50" t="inlineStr">
         <is>
           <t>n40</t>
         </is>
       </c>
-      <c r="U46" t="n">
-        <v>1985</v>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X46" t="inlineStr">
+      <c r="U50" t="n">
+        <v>2073</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagefamilarmice2024-12-07095919trace.xlsx</t>
         </is>
